--- a/modencode_interface_submissions.xlsx
+++ b/modencode_interface_submissions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23206"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="858" firstSheet="10" activeTab="22"/>
+    <workbookView xWindow="1700" yWindow="560" windowWidth="25600" windowHeight="16080" tabRatio="858" firstSheet="7" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="organism" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7876" uniqueCount="3317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7901" uniqueCount="3323">
   <si>
     <t>dataset_uuid</t>
   </si>
@@ -10138,9 +10138,6 @@
     <t>07/17/2013</t>
   </si>
   <si>
-    <t>Michael Snyder, Yale</t>
-  </si>
-  <si>
     <t>modencode</t>
   </si>
   <si>
@@ -10154,6 +10151,27 @@
   </si>
   <si>
     <t>modENCODE</t>
+  </si>
+  <si>
+    <t>U01HG004267</t>
+  </si>
+  <si>
+    <t>GLOBAL IDENTIFICATION OF TRANSCRIPTION FACTOR BINDING SITES IN C. ELEGANS</t>
+  </si>
+  <si>
+    <t>2007-0504</t>
+  </si>
+  <si>
+    <t>http://projectreporter.nih.gov/project_info_details.cfm?aid=7848868&amp;icde=15628202</t>
+  </si>
+  <si>
+    <t>The model organism C. elegans has many features that make it ideal for mapping functional elements encoded in its genome. We propose to build a genome-wide map of the binding sites for every C. elegans transcription factor. Moreover, over the course of this project, we will identify the exact localization of every transcription factor at single-cell resolution. These studies will be critical for deciphering the regulatory information housed in the genome to direct development and homeostasis. To maximize quality, speed, and comprehensiveness of the data collection, we have assembled a highly qualified team with extensive experience in performing the proposed goals, and developed a streamlined procedure for implementing these goals. First, we will make constructs in which each transcription factor is fused to a dual Myc-mCherry fluorescent tag. These constructs will be used to generate transgenic strains that express each tagged transcription factor at endogenous levels and locations. We will examine the temporal and spatial expression of each factor and determine its precise location using automated imaging techniques. Based on the optimal expression of each factor, we will perform genome-wide mapping of its binding sites in vivo using chromatin immunoprecipitation (ChIP) followed by hybridization to a microarray containing probes distributed across the entire genome. These binding data will be validated by multiple methods, including quantitative PCR of ChIP samples, expression analysis in transcription factor knockout strains, and mutational analysis of candidate binding sites in transgenic reporters. We will perform bioinformatic analysis to identify regulatory motifs and compare motifs between factors. All data generated from this project will be stored in a web-accessible in-house database for use by the scientific community, and incorporated into the modENCODE consortium database and Wormbase.</t>
+  </si>
+  <si>
+    <t>0faad9e4-00b1-4145-a7d8-2ca0076e5d4a</t>
+  </si>
+  <si>
+    <t>http://snyderlab.stanford.edu/</t>
   </si>
 </sst>
 </file>
@@ -10164,7 +10182,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -10399,6 +10417,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
   <fills count="29">
     <fill>
@@ -10579,7 +10602,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -10601,8 +10624,9 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -10694,8 +10718,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="22">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -10716,6 +10750,7 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -12519,8 +12554,8 @@
   <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -15105,28 +15140,52 @@
       <c r="U46" s="18"/>
       <c r="V46" s="18"/>
     </row>
-    <row r="47" spans="1:22" ht="12.75" customHeight="1">
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="18"/>
-      <c r="T47" s="18"/>
-      <c r="U47" s="18"/>
-      <c r="V47" s="18"/>
+    <row r="47" spans="1:22" s="58" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B47" s="56" t="s">
+        <v>3321</v>
+      </c>
+      <c r="C47" s="56" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D47" s="56" t="s">
+        <v>3316</v>
+      </c>
+      <c r="E47" s="56" t="s">
+        <v>712</v>
+      </c>
+      <c r="F47" s="56" t="s">
+        <v>713</v>
+      </c>
+      <c r="G47" s="56" t="s">
+        <v>714</v>
+      </c>
+      <c r="H47" s="56" t="s">
+        <v>715</v>
+      </c>
+      <c r="I47" s="56" t="s">
+        <v>712</v>
+      </c>
+      <c r="J47" s="56" t="s">
+        <v>716</v>
+      </c>
+      <c r="K47" s="56" t="s">
+        <v>853</v>
+      </c>
+      <c r="L47" s="56" t="s">
+        <v>599</v>
+      </c>
+      <c r="M47" s="56" t="s">
+        <v>1262</v>
+      </c>
+      <c r="N47" s="56" t="s">
+        <v>1033</v>
+      </c>
+      <c r="O47" s="56" t="s">
+        <v>863</v>
+      </c>
+      <c r="P47" s="57" t="s">
+        <v>3322</v>
+      </c>
     </row>
     <row r="48" spans="1:22" ht="12.75" customHeight="1">
       <c r="B48" s="18"/>
@@ -16372,7 +16431,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="37" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="P47" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -16387,7 +16450,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -18232,29 +18295,49 @@
       <c r="U40" s="18"/>
       <c r="V40" s="18"/>
     </row>
-    <row r="41" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="18"/>
+    <row r="41" spans="1:22" s="58" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A41" s="55"/>
+      <c r="B41" s="56" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C41" s="56" t="s">
+        <v>3316</v>
+      </c>
+      <c r="D41" s="56" t="s">
+        <v>3317</v>
+      </c>
+      <c r="E41" s="56" t="s">
+        <v>3315</v>
+      </c>
+      <c r="F41" s="56" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G41" s="56" t="s">
+        <v>403</v>
+      </c>
+      <c r="H41" s="56" t="s">
+        <v>3318</v>
+      </c>
+      <c r="I41" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="J41" s="57" t="s">
+        <v>3319</v>
+      </c>
+      <c r="K41" s="56" t="s">
+        <v>3320</v>
+      </c>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="55"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="55"/>
+      <c r="Q41" s="55"/>
+      <c r="R41" s="55"/>
+      <c r="S41" s="55"/>
+      <c r="T41" s="55"/>
+      <c r="U41" s="55"/>
+      <c r="V41" s="55"/>
     </row>
     <row r="42" spans="1:22" ht="12.75" customHeight="1">
       <c r="A42" s="18"/>
@@ -19530,6 +19613,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="37" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J41" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -28463,9 +28549,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R335"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L332" sqref="L332"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -28556,13 +28642,13 @@
         <v>875</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K2" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
@@ -28588,13 +28674,13 @@
         <v>875</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="12.75" customHeight="1">
@@ -28620,13 +28706,13 @@
         <v>875</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="12.75" customHeight="1">
@@ -28652,10 +28738,10 @@
         <v>2177</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="12.75" customHeight="1">
@@ -28681,13 +28767,13 @@
         <v>875</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="12.75" customHeight="1">
@@ -28713,13 +28799,13 @@
         <v>875</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="12.75" customHeight="1">
@@ -28745,13 +28831,13 @@
         <v>875</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K8" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="12.75" customHeight="1">
@@ -28777,13 +28863,13 @@
         <v>875</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="12.75" customHeight="1">
@@ -28809,13 +28895,13 @@
         <v>875</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="12.75" customHeight="1">
@@ -28841,13 +28927,13 @@
         <v>875</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K11" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="12.75" customHeight="1">
@@ -28873,13 +28959,13 @@
         <v>875</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K12" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="12.75" customHeight="1">
@@ -28905,13 +28991,13 @@
         <v>875</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K13" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="12.75" customHeight="1">
@@ -28937,13 +29023,13 @@
         <v>875</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K14" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="12.75" customHeight="1">
@@ -28969,13 +29055,13 @@
         <v>875</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J15" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="12.75" customHeight="1">
@@ -29001,13 +29087,13 @@
         <v>875</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K16" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="12.75" customHeight="1">
@@ -29033,10 +29119,10 @@
         <v>2177</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="K17" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="12.75" customHeight="1">
@@ -29062,13 +29148,13 @@
         <v>875</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J18" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="12.75" customHeight="1">
@@ -29094,13 +29180,13 @@
         <v>875</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J19" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K19" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="12.75" customHeight="1">
@@ -29126,13 +29212,13 @@
         <v>875</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J20" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="12.75" customHeight="1">
@@ -29158,13 +29244,13 @@
         <v>875</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J21" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="12.75" customHeight="1">
@@ -29190,13 +29276,13 @@
         <v>875</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J22" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="12.75" customHeight="1">
@@ -29222,13 +29308,13 @@
         <v>875</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K23" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="12.75" customHeight="1">
@@ -29254,13 +29340,13 @@
         <v>875</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="12.75" customHeight="1">
@@ -29286,13 +29372,13 @@
         <v>875</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K25" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="12.75" customHeight="1">
@@ -29318,13 +29404,13 @@
         <v>875</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K26" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="12.75" customHeight="1">
@@ -29350,13 +29436,13 @@
         <v>875</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="12.75" customHeight="1">
@@ -29382,13 +29468,13 @@
         <v>875</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K28" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="12.75" customHeight="1">
@@ -29414,13 +29500,13 @@
         <v>875</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K29" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="12.75" customHeight="1">
@@ -29446,13 +29532,13 @@
         <v>875</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K30" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="12.75" customHeight="1">
@@ -29478,13 +29564,13 @@
         <v>875</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="12.75" customHeight="1">
@@ -29510,13 +29596,13 @@
         <v>875</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="12.75" customHeight="1">
@@ -29542,13 +29628,13 @@
         <v>875</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J33" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K33" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="12.75" customHeight="1">
@@ -29574,13 +29660,13 @@
         <v>875</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J34" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K34" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="12.75" customHeight="1">
@@ -29606,13 +29692,13 @@
         <v>875</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K35" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="12.75" customHeight="1">
@@ -29638,13 +29724,13 @@
         <v>875</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J36" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K36" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="37" spans="2:11" ht="12.75" customHeight="1">
@@ -29670,13 +29756,13 @@
         <v>875</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J37" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K37" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="38" spans="2:11" ht="12.75" customHeight="1">
@@ -29702,13 +29788,13 @@
         <v>875</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J38" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K38" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="39" spans="2:11" ht="12.75" customHeight="1">
@@ -29734,13 +29820,13 @@
         <v>875</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K39" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="12.75" customHeight="1">
@@ -29766,13 +29852,13 @@
         <v>875</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J40" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K40" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="12.75" customHeight="1">
@@ -29798,13 +29884,13 @@
         <v>875</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J41" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K41" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="12.75" customHeight="1">
@@ -29830,13 +29916,13 @@
         <v>875</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J42" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K42" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="43" spans="2:11" ht="12.75" customHeight="1">
@@ -29862,13 +29948,13 @@
         <v>875</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J43" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K43" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="12.75" customHeight="1">
@@ -29894,13 +29980,13 @@
         <v>875</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J44" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K44" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="45" spans="2:11" ht="12.75" customHeight="1">
@@ -29926,13 +30012,13 @@
         <v>875</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K45" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="12.75" customHeight="1">
@@ -29958,13 +30044,13 @@
         <v>875</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J46" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K46" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="12.75" customHeight="1">
@@ -29990,13 +30076,13 @@
         <v>875</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J47" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K47" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="48" spans="2:11" ht="12.75" customHeight="1">
@@ -30023,10 +30109,10 @@
         <v>2177</v>
       </c>
       <c r="J48" s="18" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="K48" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="12.75" customHeight="1">
@@ -30052,13 +30138,13 @@
         <v>875</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K49" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="50" spans="2:11" ht="12.75" customHeight="1">
@@ -30084,13 +30170,13 @@
         <v>875</v>
       </c>
       <c r="I50" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K50" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="51" spans="2:11" ht="12.75" customHeight="1">
@@ -30116,13 +30202,13 @@
         <v>875</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J51" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K51" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="52" spans="2:11" ht="12.75" customHeight="1">
@@ -30148,13 +30234,13 @@
         <v>875</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J52" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K52" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="12.75" customHeight="1">
@@ -30180,13 +30266,13 @@
         <v>875</v>
       </c>
       <c r="I53" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J53" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K53" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="54" spans="2:11" ht="12.75" customHeight="1">
@@ -30212,13 +30298,13 @@
         <v>875</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J54" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K54" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="55" spans="2:11" ht="12.75" customHeight="1">
@@ -30244,13 +30330,13 @@
         <v>875</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J55" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K55" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="56" spans="2:11" ht="12.75" customHeight="1">
@@ -30276,13 +30362,13 @@
         <v>875</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J56" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K56" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="57" spans="2:11" ht="12.75" customHeight="1">
@@ -30308,13 +30394,13 @@
         <v>875</v>
       </c>
       <c r="I57" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J57" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K57" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1">
@@ -30341,10 +30427,10 @@
         <v>2177</v>
       </c>
       <c r="J58" s="18" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="K58" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="59" spans="2:11" ht="12.75" customHeight="1">
@@ -30370,13 +30456,13 @@
         <v>875</v>
       </c>
       <c r="I59" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J59" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K59" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="60" spans="2:11" ht="12.75" customHeight="1">
@@ -30402,13 +30488,13 @@
         <v>875</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J60" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K60" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="61" spans="2:11" ht="12.75" customHeight="1">
@@ -30435,10 +30521,10 @@
         <v>2177</v>
       </c>
       <c r="J61" s="18" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="K61" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="62" spans="2:11" ht="12.75" customHeight="1">
@@ -30464,13 +30550,13 @@
         <v>875</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J62" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K62" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="63" spans="2:11" ht="12.75" customHeight="1">
@@ -30496,13 +30582,13 @@
         <v>875</v>
       </c>
       <c r="I63" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J63" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K63" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="64" spans="2:11" ht="12.75" customHeight="1">
@@ -30528,13 +30614,13 @@
         <v>875</v>
       </c>
       <c r="I64" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J64" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K64" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="65" spans="2:11" ht="12.75" customHeight="1">
@@ -30560,13 +30646,13 @@
         <v>875</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J65" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K65" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="66" spans="2:11" ht="12.75" customHeight="1">
@@ -30592,13 +30678,13 @@
         <v>875</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J66" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K66" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="67" spans="2:11" ht="12.75" customHeight="1">
@@ -30624,13 +30710,13 @@
         <v>875</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J67" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K67" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="68" spans="2:11" ht="12.75" customHeight="1">
@@ -30656,13 +30742,13 @@
         <v>875</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J68" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K68" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="69" spans="2:11" ht="12.75" customHeight="1">
@@ -30688,13 +30774,13 @@
         <v>875</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J69" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K69" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="70" spans="2:11" ht="12.75" customHeight="1">
@@ -30720,13 +30806,13 @@
         <v>875</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J70" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K70" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="71" spans="2:11" ht="12.75" customHeight="1">
@@ -30752,13 +30838,13 @@
         <v>875</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J71" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K71" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="72" spans="2:11" ht="12.75" customHeight="1">
@@ -30784,13 +30870,13 @@
         <v>875</v>
       </c>
       <c r="I72" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J72" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K72" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="73" spans="2:11" ht="12.75" customHeight="1">
@@ -30816,13 +30902,13 @@
         <v>875</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J73" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K73" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="74" spans="2:11" ht="12.75" customHeight="1">
@@ -30848,13 +30934,13 @@
         <v>875</v>
       </c>
       <c r="I74" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J74" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K74" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="75" spans="2:11" ht="12.75" customHeight="1">
@@ -30880,13 +30966,13 @@
         <v>875</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J75" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K75" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="76" spans="2:11" ht="12.75" customHeight="1">
@@ -30912,13 +30998,13 @@
         <v>875</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J76" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K76" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="77" spans="2:11" ht="12.75" customHeight="1">
@@ -30944,13 +31030,13 @@
         <v>875</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J77" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K77" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="78" spans="2:11" ht="12.75" customHeight="1">
@@ -30976,13 +31062,13 @@
         <v>875</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J78" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K78" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="79" spans="2:11" ht="12.75" customHeight="1">
@@ -31008,13 +31094,13 @@
         <v>875</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J79" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K79" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="80" spans="2:11" ht="12.75" customHeight="1">
@@ -31040,13 +31126,13 @@
         <v>875</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J80" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K80" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="81" spans="2:11" ht="12.75" customHeight="1">
@@ -31072,13 +31158,13 @@
         <v>875</v>
       </c>
       <c r="I81" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J81" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K81" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="82" spans="2:11" ht="12.75" customHeight="1">
@@ -31104,13 +31190,13 @@
         <v>875</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J82" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K82" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="83" spans="2:11" ht="12.75" customHeight="1">
@@ -31136,13 +31222,13 @@
         <v>875</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J83" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K83" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="84" spans="2:11" ht="12.75" customHeight="1">
@@ -31168,13 +31254,13 @@
         <v>875</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J84" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K84" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="85" spans="2:11" ht="12.75" customHeight="1">
@@ -31200,13 +31286,13 @@
         <v>875</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J85" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K85" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="86" spans="2:11" ht="12.75" customHeight="1">
@@ -31232,13 +31318,13 @@
         <v>875</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J86" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K86" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="87" spans="2:11" ht="12.75" customHeight="1">
@@ -31264,13 +31350,13 @@
         <v>875</v>
       </c>
       <c r="I87" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J87" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K87" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="88" spans="2:11" ht="12.75" customHeight="1">
@@ -31296,13 +31382,13 @@
         <v>875</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J88" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K88" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="89" spans="2:11" ht="12.75" customHeight="1">
@@ -31328,13 +31414,13 @@
         <v>875</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J89" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K89" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="90" spans="2:11" ht="12.75" customHeight="1">
@@ -31360,13 +31446,13 @@
         <v>875</v>
       </c>
       <c r="I90" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J90" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K90" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="91" spans="2:11" ht="12.75" customHeight="1">
@@ -31393,10 +31479,10 @@
         <v>2177</v>
       </c>
       <c r="J91" s="18" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="K91" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="92" spans="2:11" ht="12.75" customHeight="1">
@@ -31422,13 +31508,13 @@
         <v>875</v>
       </c>
       <c r="I92" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J92" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K92" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="93" spans="2:11" ht="12.75" customHeight="1">
@@ -31454,13 +31540,13 @@
         <v>875</v>
       </c>
       <c r="I93" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J93" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K93" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="94" spans="2:11" ht="12.75" customHeight="1">
@@ -31486,13 +31572,13 @@
         <v>875</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J94" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K94" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="95" spans="2:11" ht="12.75" customHeight="1">
@@ -31519,10 +31605,10 @@
         <v>2177</v>
       </c>
       <c r="J95" s="18" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="K95" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="96" spans="2:11" ht="12.75" customHeight="1">
@@ -31548,13 +31634,13 @@
         <v>875</v>
       </c>
       <c r="I96" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J96" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K96" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="97" spans="2:11" ht="12.75" customHeight="1">
@@ -31580,13 +31666,13 @@
         <v>875</v>
       </c>
       <c r="I97" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J97" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K97" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="98" spans="2:11" ht="12.75" customHeight="1">
@@ -31612,13 +31698,13 @@
         <v>875</v>
       </c>
       <c r="I98" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J98" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K98" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="99" spans="2:11" ht="12.75" customHeight="1">
@@ -31644,13 +31730,13 @@
         <v>875</v>
       </c>
       <c r="I99" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J99" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K99" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="100" spans="2:11" ht="12.75" customHeight="1">
@@ -31676,13 +31762,13 @@
         <v>875</v>
       </c>
       <c r="I100" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J100" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K100" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="101" spans="2:11" ht="12.75" customHeight="1">
@@ -31708,13 +31794,13 @@
         <v>875</v>
       </c>
       <c r="I101" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J101" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K101" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="102" spans="2:11" ht="12.75" customHeight="1">
@@ -31740,13 +31826,13 @@
         <v>875</v>
       </c>
       <c r="I102" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J102" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K102" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="103" spans="2:11" ht="12.75" customHeight="1">
@@ -31772,13 +31858,13 @@
         <v>875</v>
       </c>
       <c r="I103" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J103" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K103" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="104" spans="2:11" ht="12.75" customHeight="1">
@@ -31804,13 +31890,13 @@
         <v>875</v>
       </c>
       <c r="I104" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J104" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K104" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="105" spans="2:11" ht="12.75" customHeight="1">
@@ -31837,10 +31923,10 @@
         <v>2177</v>
       </c>
       <c r="J105" s="18" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="K105" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="106" spans="2:11" ht="12.75" customHeight="1">
@@ -31866,13 +31952,13 @@
         <v>875</v>
       </c>
       <c r="I106" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J106" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K106" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="107" spans="2:11" ht="12.75" customHeight="1">
@@ -31898,13 +31984,13 @@
         <v>875</v>
       </c>
       <c r="I107" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J107" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K107" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="108" spans="2:11" ht="12.75" customHeight="1">
@@ -31930,13 +32016,13 @@
         <v>875</v>
       </c>
       <c r="I108" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J108" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K108" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="109" spans="2:11" ht="12.75" customHeight="1">
@@ -31962,13 +32048,13 @@
         <v>875</v>
       </c>
       <c r="I109" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J109" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K109" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="110" spans="2:11" ht="12.75" customHeight="1">
@@ -31994,13 +32080,13 @@
         <v>875</v>
       </c>
       <c r="I110" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J110" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K110" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="111" spans="2:11" ht="12.75" customHeight="1">
@@ -32026,13 +32112,13 @@
         <v>875</v>
       </c>
       <c r="I111" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J111" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K111" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="112" spans="2:11" ht="12.75" customHeight="1">
@@ -32058,13 +32144,13 @@
         <v>875</v>
       </c>
       <c r="I112" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J112" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K112" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="113" spans="2:11" ht="12.75" customHeight="1">
@@ -32090,13 +32176,13 @@
         <v>875</v>
       </c>
       <c r="I113" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J113" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K113" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="114" spans="2:11" ht="12.75" customHeight="1">
@@ -32122,13 +32208,13 @@
         <v>875</v>
       </c>
       <c r="I114" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J114" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K114" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="115" spans="2:11" ht="12.75" customHeight="1">
@@ -32154,13 +32240,13 @@
         <v>875</v>
       </c>
       <c r="I115" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J115" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K115" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="116" spans="2:11" ht="12.75" customHeight="1">
@@ -32187,10 +32273,10 @@
         <v>2177</v>
       </c>
       <c r="J116" s="18" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="K116" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="117" spans="2:11" ht="12.75" customHeight="1">
@@ -32216,13 +32302,13 @@
         <v>875</v>
       </c>
       <c r="I117" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J117" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K117" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="118" spans="2:11" ht="12.75" customHeight="1">
@@ -32248,13 +32334,13 @@
         <v>875</v>
       </c>
       <c r="I118" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J118" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K118" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="119" spans="2:11" ht="12.75" customHeight="1">
@@ -32280,13 +32366,13 @@
         <v>875</v>
       </c>
       <c r="I119" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J119" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K119" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="120" spans="2:11" ht="12.75" customHeight="1">
@@ -32312,13 +32398,13 @@
         <v>875</v>
       </c>
       <c r="I120" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J120" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K120" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="121" spans="2:11" ht="12.75" customHeight="1">
@@ -32344,13 +32430,13 @@
         <v>875</v>
       </c>
       <c r="I121" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J121" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K121" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="122" spans="2:11" ht="12.75" customHeight="1">
@@ -32376,13 +32462,13 @@
         <v>875</v>
       </c>
       <c r="I122" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J122" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K122" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="123" spans="2:11" ht="12.75" customHeight="1">
@@ -32408,13 +32494,13 @@
         <v>875</v>
       </c>
       <c r="I123" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J123" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K123" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="124" spans="2:11" ht="12.75" customHeight="1">
@@ -32440,13 +32526,13 @@
         <v>875</v>
       </c>
       <c r="I124" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J124" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K124" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="125" spans="2:11" ht="12.75" customHeight="1">
@@ -32472,13 +32558,13 @@
         <v>875</v>
       </c>
       <c r="I125" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J125" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K125" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="126" spans="2:11" ht="12.75" customHeight="1">
@@ -32504,13 +32590,13 @@
         <v>875</v>
       </c>
       <c r="I126" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J126" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K126" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="127" spans="2:11" ht="12.75" customHeight="1">
@@ -32536,13 +32622,13 @@
         <v>875</v>
       </c>
       <c r="I127" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J127" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K127" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="128" spans="2:11" ht="12.75" customHeight="1">
@@ -32568,13 +32654,13 @@
         <v>875</v>
       </c>
       <c r="I128" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J128" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K128" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="129" spans="2:11" ht="12.75" customHeight="1">
@@ -32600,13 +32686,13 @@
         <v>875</v>
       </c>
       <c r="I129" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J129" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K129" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="130" spans="2:11" ht="12.75" customHeight="1">
@@ -32632,13 +32718,13 @@
         <v>875</v>
       </c>
       <c r="I130" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J130" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K130" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="131" spans="2:11" ht="12.75" customHeight="1">
@@ -32664,13 +32750,13 @@
         <v>875</v>
       </c>
       <c r="I131" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J131" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K131" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="132" spans="2:11" ht="12.75" customHeight="1">
@@ -32697,10 +32783,10 @@
         <v>2177</v>
       </c>
       <c r="J132" s="18" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="K132" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="133" spans="2:11" ht="12.75" customHeight="1">
@@ -32726,13 +32812,13 @@
         <v>875</v>
       </c>
       <c r="I133" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J133" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K133" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="134" spans="2:11" ht="12.75" customHeight="1">
@@ -32758,13 +32844,13 @@
         <v>875</v>
       </c>
       <c r="I134" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J134" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K134" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="135" spans="2:11" ht="12.75" customHeight="1">
@@ -32790,13 +32876,13 @@
         <v>875</v>
       </c>
       <c r="I135" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J135" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K135" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="136" spans="2:11" ht="12.75" customHeight="1">
@@ -32822,13 +32908,13 @@
         <v>875</v>
       </c>
       <c r="I136" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J136" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K136" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="137" spans="2:11" ht="12.75" customHeight="1">
@@ -32855,10 +32941,10 @@
         <v>2177</v>
       </c>
       <c r="J137" s="18" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="K137" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="138" spans="2:11" ht="12.75" customHeight="1">
@@ -32884,13 +32970,13 @@
         <v>875</v>
       </c>
       <c r="I138" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J138" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K138" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="139" spans="2:11" ht="12.75" customHeight="1">
@@ -32916,13 +33002,13 @@
         <v>875</v>
       </c>
       <c r="I139" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J139" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K139" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="140" spans="2:11" ht="12.75" customHeight="1">
@@ -32948,13 +33034,13 @@
         <v>875</v>
       </c>
       <c r="I140" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J140" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K140" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="141" spans="2:11" ht="12.75" customHeight="1">
@@ -32980,13 +33066,13 @@
         <v>875</v>
       </c>
       <c r="I141" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J141" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K141" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="142" spans="2:11" ht="12.75" customHeight="1">
@@ -33012,13 +33098,13 @@
         <v>875</v>
       </c>
       <c r="I142" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J142" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K142" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="143" spans="2:11" ht="12.75" customHeight="1">
@@ -33044,13 +33130,13 @@
         <v>875</v>
       </c>
       <c r="I143" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J143" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K143" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="144" spans="2:11" ht="12.75" customHeight="1">
@@ -33076,13 +33162,13 @@
         <v>875</v>
       </c>
       <c r="I144" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J144" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K144" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="145" spans="2:11" ht="12.75" customHeight="1">
@@ -33108,13 +33194,13 @@
         <v>875</v>
       </c>
       <c r="I145" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J145" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K145" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="146" spans="2:11" ht="12.75" customHeight="1">
@@ -33140,13 +33226,13 @@
         <v>875</v>
       </c>
       <c r="I146" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J146" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K146" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="147" spans="2:11" ht="12.75" customHeight="1">
@@ -33172,13 +33258,13 @@
         <v>875</v>
       </c>
       <c r="I147" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J147" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K147" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="148" spans="2:11" ht="12.75" customHeight="1">
@@ -33205,10 +33291,10 @@
         <v>2177</v>
       </c>
       <c r="J148" s="18" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="K148" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="149" spans="2:11" ht="12.75" customHeight="1">
@@ -33234,13 +33320,13 @@
         <v>875</v>
       </c>
       <c r="I149" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J149" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K149" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="150" spans="2:11" ht="12.75" customHeight="1">
@@ -33266,13 +33352,13 @@
         <v>875</v>
       </c>
       <c r="I150" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J150" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K150" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="151" spans="2:11" ht="12.75" customHeight="1">
@@ -33298,13 +33384,13 @@
         <v>875</v>
       </c>
       <c r="I151" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J151" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K151" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="152" spans="2:11" ht="12.75" customHeight="1">
@@ -33330,13 +33416,13 @@
         <v>875</v>
       </c>
       <c r="I152" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J152" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K152" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="153" spans="2:11" ht="12.75" customHeight="1">
@@ -33362,13 +33448,13 @@
         <v>875</v>
       </c>
       <c r="I153" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J153" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K153" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="154" spans="2:11" ht="12.75" customHeight="1">
@@ -33394,13 +33480,13 @@
         <v>875</v>
       </c>
       <c r="I154" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J154" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K154" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="155" spans="2:11" ht="12.75" customHeight="1">
@@ -33426,13 +33512,13 @@
         <v>875</v>
       </c>
       <c r="I155" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J155" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K155" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="156" spans="2:11" ht="12.75" customHeight="1">
@@ -33458,13 +33544,13 @@
         <v>875</v>
       </c>
       <c r="I156" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J156" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K156" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="157" spans="2:11" ht="12.75" customHeight="1">
@@ -33490,13 +33576,13 @@
         <v>875</v>
       </c>
       <c r="I157" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J157" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K157" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="158" spans="2:11" ht="12.75" customHeight="1">
@@ -33522,13 +33608,13 @@
         <v>875</v>
       </c>
       <c r="I158" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J158" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K158" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="159" spans="2:11" ht="12.75" customHeight="1">
@@ -33554,13 +33640,13 @@
         <v>875</v>
       </c>
       <c r="I159" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J159" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K159" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="160" spans="2:11" ht="12.75" customHeight="1">
@@ -33586,13 +33672,13 @@
         <v>875</v>
       </c>
       <c r="I160" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J160" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K160" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="161" spans="2:11" ht="12.75" customHeight="1">
@@ -33618,13 +33704,13 @@
         <v>875</v>
       </c>
       <c r="I161" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J161" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K161" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="162" spans="2:11" ht="12.75" customHeight="1">
@@ -33650,13 +33736,13 @@
         <v>875</v>
       </c>
       <c r="I162" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J162" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K162" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="163" spans="2:11" ht="12.75" customHeight="1">
@@ -33682,13 +33768,13 @@
         <v>875</v>
       </c>
       <c r="I163" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J163" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K163" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="164" spans="2:11" ht="12.75" customHeight="1">
@@ -33714,13 +33800,13 @@
         <v>875</v>
       </c>
       <c r="I164" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J164" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K164" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="165" spans="2:11" ht="12.75" customHeight="1">
@@ -33746,13 +33832,13 @@
         <v>875</v>
       </c>
       <c r="I165" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J165" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K165" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="166" spans="2:11" ht="12.75" customHeight="1">
@@ -33778,13 +33864,13 @@
         <v>875</v>
       </c>
       <c r="I166" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J166" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K166" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="167" spans="2:11" ht="12.75" customHeight="1">
@@ -33810,13 +33896,13 @@
         <v>875</v>
       </c>
       <c r="I167" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J167" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K167" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="168" spans="2:11" ht="12.75" customHeight="1">
@@ -33843,10 +33929,10 @@
         <v>2177</v>
       </c>
       <c r="J168" s="18" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="K168" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="169" spans="2:11" ht="12.75" customHeight="1">
@@ -33872,13 +33958,13 @@
         <v>875</v>
       </c>
       <c r="I169" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J169" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K169" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="170" spans="2:11" ht="12.75" customHeight="1">
@@ -33904,13 +33990,13 @@
         <v>875</v>
       </c>
       <c r="I170" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J170" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K170" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="171" spans="2:11" ht="12.75" customHeight="1">
@@ -33936,13 +34022,13 @@
         <v>875</v>
       </c>
       <c r="I171" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J171" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K171" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="172" spans="2:11" ht="12.75" customHeight="1">
@@ -33968,13 +34054,13 @@
         <v>875</v>
       </c>
       <c r="I172" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J172" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K172" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="173" spans="2:11" ht="12.75" customHeight="1">
@@ -34000,13 +34086,13 @@
         <v>875</v>
       </c>
       <c r="I173" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J173" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K173" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="174" spans="2:11" ht="12.75" customHeight="1">
@@ -34032,13 +34118,13 @@
         <v>875</v>
       </c>
       <c r="I174" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J174" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K174" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="175" spans="2:11" ht="12.75" customHeight="1">
@@ -34065,10 +34151,10 @@
         <v>2177</v>
       </c>
       <c r="J175" s="18" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="K175" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="176" spans="2:11" ht="12.75" customHeight="1">
@@ -34094,13 +34180,13 @@
         <v>875</v>
       </c>
       <c r="I176" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J176" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K176" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="177" spans="2:11" ht="12.75" customHeight="1">
@@ -34126,13 +34212,13 @@
         <v>875</v>
       </c>
       <c r="I177" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J177" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K177" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="178" spans="2:11" ht="12.75" customHeight="1">
@@ -34158,13 +34244,13 @@
         <v>875</v>
       </c>
       <c r="I178" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J178" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K178" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="179" spans="2:11" ht="12.75" customHeight="1">
@@ -34190,13 +34276,13 @@
         <v>875</v>
       </c>
       <c r="I179" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J179" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K179" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="180" spans="2:11" ht="12.75" customHeight="1">
@@ -34222,13 +34308,13 @@
         <v>875</v>
       </c>
       <c r="I180" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J180" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K180" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="181" spans="2:11" ht="12.75" customHeight="1">
@@ -34254,13 +34340,13 @@
         <v>875</v>
       </c>
       <c r="I181" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J181" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K181" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="182" spans="2:11" ht="12.75" customHeight="1">
@@ -34286,13 +34372,13 @@
         <v>875</v>
       </c>
       <c r="I182" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J182" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K182" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="183" spans="2:11" ht="12.75" customHeight="1">
@@ -34318,13 +34404,13 @@
         <v>875</v>
       </c>
       <c r="I183" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J183" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K183" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="184" spans="2:11" ht="12.75" customHeight="1">
@@ -34350,13 +34436,13 @@
         <v>875</v>
       </c>
       <c r="I184" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J184" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K184" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="185" spans="2:11" ht="12.75" customHeight="1">
@@ -34382,13 +34468,13 @@
         <v>875</v>
       </c>
       <c r="I185" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J185" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K185" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="186" spans="2:11" ht="12.75" customHeight="1">
@@ -34414,13 +34500,13 @@
         <v>875</v>
       </c>
       <c r="I186" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J186" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K186" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="187" spans="2:11" ht="12.75" customHeight="1">
@@ -34446,13 +34532,13 @@
         <v>875</v>
       </c>
       <c r="I187" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J187" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K187" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="188" spans="2:11" ht="12.75" customHeight="1">
@@ -34478,13 +34564,13 @@
         <v>875</v>
       </c>
       <c r="I188" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J188" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K188" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="189" spans="2:11" ht="12.75" customHeight="1">
@@ -34510,13 +34596,13 @@
         <v>875</v>
       </c>
       <c r="I189" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J189" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K189" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="190" spans="2:11" ht="12.75" customHeight="1">
@@ -34542,13 +34628,13 @@
         <v>875</v>
       </c>
       <c r="I190" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J190" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K190" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="191" spans="2:11" ht="12.75" customHeight="1">
@@ -34574,13 +34660,13 @@
         <v>875</v>
       </c>
       <c r="I191" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J191" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K191" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="192" spans="2:11" ht="12.75" customHeight="1">
@@ -34606,13 +34692,13 @@
         <v>875</v>
       </c>
       <c r="I192" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J192" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K192" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="193" spans="2:11" ht="12.75" customHeight="1">
@@ -34638,13 +34724,13 @@
         <v>875</v>
       </c>
       <c r="I193" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J193" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K193" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="194" spans="2:11" ht="12.75" customHeight="1">
@@ -34670,13 +34756,13 @@
         <v>875</v>
       </c>
       <c r="I194" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J194" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K194" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="195" spans="2:11" ht="12.75" customHeight="1">
@@ -34702,13 +34788,13 @@
         <v>875</v>
       </c>
       <c r="I195" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J195" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K195" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="196" spans="2:11" ht="12.75" customHeight="1">
@@ -34734,13 +34820,13 @@
         <v>875</v>
       </c>
       <c r="I196" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J196" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K196" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="197" spans="2:11" ht="12.75" customHeight="1">
@@ -34767,10 +34853,10 @@
         <v>2177</v>
       </c>
       <c r="J197" s="18" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="K197" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="198" spans="2:11" ht="12.75" customHeight="1">
@@ -34796,13 +34882,13 @@
         <v>875</v>
       </c>
       <c r="I198" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J198" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K198" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="199" spans="2:11" ht="12.75" customHeight="1">
@@ -34828,13 +34914,13 @@
         <v>875</v>
       </c>
       <c r="I199" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J199" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K199" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="200" spans="2:11" ht="12.75" customHeight="1">
@@ -34860,13 +34946,13 @@
         <v>875</v>
       </c>
       <c r="I200" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J200" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K200" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="201" spans="2:11" ht="12.75" customHeight="1">
@@ -34892,13 +34978,13 @@
         <v>875</v>
       </c>
       <c r="I201" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J201" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K201" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="202" spans="2:11" ht="12.75" customHeight="1">
@@ -34925,10 +35011,10 @@
         <v>2177</v>
       </c>
       <c r="J202" s="18" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="K202" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="203" spans="2:11" ht="12.75" customHeight="1">
@@ -34954,13 +35040,13 @@
         <v>875</v>
       </c>
       <c r="I203" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J203" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K203" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="204" spans="2:11" ht="12.75" customHeight="1">
@@ -34986,13 +35072,13 @@
         <v>875</v>
       </c>
       <c r="I204" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J204" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K204" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="205" spans="2:11" ht="12.75" customHeight="1">
@@ -35019,10 +35105,10 @@
         <v>2177</v>
       </c>
       <c r="J205" s="18" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="K205" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="206" spans="2:11" ht="12.75" customHeight="1">
@@ -35048,13 +35134,13 @@
         <v>875</v>
       </c>
       <c r="I206" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J206" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K206" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="207" spans="2:11" ht="12.75" customHeight="1">
@@ -35080,13 +35166,13 @@
         <v>875</v>
       </c>
       <c r="I207" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J207" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K207" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="208" spans="2:11" ht="12.75" customHeight="1">
@@ -35112,13 +35198,13 @@
         <v>875</v>
       </c>
       <c r="I208" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J208" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K208" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="209" spans="2:11" ht="12.75" customHeight="1">
@@ -35144,13 +35230,13 @@
         <v>875</v>
       </c>
       <c r="I209" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J209" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K209" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="210" spans="2:11" ht="12.75" customHeight="1">
@@ -35176,13 +35262,13 @@
         <v>875</v>
       </c>
       <c r="I210" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J210" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K210" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="211" spans="2:11" ht="12.75" customHeight="1">
@@ -35208,13 +35294,13 @@
         <v>875</v>
       </c>
       <c r="I211" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J211" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K211" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="212" spans="2:11" ht="12.75" customHeight="1">
@@ -35240,13 +35326,13 @@
         <v>875</v>
       </c>
       <c r="I212" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J212" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K212" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="213" spans="2:11" ht="12.75" customHeight="1">
@@ -35272,13 +35358,13 @@
         <v>875</v>
       </c>
       <c r="I213" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J213" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K213" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="214" spans="2:11" ht="12.75" customHeight="1">
@@ -35304,13 +35390,13 @@
         <v>875</v>
       </c>
       <c r="I214" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J214" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K214" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="215" spans="2:11" ht="12.75" customHeight="1">
@@ -35336,13 +35422,13 @@
         <v>875</v>
       </c>
       <c r="I215" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J215" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K215" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="216" spans="2:11" ht="12.75" customHeight="1">
@@ -35368,13 +35454,13 @@
         <v>875</v>
       </c>
       <c r="I216" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J216" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K216" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="217" spans="2:11" ht="12.75" customHeight="1">
@@ -35400,13 +35486,13 @@
         <v>875</v>
       </c>
       <c r="I217" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J217" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K217" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="218" spans="2:11" ht="12.75" customHeight="1">
@@ -35432,13 +35518,13 @@
         <v>875</v>
       </c>
       <c r="I218" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J218" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K218" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="219" spans="2:11" ht="12.75" customHeight="1">
@@ -35464,13 +35550,13 @@
         <v>875</v>
       </c>
       <c r="I219" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J219" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K219" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="220" spans="2:11" ht="12.75" customHeight="1">
@@ -35496,13 +35582,13 @@
         <v>875</v>
       </c>
       <c r="I220" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J220" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K220" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="221" spans="2:11" ht="12.75" customHeight="1">
@@ -35528,13 +35614,13 @@
         <v>875</v>
       </c>
       <c r="I221" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J221" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K221" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="222" spans="2:11" ht="12.75" customHeight="1">
@@ -35560,13 +35646,13 @@
         <v>875</v>
       </c>
       <c r="I222" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J222" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K222" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="223" spans="2:11" ht="12.75" customHeight="1">
@@ -35592,13 +35678,13 @@
         <v>875</v>
       </c>
       <c r="I223" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J223" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K223" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="224" spans="2:11" ht="12.75" customHeight="1">
@@ -35625,10 +35711,10 @@
         <v>2177</v>
       </c>
       <c r="J224" s="18" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="K224" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="225" spans="2:11" ht="12.75" customHeight="1">
@@ -35654,13 +35740,13 @@
         <v>875</v>
       </c>
       <c r="I225" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J225" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K225" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="226" spans="2:11" ht="12.75" customHeight="1">
@@ -35686,13 +35772,13 @@
         <v>875</v>
       </c>
       <c r="I226" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J226" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K226" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="227" spans="2:11" ht="12.75" customHeight="1">
@@ -35718,13 +35804,13 @@
         <v>875</v>
       </c>
       <c r="I227" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J227" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K227" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="228" spans="2:11" ht="12.75" customHeight="1">
@@ -35750,13 +35836,13 @@
         <v>875</v>
       </c>
       <c r="I228" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J228" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K228" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="229" spans="2:11" ht="12.75" customHeight="1">
@@ -35782,13 +35868,13 @@
         <v>875</v>
       </c>
       <c r="I229" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J229" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K229" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="230" spans="2:11" ht="12.75" customHeight="1">
@@ -35814,13 +35900,13 @@
         <v>875</v>
       </c>
       <c r="I230" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J230" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K230" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="231" spans="2:11" ht="12.75" customHeight="1">
@@ -35846,13 +35932,13 @@
         <v>875</v>
       </c>
       <c r="I231" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J231" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K231" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="232" spans="2:11" ht="12.75" customHeight="1">
@@ -35878,13 +35964,13 @@
         <v>875</v>
       </c>
       <c r="I232" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J232" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K232" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="233" spans="2:11" ht="12.75" customHeight="1">
@@ -35910,13 +35996,13 @@
         <v>875</v>
       </c>
       <c r="I233" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J233" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K233" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="234" spans="2:11" ht="12.75" customHeight="1">
@@ -35942,13 +36028,13 @@
         <v>875</v>
       </c>
       <c r="I234" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J234" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K234" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="235" spans="2:11" ht="12.75" customHeight="1">
@@ -35974,13 +36060,13 @@
         <v>875</v>
       </c>
       <c r="I235" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J235" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K235" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="236" spans="2:11" ht="12.75" customHeight="1">
@@ -36006,13 +36092,13 @@
         <v>875</v>
       </c>
       <c r="I236" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J236" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K236" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="237" spans="2:11" ht="12.75" customHeight="1">
@@ -36038,13 +36124,13 @@
         <v>875</v>
       </c>
       <c r="I237" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J237" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K237" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="238" spans="2:11" ht="12.75" customHeight="1">
@@ -36070,13 +36156,13 @@
         <v>875</v>
       </c>
       <c r="I238" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J238" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K238" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="239" spans="2:11" ht="12.75" customHeight="1">
@@ -36102,13 +36188,13 @@
         <v>875</v>
       </c>
       <c r="I239" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J239" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K239" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="240" spans="2:11" ht="12.75" customHeight="1">
@@ -36134,13 +36220,13 @@
         <v>875</v>
       </c>
       <c r="I240" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J240" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K240" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="241" spans="2:11" ht="12.75" customHeight="1">
@@ -36166,13 +36252,13 @@
         <v>875</v>
       </c>
       <c r="I241" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J241" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K241" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="242" spans="2:11" ht="12.75" customHeight="1">
@@ -36198,13 +36284,13 @@
         <v>875</v>
       </c>
       <c r="I242" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J242" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K242" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="243" spans="2:11" ht="12.75" customHeight="1">
@@ -36230,13 +36316,13 @@
         <v>875</v>
       </c>
       <c r="I243" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J243" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K243" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="244" spans="2:11" ht="12.75" customHeight="1">
@@ -36262,13 +36348,13 @@
         <v>875</v>
       </c>
       <c r="I244" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J244" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K244" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="245" spans="2:11" ht="12.75" customHeight="1">
@@ -36294,13 +36380,13 @@
         <v>875</v>
       </c>
       <c r="I245" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J245" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K245" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="246" spans="2:11" ht="12.75" customHeight="1">
@@ -36326,13 +36412,13 @@
         <v>875</v>
       </c>
       <c r="I246" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J246" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K246" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="247" spans="2:11" ht="12.75" customHeight="1">
@@ -36358,13 +36444,13 @@
         <v>875</v>
       </c>
       <c r="I247" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J247" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K247" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="248" spans="2:11" ht="12.75" customHeight="1">
@@ -36390,13 +36476,13 @@
         <v>875</v>
       </c>
       <c r="I248" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J248" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K248" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="249" spans="2:11" ht="12.75" customHeight="1">
@@ -36422,13 +36508,13 @@
         <v>875</v>
       </c>
       <c r="I249" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J249" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K249" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="250" spans="2:11" ht="12.75" customHeight="1">
@@ -36455,10 +36541,10 @@
         <v>2177</v>
       </c>
       <c r="J250" s="18" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="K250" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="251" spans="2:11" ht="12.75" customHeight="1">
@@ -36484,13 +36570,13 @@
         <v>875</v>
       </c>
       <c r="I251" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J251" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K251" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="252" spans="2:11" ht="12.75" customHeight="1">
@@ -36516,13 +36602,13 @@
         <v>875</v>
       </c>
       <c r="I252" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J252" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K252" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="253" spans="2:11" ht="12.75" customHeight="1">
@@ -36548,13 +36634,13 @@
         <v>875</v>
       </c>
       <c r="I253" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J253" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K253" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="254" spans="2:11" ht="12.75" customHeight="1">
@@ -36580,13 +36666,13 @@
         <v>875</v>
       </c>
       <c r="I254" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J254" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K254" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="255" spans="2:11" ht="12.75" customHeight="1">
@@ -36612,13 +36698,13 @@
         <v>875</v>
       </c>
       <c r="I255" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J255" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K255" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="256" spans="2:11" ht="12.75" customHeight="1">
@@ -36644,13 +36730,13 @@
         <v>875</v>
       </c>
       <c r="I256" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J256" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K256" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="257" spans="2:11" ht="12.75" customHeight="1">
@@ -36676,13 +36762,13 @@
         <v>875</v>
       </c>
       <c r="I257" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J257" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K257" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="258" spans="2:11" ht="12.75" customHeight="1">
@@ -36708,13 +36794,13 @@
         <v>875</v>
       </c>
       <c r="I258" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J258" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K258" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="259" spans="2:11" ht="12.75" customHeight="1">
@@ -36740,13 +36826,13 @@
         <v>875</v>
       </c>
       <c r="I259" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J259" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K259" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="260" spans="2:11" ht="12.75" customHeight="1">
@@ -36772,13 +36858,13 @@
         <v>875</v>
       </c>
       <c r="I260" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J260" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K260" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="261" spans="2:11" ht="12.75" customHeight="1">
@@ -36804,13 +36890,13 @@
         <v>875</v>
       </c>
       <c r="I261" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J261" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K261" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="262" spans="2:11" ht="12.75" customHeight="1">
@@ -36836,13 +36922,13 @@
         <v>875</v>
       </c>
       <c r="I262" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J262" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K262" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="263" spans="2:11" ht="12.75" customHeight="1">
@@ -36868,13 +36954,13 @@
         <v>875</v>
       </c>
       <c r="I263" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J263" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K263" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="264" spans="2:11" ht="12.75" customHeight="1">
@@ -36900,13 +36986,13 @@
         <v>875</v>
       </c>
       <c r="I264" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J264" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K264" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="265" spans="2:11" ht="12.75" customHeight="1">
@@ -36932,13 +37018,13 @@
         <v>875</v>
       </c>
       <c r="I265" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J265" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K265" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="266" spans="2:11" ht="12.75" customHeight="1">
@@ -36964,13 +37050,13 @@
         <v>875</v>
       </c>
       <c r="I266" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J266" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K266" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="267" spans="2:11" ht="12.75" customHeight="1">
@@ -36996,13 +37082,13 @@
         <v>875</v>
       </c>
       <c r="I267" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J267" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K267" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="268" spans="2:11" ht="12.75" customHeight="1">
@@ -37028,13 +37114,13 @@
         <v>875</v>
       </c>
       <c r="I268" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J268" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K268" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="269" spans="2:11" ht="12.75" customHeight="1">
@@ -37060,13 +37146,13 @@
         <v>875</v>
       </c>
       <c r="I269" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J269" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K269" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="270" spans="2:11" ht="12.75" customHeight="1">
@@ -37092,13 +37178,13 @@
         <v>875</v>
       </c>
       <c r="I270" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J270" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K270" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="271" spans="2:11" ht="12.75" customHeight="1">
@@ -37124,13 +37210,13 @@
         <v>875</v>
       </c>
       <c r="I271" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J271" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K271" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="272" spans="2:11" ht="12.75" customHeight="1">
@@ -37156,13 +37242,13 @@
         <v>875</v>
       </c>
       <c r="I272" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J272" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K272" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="273" spans="2:11" ht="12.75" customHeight="1">
@@ -37188,13 +37274,13 @@
         <v>875</v>
       </c>
       <c r="I273" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J273" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K273" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="274" spans="2:11" ht="12.75" customHeight="1">
@@ -37220,13 +37306,13 @@
         <v>875</v>
       </c>
       <c r="I274" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J274" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K274" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="275" spans="2:11" ht="12.75" customHeight="1">
@@ -37252,13 +37338,13 @@
         <v>875</v>
       </c>
       <c r="I275" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J275" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K275" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="276" spans="2:11" ht="12.75" customHeight="1">
@@ -37284,13 +37370,13 @@
         <v>875</v>
       </c>
       <c r="I276" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J276" s="18" t="s">
-        <v>3311</v>
+        <v>1600</v>
       </c>
       <c r="K276" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="277" spans="2:11" ht="12.75" customHeight="1">
@@ -37317,10 +37403,10 @@
         <v>2177</v>
       </c>
       <c r="J277" s="18" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="K277" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="278" spans="2:11" ht="12.75" customHeight="1">
@@ -37346,13 +37432,13 @@
         <v>875</v>
       </c>
       <c r="I278" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J278" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K278" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="279" spans="2:11" ht="12.75" customHeight="1">
@@ -37378,13 +37464,13 @@
         <v>875</v>
       </c>
       <c r="I279" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J279" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K279" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="280" spans="2:11" ht="12.75" customHeight="1">
@@ -37410,13 +37496,13 @@
         <v>875</v>
       </c>
       <c r="I280" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J280" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K280" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="281" spans="2:11" ht="12.75" customHeight="1">
@@ -37442,13 +37528,13 @@
         <v>875</v>
       </c>
       <c r="I281" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J281" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K281" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="282" spans="2:11" ht="12.75" customHeight="1">
@@ -37474,13 +37560,13 @@
         <v>875</v>
       </c>
       <c r="I282" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J282" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K282" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="283" spans="2:11" ht="12.75" customHeight="1">
@@ -37506,13 +37592,13 @@
         <v>875</v>
       </c>
       <c r="I283" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J283" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K283" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="284" spans="2:11" ht="12.75" customHeight="1">
@@ -37538,13 +37624,13 @@
         <v>875</v>
       </c>
       <c r="I284" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J284" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K284" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="285" spans="2:11" ht="12.75" customHeight="1">
@@ -37570,13 +37656,13 @@
         <v>875</v>
       </c>
       <c r="I285" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J285" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K285" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="286" spans="2:11" ht="12.75" customHeight="1">
@@ -37602,13 +37688,13 @@
         <v>875</v>
       </c>
       <c r="I286" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J286" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K286" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="287" spans="2:11" ht="12.75" customHeight="1">
@@ -37634,13 +37720,13 @@
         <v>875</v>
       </c>
       <c r="I287" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J287" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K287" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="288" spans="2:11" ht="12.75" customHeight="1">
@@ -37666,13 +37752,13 @@
         <v>875</v>
       </c>
       <c r="I288" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J288" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K288" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="289" spans="2:11" ht="12.75" customHeight="1">
@@ -37698,13 +37784,13 @@
         <v>875</v>
       </c>
       <c r="I289" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J289" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K289" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="290" spans="2:11" ht="12.75" customHeight="1">
@@ -37730,13 +37816,13 @@
         <v>875</v>
       </c>
       <c r="I290" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J290" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K290" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="291" spans="2:11" ht="12.75" customHeight="1">
@@ -37762,13 +37848,13 @@
         <v>875</v>
       </c>
       <c r="I291" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J291" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K291" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="292" spans="2:11" ht="12.75" customHeight="1">
@@ -37794,13 +37880,13 @@
         <v>875</v>
       </c>
       <c r="I292" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J292" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K292" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="293" spans="2:11" ht="12.75" customHeight="1">
@@ -37826,13 +37912,13 @@
         <v>875</v>
       </c>
       <c r="I293" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J293" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K293" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="294" spans="2:11" ht="12.75" customHeight="1">
@@ -37858,13 +37944,13 @@
         <v>875</v>
       </c>
       <c r="I294" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J294" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K294" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="295" spans="2:11" ht="12.75" customHeight="1">
@@ -37890,13 +37976,13 @@
         <v>875</v>
       </c>
       <c r="I295" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J295" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K295" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="296" spans="2:11" ht="12.75" customHeight="1">
@@ -37922,13 +38008,13 @@
         <v>875</v>
       </c>
       <c r="I296" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J296" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K296" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="297" spans="2:11" ht="12.75" customHeight="1">
@@ -37954,13 +38040,13 @@
         <v>875</v>
       </c>
       <c r="I297" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J297" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K297" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="298" spans="2:11" ht="12.75" customHeight="1">
@@ -37986,13 +38072,13 @@
         <v>875</v>
       </c>
       <c r="I298" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J298" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K298" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="299" spans="2:11" ht="12.75" customHeight="1">
@@ -38018,13 +38104,13 @@
         <v>875</v>
       </c>
       <c r="I299" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J299" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K299" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="300" spans="2:11" ht="12.75" customHeight="1">
@@ -38050,13 +38136,13 @@
         <v>875</v>
       </c>
       <c r="I300" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J300" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K300" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="301" spans="2:11" ht="12.75" customHeight="1">
@@ -38082,13 +38168,13 @@
         <v>875</v>
       </c>
       <c r="I301" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J301" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K301" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="302" spans="2:11" ht="12.75" customHeight="1">
@@ -38114,13 +38200,13 @@
         <v>875</v>
       </c>
       <c r="I302" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J302" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K302" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="303" spans="2:11" ht="12.75" customHeight="1">
@@ -38147,10 +38233,10 @@
         <v>2177</v>
       </c>
       <c r="J303" s="18" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="K303" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="304" spans="2:11" ht="12.75" customHeight="1">
@@ -38176,13 +38262,13 @@
         <v>875</v>
       </c>
       <c r="I304" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J304" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K304" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="305" spans="2:11" ht="12.75" customHeight="1">
@@ -38208,13 +38294,13 @@
         <v>875</v>
       </c>
       <c r="I305" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J305" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K305" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="306" spans="2:11" ht="12.75" customHeight="1">
@@ -38241,10 +38327,10 @@
         <v>2177</v>
       </c>
       <c r="J306" s="18" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="K306" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="307" spans="2:11" ht="12.75" customHeight="1">
@@ -38270,13 +38356,13 @@
         <v>875</v>
       </c>
       <c r="I307" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J307" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K307" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="308" spans="2:11" ht="12.75" customHeight="1">
@@ -38302,13 +38388,13 @@
         <v>875</v>
       </c>
       <c r="I308" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J308" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K308" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="309" spans="2:11" ht="12.75" customHeight="1">
@@ -38335,10 +38421,10 @@
         <v>2177</v>
       </c>
       <c r="J309" s="18" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="K309" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="310" spans="2:11" ht="12.75" customHeight="1">
@@ -38364,13 +38450,13 @@
         <v>875</v>
       </c>
       <c r="I310" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J310" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K310" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="311" spans="2:11" ht="12.75" customHeight="1">
@@ -38397,10 +38483,10 @@
         <v>2177</v>
       </c>
       <c r="J311" s="18" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="K311" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="312" spans="2:11" ht="12.75" customHeight="1">
@@ -38426,13 +38512,13 @@
         <v>875</v>
       </c>
       <c r="I312" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J312" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K312" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="313" spans="2:11" ht="12.75" customHeight="1">
@@ -38458,13 +38544,13 @@
         <v>875</v>
       </c>
       <c r="I313" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J313" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K313" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="314" spans="2:11" ht="12.75" customHeight="1">
@@ -38490,13 +38576,13 @@
         <v>875</v>
       </c>
       <c r="I314" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J314" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K314" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="315" spans="2:11" ht="12.75" customHeight="1">
@@ -38522,13 +38608,13 @@
         <v>875</v>
       </c>
       <c r="I315" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J315" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K315" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="316" spans="2:11" ht="12.75" customHeight="1">
@@ -38554,13 +38640,13 @@
         <v>875</v>
       </c>
       <c r="I316" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J316" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K316" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="317" spans="2:11" ht="12.75" customHeight="1">
@@ -38586,13 +38672,13 @@
         <v>875</v>
       </c>
       <c r="I317" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J317" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K317" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="318" spans="2:11" ht="12.75" customHeight="1">
@@ -38618,13 +38704,13 @@
         <v>875</v>
       </c>
       <c r="I318" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J318" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K318" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="319" spans="2:11" ht="12.75" customHeight="1">
@@ -38650,13 +38736,13 @@
         <v>875</v>
       </c>
       <c r="I319" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J319" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K319" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="320" spans="2:11" ht="12.75" customHeight="1">
@@ -38682,13 +38768,13 @@
         <v>875</v>
       </c>
       <c r="I320" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J320" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K320" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="321" spans="2:11" ht="12.75" customHeight="1">
@@ -38714,13 +38800,13 @@
         <v>875</v>
       </c>
       <c r="I321" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J321" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K321" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="322" spans="2:11" ht="12.75" customHeight="1">
@@ -38746,13 +38832,13 @@
         <v>875</v>
       </c>
       <c r="I322" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J322" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K322" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="323" spans="2:11" ht="12.75" customHeight="1">
@@ -38778,13 +38864,13 @@
         <v>875</v>
       </c>
       <c r="I323" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J323" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K323" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="324" spans="2:11" ht="12.75" customHeight="1">
@@ -38810,13 +38896,13 @@
         <v>875</v>
       </c>
       <c r="I324" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J324" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K324" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="325" spans="2:11" ht="12.75" customHeight="1">
@@ -38843,10 +38929,10 @@
         <v>2177</v>
       </c>
       <c r="J325" s="18" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="K325" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="326" spans="2:11" ht="12.75" customHeight="1">
@@ -38872,13 +38958,13 @@
         <v>875</v>
       </c>
       <c r="I326" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J326" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K326" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="327" spans="2:11" ht="12.75" customHeight="1">
@@ -38904,13 +38990,13 @@
         <v>875</v>
       </c>
       <c r="I327" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J327" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K327" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="328" spans="2:11" ht="12.75" customHeight="1">
@@ -38936,13 +39022,13 @@
         <v>875</v>
       </c>
       <c r="I328" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J328" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K328" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="329" spans="2:11" ht="12.75" customHeight="1">
@@ -38968,13 +39054,13 @@
         <v>875</v>
       </c>
       <c r="I329" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J329" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K329" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="330" spans="2:11" ht="12.75" customHeight="1">
@@ -39000,13 +39086,13 @@
         <v>875</v>
       </c>
       <c r="I330" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J330" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K330" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="331" spans="2:11" ht="12.75" customHeight="1">
@@ -39032,13 +39118,13 @@
         <v>875</v>
       </c>
       <c r="I331" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J331" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K331" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="332" spans="2:11" ht="12.75" customHeight="1">
@@ -39064,13 +39150,13 @@
         <v>875</v>
       </c>
       <c r="I332" s="18" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J332" s="18" t="s">
         <v>1600</v>
       </c>
       <c r="K332" s="26" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="333" spans="2:11" ht="12.75" customHeight="1">
@@ -39093,13 +39179,13 @@
         <v>3310</v>
       </c>
       <c r="I333" s="18" t="s">
+        <v>3314</v>
+      </c>
+      <c r="J333" s="18" t="s">
+        <v>3312</v>
+      </c>
+      <c r="K333" s="26" t="s">
         <v>3315</v>
-      </c>
-      <c r="J333" s="18" t="s">
-        <v>3313</v>
-      </c>
-      <c r="K333" s="26" t="s">
-        <v>3316</v>
       </c>
     </row>
     <row r="334" spans="2:11" ht="12.75" customHeight="1">
@@ -39122,13 +39208,13 @@
         <v>3310</v>
       </c>
       <c r="I334" s="18" t="s">
+        <v>3314</v>
+      </c>
+      <c r="J334" s="18" t="s">
+        <v>3312</v>
+      </c>
+      <c r="K334" s="26" t="s">
         <v>3315</v>
-      </c>
-      <c r="J334" s="18" t="s">
-        <v>3313</v>
-      </c>
-      <c r="K334" s="26" t="s">
-        <v>3316</v>
       </c>
     </row>
     <row r="335" spans="2:11" ht="12.75" customHeight="1">
@@ -39151,13 +39237,13 @@
         <v>3310</v>
       </c>
       <c r="I335" s="18" t="s">
+        <v>3314</v>
+      </c>
+      <c r="J335" s="18" t="s">
+        <v>3312</v>
+      </c>
+      <c r="K335" s="26" t="s">
         <v>3315</v>
-      </c>
-      <c r="J335" s="18" t="s">
-        <v>3313</v>
-      </c>
-      <c r="K335" s="26" t="s">
-        <v>3316</v>
       </c>
     </row>
   </sheetData>

--- a/modencode_interface_submissions.xlsx
+++ b/modencode_interface_submissions.xlsx
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7901" uniqueCount="3323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7595" uniqueCount="3323">
   <si>
     <t>dataset_uuid</t>
   </si>
@@ -10182,7 +10182,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -10415,11 +10415,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Verdana"/>
     </font>
   </fonts>
@@ -10626,7 +10621,7 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -10717,9 +10712,8 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
@@ -15140,50 +15134,50 @@
       <c r="U46" s="18"/>
       <c r="V46" s="18"/>
     </row>
-    <row r="47" spans="1:22" s="58" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B47" s="56" t="s">
+    <row r="47" spans="1:22" s="57" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B47" s="55" t="s">
         <v>3321</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="55" t="s">
         <v>1600</v>
       </c>
-      <c r="D47" s="56" t="s">
+      <c r="D47" s="55" t="s">
         <v>3316</v>
       </c>
-      <c r="E47" s="56" t="s">
+      <c r="E47" s="55" t="s">
         <v>712</v>
       </c>
-      <c r="F47" s="56" t="s">
+      <c r="F47" s="55" t="s">
         <v>713</v>
       </c>
-      <c r="G47" s="56" t="s">
+      <c r="G47" s="55" t="s">
         <v>714</v>
       </c>
-      <c r="H47" s="56" t="s">
+      <c r="H47" s="55" t="s">
         <v>715</v>
       </c>
-      <c r="I47" s="56" t="s">
+      <c r="I47" s="55" t="s">
         <v>712</v>
       </c>
-      <c r="J47" s="56" t="s">
+      <c r="J47" s="55" t="s">
         <v>716</v>
       </c>
-      <c r="K47" s="56" t="s">
+      <c r="K47" s="55" t="s">
         <v>853</v>
       </c>
-      <c r="L47" s="56" t="s">
+      <c r="L47" s="55" t="s">
         <v>599</v>
       </c>
-      <c r="M47" s="56" t="s">
+      <c r="M47" s="55" t="s">
         <v>1262</v>
       </c>
-      <c r="N47" s="56" t="s">
+      <c r="N47" s="55" t="s">
         <v>1033</v>
       </c>
-      <c r="O47" s="56" t="s">
+      <c r="O47" s="55" t="s">
         <v>863</v>
       </c>
-      <c r="P47" s="57" t="s">
+      <c r="P47" s="56" t="s">
         <v>3322</v>
       </c>
     </row>
@@ -18295,49 +18289,49 @@
       <c r="U40" s="18"/>
       <c r="V40" s="18"/>
     </row>
-    <row r="41" spans="1:22" s="58" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A41" s="55"/>
-      <c r="B41" s="56" t="s">
+    <row r="41" spans="1:22" s="57" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A41" s="54"/>
+      <c r="B41" s="55" t="s">
         <v>3313</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="55" t="s">
         <v>3316</v>
       </c>
-      <c r="D41" s="56" t="s">
+      <c r="D41" s="55" t="s">
         <v>3317</v>
       </c>
-      <c r="E41" s="56" t="s">
+      <c r="E41" s="55" t="s">
         <v>3315</v>
       </c>
-      <c r="F41" s="56" t="s">
+      <c r="F41" s="55" t="s">
         <v>1032</v>
       </c>
-      <c r="G41" s="56" t="s">
+      <c r="G41" s="55" t="s">
         <v>403</v>
       </c>
-      <c r="H41" s="56" t="s">
+      <c r="H41" s="55" t="s">
         <v>3318</v>
       </c>
-      <c r="I41" s="56" t="s">
+      <c r="I41" s="55" t="s">
         <v>423</v>
       </c>
-      <c r="J41" s="57" t="s">
+      <c r="J41" s="56" t="s">
         <v>3319</v>
       </c>
-      <c r="K41" s="56" t="s">
+      <c r="K41" s="55" t="s">
         <v>3320</v>
       </c>
-      <c r="L41" s="55"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="55"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="55"/>
-      <c r="R41" s="55"/>
-      <c r="S41" s="55"/>
-      <c r="T41" s="55"/>
-      <c r="U41" s="55"/>
-      <c r="V41" s="55"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="54"/>
+      <c r="U41" s="54"/>
+      <c r="V41" s="54"/>
     </row>
     <row r="42" spans="1:22" ht="12.75" customHeight="1">
       <c r="A42" s="18"/>
@@ -28551,7 +28545,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -28638,9 +28632,6 @@
       <c r="G2" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>875</v>
-      </c>
       <c r="I2" s="18" t="s">
         <v>3313</v>
       </c>
@@ -28670,9 +28661,6 @@
       <c r="G3" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>875</v>
-      </c>
       <c r="I3" s="18" t="s">
         <v>3313</v>
       </c>
@@ -28702,9 +28690,6 @@
       <c r="G4" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>875</v>
-      </c>
       <c r="I4" s="18" t="s">
         <v>3313</v>
       </c>
@@ -28763,9 +28748,6 @@
       <c r="G6" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>875</v>
-      </c>
       <c r="I6" s="18" t="s">
         <v>3313</v>
       </c>
@@ -28795,9 +28777,6 @@
       <c r="G7" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H7" s="18" t="s">
-        <v>875</v>
-      </c>
       <c r="I7" s="18" t="s">
         <v>3313</v>
       </c>
@@ -28827,9 +28806,6 @@
       <c r="G8" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H8" s="18" t="s">
-        <v>875</v>
-      </c>
       <c r="I8" s="18" t="s">
         <v>3313</v>
       </c>
@@ -28859,9 +28835,6 @@
       <c r="G9" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H9" s="18" t="s">
-        <v>875</v>
-      </c>
       <c r="I9" s="18" t="s">
         <v>3313</v>
       </c>
@@ -28891,9 +28864,6 @@
       <c r="G10" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H10" s="18" t="s">
-        <v>875</v>
-      </c>
       <c r="I10" s="18" t="s">
         <v>3313</v>
       </c>
@@ -28923,9 +28893,6 @@
       <c r="G11" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H11" s="18" t="s">
-        <v>875</v>
-      </c>
       <c r="I11" s="18" t="s">
         <v>3313</v>
       </c>
@@ -28955,9 +28922,6 @@
       <c r="G12" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>875</v>
-      </c>
       <c r="I12" s="18" t="s">
         <v>3313</v>
       </c>
@@ -28987,9 +28951,6 @@
       <c r="G13" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H13" s="18" t="s">
-        <v>875</v>
-      </c>
       <c r="I13" s="18" t="s">
         <v>3313</v>
       </c>
@@ -29019,9 +28980,6 @@
       <c r="G14" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H14" s="18" t="s">
-        <v>875</v>
-      </c>
       <c r="I14" s="18" t="s">
         <v>3313</v>
       </c>
@@ -29051,9 +29009,6 @@
       <c r="G15" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H15" s="18" t="s">
-        <v>875</v>
-      </c>
       <c r="I15" s="18" t="s">
         <v>3313</v>
       </c>
@@ -29083,9 +29038,6 @@
       <c r="G16" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H16" s="18" t="s">
-        <v>875</v>
-      </c>
       <c r="I16" s="18" t="s">
         <v>3313</v>
       </c>
@@ -29144,9 +29096,6 @@
       <c r="G18" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H18" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I18" s="18" t="s">
         <v>3313</v>
       </c>
@@ -29176,9 +29125,6 @@
       <c r="G19" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H19" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I19" s="18" t="s">
         <v>3313</v>
       </c>
@@ -29208,9 +29154,6 @@
       <c r="G20" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H20" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I20" s="18" t="s">
         <v>3313</v>
       </c>
@@ -29240,9 +29183,6 @@
       <c r="G21" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H21" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I21" s="18" t="s">
         <v>3313</v>
       </c>
@@ -29272,9 +29212,6 @@
       <c r="G22" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H22" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I22" s="18" t="s">
         <v>3313</v>
       </c>
@@ -29304,9 +29241,6 @@
       <c r="G23" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H23" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I23" s="18" t="s">
         <v>3313</v>
       </c>
@@ -29336,9 +29270,6 @@
       <c r="G24" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H24" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I24" s="18" t="s">
         <v>3313</v>
       </c>
@@ -29368,9 +29299,6 @@
       <c r="G25" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H25" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I25" s="18" t="s">
         <v>3313</v>
       </c>
@@ -29400,9 +29328,6 @@
       <c r="G26" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H26" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I26" s="18" t="s">
         <v>3313</v>
       </c>
@@ -29432,9 +29357,6 @@
       <c r="G27" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H27" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I27" s="18" t="s">
         <v>3313</v>
       </c>
@@ -29464,9 +29386,6 @@
       <c r="G28" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H28" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I28" s="18" t="s">
         <v>3313</v>
       </c>
@@ -29496,9 +29415,6 @@
       <c r="G29" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H29" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I29" s="18" t="s">
         <v>3313</v>
       </c>
@@ -29528,9 +29444,6 @@
       <c r="G30" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H30" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I30" s="18" t="s">
         <v>3313</v>
       </c>
@@ -29560,9 +29473,6 @@
       <c r="G31" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H31" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I31" s="18" t="s">
         <v>3313</v>
       </c>
@@ -29592,9 +29502,6 @@
       <c r="G32" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H32" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I32" s="18" t="s">
         <v>3313</v>
       </c>
@@ -29624,9 +29531,6 @@
       <c r="G33" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H33" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I33" s="18" t="s">
         <v>3313</v>
       </c>
@@ -29656,9 +29560,6 @@
       <c r="G34" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H34" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I34" s="18" t="s">
         <v>3313</v>
       </c>
@@ -29688,9 +29589,6 @@
       <c r="G35" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H35" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I35" s="18" t="s">
         <v>3313</v>
       </c>
@@ -29720,9 +29618,6 @@
       <c r="G36" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H36" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I36" s="18" t="s">
         <v>3313</v>
       </c>
@@ -29752,9 +29647,6 @@
       <c r="G37" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H37" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I37" s="18" t="s">
         <v>3313</v>
       </c>
@@ -29784,9 +29676,6 @@
       <c r="G38" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H38" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I38" s="18" t="s">
         <v>3313</v>
       </c>
@@ -29816,9 +29705,6 @@
       <c r="G39" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H39" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I39" s="18" t="s">
         <v>3313</v>
       </c>
@@ -29848,9 +29734,6 @@
       <c r="G40" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H40" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I40" s="18" t="s">
         <v>3313</v>
       </c>
@@ -29880,9 +29763,6 @@
       <c r="G41" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H41" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I41" s="18" t="s">
         <v>3313</v>
       </c>
@@ -29912,9 +29792,6 @@
       <c r="G42" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H42" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I42" s="18" t="s">
         <v>3313</v>
       </c>
@@ -29944,9 +29821,6 @@
       <c r="G43" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H43" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I43" s="18" t="s">
         <v>3313</v>
       </c>
@@ -29976,9 +29850,6 @@
       <c r="G44" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H44" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I44" s="18" t="s">
         <v>3313</v>
       </c>
@@ -30008,9 +29879,6 @@
       <c r="G45" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H45" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I45" s="18" t="s">
         <v>3313</v>
       </c>
@@ -30040,9 +29908,6 @@
       <c r="G46" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H46" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I46" s="18" t="s">
         <v>3313</v>
       </c>
@@ -30072,9 +29937,6 @@
       <c r="G47" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H47" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I47" s="18" t="s">
         <v>3313</v>
       </c>
@@ -30104,7 +29966,6 @@
       <c r="G48" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H48" s="54"/>
       <c r="I48" s="18" t="s">
         <v>2177</v>
       </c>
@@ -30134,9 +29995,6 @@
       <c r="G49" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H49" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I49" s="18" t="s">
         <v>3313</v>
       </c>
@@ -30166,9 +30024,6 @@
       <c r="G50" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H50" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I50" s="18" t="s">
         <v>3313</v>
       </c>
@@ -30198,9 +30053,6 @@
       <c r="G51" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H51" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I51" s="18" t="s">
         <v>3313</v>
       </c>
@@ -30230,9 +30082,6 @@
       <c r="G52" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H52" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I52" s="18" t="s">
         <v>3313</v>
       </c>
@@ -30262,9 +30111,6 @@
       <c r="G53" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H53" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I53" s="18" t="s">
         <v>3313</v>
       </c>
@@ -30294,9 +30140,6 @@
       <c r="G54" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H54" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I54" s="18" t="s">
         <v>3313</v>
       </c>
@@ -30326,9 +30169,6 @@
       <c r="G55" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H55" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I55" s="18" t="s">
         <v>3313</v>
       </c>
@@ -30358,9 +30198,6 @@
       <c r="G56" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H56" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I56" s="18" t="s">
         <v>3313</v>
       </c>
@@ -30390,9 +30227,6 @@
       <c r="G57" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H57" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I57" s="18" t="s">
         <v>3313</v>
       </c>
@@ -30422,7 +30256,6 @@
       <c r="G58" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H58" s="54"/>
       <c r="I58" s="18" t="s">
         <v>2177</v>
       </c>
@@ -30452,9 +30285,6 @@
       <c r="G59" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H59" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I59" s="18" t="s">
         <v>3313</v>
       </c>
@@ -30484,9 +30314,6 @@
       <c r="G60" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H60" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I60" s="18" t="s">
         <v>3313</v>
       </c>
@@ -30516,7 +30343,6 @@
       <c r="G61" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H61" s="54"/>
       <c r="I61" s="18" t="s">
         <v>2177</v>
       </c>
@@ -30546,9 +30372,6 @@
       <c r="G62" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H62" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I62" s="18" t="s">
         <v>3313</v>
       </c>
@@ -30578,9 +30401,6 @@
       <c r="G63" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H63" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I63" s="18" t="s">
         <v>3313</v>
       </c>
@@ -30610,9 +30430,6 @@
       <c r="G64" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H64" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I64" s="18" t="s">
         <v>3313</v>
       </c>
@@ -30642,9 +30459,6 @@
       <c r="G65" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H65" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I65" s="18" t="s">
         <v>3313</v>
       </c>
@@ -30674,9 +30488,6 @@
       <c r="G66" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H66" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I66" s="18" t="s">
         <v>3313</v>
       </c>
@@ -30706,9 +30517,6 @@
       <c r="G67" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H67" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I67" s="18" t="s">
         <v>3313</v>
       </c>
@@ -30738,9 +30546,6 @@
       <c r="G68" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H68" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I68" s="18" t="s">
         <v>3313</v>
       </c>
@@ -30770,9 +30575,6 @@
       <c r="G69" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H69" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I69" s="18" t="s">
         <v>3313</v>
       </c>
@@ -30802,9 +30604,6 @@
       <c r="G70" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H70" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I70" s="18" t="s">
         <v>3313</v>
       </c>
@@ -30834,9 +30633,6 @@
       <c r="G71" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H71" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I71" s="18" t="s">
         <v>3313</v>
       </c>
@@ -30866,9 +30662,6 @@
       <c r="G72" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H72" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I72" s="18" t="s">
         <v>3313</v>
       </c>
@@ -30898,9 +30691,6 @@
       <c r="G73" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H73" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I73" s="18" t="s">
         <v>3313</v>
       </c>
@@ -30930,9 +30720,6 @@
       <c r="G74" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H74" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I74" s="18" t="s">
         <v>3313</v>
       </c>
@@ -30962,9 +30749,6 @@
       <c r="G75" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H75" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I75" s="18" t="s">
         <v>3313</v>
       </c>
@@ -30994,9 +30778,6 @@
       <c r="G76" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H76" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I76" s="18" t="s">
         <v>3313</v>
       </c>
@@ -31026,9 +30807,6 @@
       <c r="G77" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H77" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I77" s="18" t="s">
         <v>3313</v>
       </c>
@@ -31058,9 +30836,6 @@
       <c r="G78" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H78" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I78" s="18" t="s">
         <v>3313</v>
       </c>
@@ -31090,9 +30865,6 @@
       <c r="G79" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H79" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I79" s="18" t="s">
         <v>3313</v>
       </c>
@@ -31122,9 +30894,6 @@
       <c r="G80" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H80" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I80" s="18" t="s">
         <v>3313</v>
       </c>
@@ -31154,9 +30923,6 @@
       <c r="G81" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H81" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I81" s="18" t="s">
         <v>3313</v>
       </c>
@@ -31186,9 +30952,6 @@
       <c r="G82" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H82" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I82" s="18" t="s">
         <v>3313</v>
       </c>
@@ -31218,9 +30981,6 @@
       <c r="G83" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H83" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I83" s="18" t="s">
         <v>3313</v>
       </c>
@@ -31250,9 +31010,6 @@
       <c r="G84" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H84" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I84" s="18" t="s">
         <v>3313</v>
       </c>
@@ -31282,9 +31039,6 @@
       <c r="G85" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H85" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I85" s="18" t="s">
         <v>3313</v>
       </c>
@@ -31314,9 +31068,6 @@
       <c r="G86" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H86" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I86" s="18" t="s">
         <v>3313</v>
       </c>
@@ -31346,9 +31097,6 @@
       <c r="G87" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H87" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I87" s="18" t="s">
         <v>3313</v>
       </c>
@@ -31378,9 +31126,6 @@
       <c r="G88" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H88" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I88" s="18" t="s">
         <v>3313</v>
       </c>
@@ -31410,9 +31155,6 @@
       <c r="G89" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H89" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I89" s="18" t="s">
         <v>3313</v>
       </c>
@@ -31442,9 +31184,6 @@
       <c r="G90" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H90" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I90" s="18" t="s">
         <v>3313</v>
       </c>
@@ -31474,7 +31213,6 @@
       <c r="G91" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H91" s="54"/>
       <c r="I91" s="18" t="s">
         <v>2177</v>
       </c>
@@ -31504,9 +31242,6 @@
       <c r="G92" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H92" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I92" s="18" t="s">
         <v>3313</v>
       </c>
@@ -31536,9 +31271,6 @@
       <c r="G93" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H93" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I93" s="18" t="s">
         <v>3313</v>
       </c>
@@ -31568,9 +31300,6 @@
       <c r="G94" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H94" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I94" s="18" t="s">
         <v>3313</v>
       </c>
@@ -31600,7 +31329,6 @@
       <c r="G95" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H95" s="54"/>
       <c r="I95" s="18" t="s">
         <v>2177</v>
       </c>
@@ -31630,9 +31358,6 @@
       <c r="G96" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H96" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I96" s="18" t="s">
         <v>3313</v>
       </c>
@@ -31662,9 +31387,6 @@
       <c r="G97" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H97" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I97" s="18" t="s">
         <v>3313</v>
       </c>
@@ -31694,9 +31416,6 @@
       <c r="G98" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H98" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I98" s="18" t="s">
         <v>3313</v>
       </c>
@@ -31726,9 +31445,6 @@
       <c r="G99" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H99" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I99" s="18" t="s">
         <v>3313</v>
       </c>
@@ -31758,9 +31474,6 @@
       <c r="G100" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H100" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I100" s="18" t="s">
         <v>3313</v>
       </c>
@@ -31790,9 +31503,6 @@
       <c r="G101" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H101" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I101" s="18" t="s">
         <v>3313</v>
       </c>
@@ -31822,9 +31532,6 @@
       <c r="G102" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H102" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I102" s="18" t="s">
         <v>3313</v>
       </c>
@@ -31854,9 +31561,6 @@
       <c r="G103" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H103" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I103" s="18" t="s">
         <v>3313</v>
       </c>
@@ -31886,9 +31590,6 @@
       <c r="G104" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H104" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I104" s="18" t="s">
         <v>3313</v>
       </c>
@@ -31918,7 +31619,6 @@
       <c r="G105" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H105" s="54"/>
       <c r="I105" s="18" t="s">
         <v>2177</v>
       </c>
@@ -31948,9 +31648,6 @@
       <c r="G106" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H106" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I106" s="18" t="s">
         <v>3313</v>
       </c>
@@ -31980,9 +31677,6 @@
       <c r="G107" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H107" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I107" s="18" t="s">
         <v>3313</v>
       </c>
@@ -32012,9 +31706,6 @@
       <c r="G108" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H108" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I108" s="18" t="s">
         <v>3313</v>
       </c>
@@ -32044,9 +31735,6 @@
       <c r="G109" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H109" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I109" s="18" t="s">
         <v>3313</v>
       </c>
@@ -32076,9 +31764,6 @@
       <c r="G110" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H110" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I110" s="18" t="s">
         <v>3313</v>
       </c>
@@ -32108,9 +31793,6 @@
       <c r="G111" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H111" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I111" s="18" t="s">
         <v>3313</v>
       </c>
@@ -32140,9 +31822,6 @@
       <c r="G112" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H112" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I112" s="18" t="s">
         <v>3313</v>
       </c>
@@ -32172,9 +31851,6 @@
       <c r="G113" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H113" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I113" s="18" t="s">
         <v>3313</v>
       </c>
@@ -32204,9 +31880,6 @@
       <c r="G114" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H114" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I114" s="18" t="s">
         <v>3313</v>
       </c>
@@ -32236,9 +31909,6 @@
       <c r="G115" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H115" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I115" s="18" t="s">
         <v>3313</v>
       </c>
@@ -32268,7 +31938,6 @@
       <c r="G116" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H116" s="54"/>
       <c r="I116" s="18" t="s">
         <v>2177</v>
       </c>
@@ -32298,9 +31967,6 @@
       <c r="G117" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H117" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I117" s="18" t="s">
         <v>3313</v>
       </c>
@@ -32330,9 +31996,6 @@
       <c r="G118" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H118" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I118" s="18" t="s">
         <v>3313</v>
       </c>
@@ -32362,9 +32025,6 @@
       <c r="G119" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H119" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I119" s="18" t="s">
         <v>3313</v>
       </c>
@@ -32394,9 +32054,6 @@
       <c r="G120" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H120" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I120" s="18" t="s">
         <v>3313</v>
       </c>
@@ -32426,9 +32083,6 @@
       <c r="G121" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H121" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I121" s="18" t="s">
         <v>3313</v>
       </c>
@@ -32458,9 +32112,6 @@
       <c r="G122" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H122" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I122" s="18" t="s">
         <v>3313</v>
       </c>
@@ -32490,9 +32141,6 @@
       <c r="G123" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H123" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I123" s="18" t="s">
         <v>3313</v>
       </c>
@@ -32522,9 +32170,6 @@
       <c r="G124" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H124" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I124" s="18" t="s">
         <v>3313</v>
       </c>
@@ -32554,9 +32199,6 @@
       <c r="G125" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H125" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I125" s="18" t="s">
         <v>3313</v>
       </c>
@@ -32586,9 +32228,6 @@
       <c r="G126" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H126" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I126" s="18" t="s">
         <v>3313</v>
       </c>
@@ -32618,9 +32257,6 @@
       <c r="G127" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H127" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I127" s="18" t="s">
         <v>3313</v>
       </c>
@@ -32650,9 +32286,6 @@
       <c r="G128" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H128" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I128" s="18" t="s">
         <v>3313</v>
       </c>
@@ -32682,9 +32315,6 @@
       <c r="G129" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H129" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I129" s="18" t="s">
         <v>3313</v>
       </c>
@@ -32714,9 +32344,6 @@
       <c r="G130" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H130" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I130" s="18" t="s">
         <v>3313</v>
       </c>
@@ -32746,9 +32373,6 @@
       <c r="G131" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H131" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I131" s="18" t="s">
         <v>3313</v>
       </c>
@@ -32778,7 +32402,6 @@
       <c r="G132" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H132" s="54"/>
       <c r="I132" s="18" t="s">
         <v>2177</v>
       </c>
@@ -32808,9 +32431,6 @@
       <c r="G133" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H133" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I133" s="18" t="s">
         <v>3313</v>
       </c>
@@ -32840,9 +32460,6 @@
       <c r="G134" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H134" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I134" s="18" t="s">
         <v>3313</v>
       </c>
@@ -32872,9 +32489,6 @@
       <c r="G135" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H135" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I135" s="18" t="s">
         <v>3313</v>
       </c>
@@ -32904,9 +32518,6 @@
       <c r="G136" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H136" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I136" s="18" t="s">
         <v>3313</v>
       </c>
@@ -32936,7 +32547,6 @@
       <c r="G137" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H137" s="54"/>
       <c r="I137" s="18" t="s">
         <v>2177</v>
       </c>
@@ -32966,9 +32576,6 @@
       <c r="G138" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H138" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I138" s="18" t="s">
         <v>3313</v>
       </c>
@@ -32998,9 +32605,6 @@
       <c r="G139" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H139" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I139" s="18" t="s">
         <v>3313</v>
       </c>
@@ -33030,9 +32634,6 @@
       <c r="G140" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H140" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I140" s="18" t="s">
         <v>3313</v>
       </c>
@@ -33062,9 +32663,6 @@
       <c r="G141" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H141" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I141" s="18" t="s">
         <v>3313</v>
       </c>
@@ -33094,9 +32692,6 @@
       <c r="G142" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H142" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I142" s="18" t="s">
         <v>3313</v>
       </c>
@@ -33126,9 +32721,6 @@
       <c r="G143" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H143" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I143" s="18" t="s">
         <v>3313</v>
       </c>
@@ -33158,9 +32750,6 @@
       <c r="G144" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H144" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I144" s="18" t="s">
         <v>3313</v>
       </c>
@@ -33190,9 +32779,6 @@
       <c r="G145" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H145" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I145" s="18" t="s">
         <v>3313</v>
       </c>
@@ -33222,9 +32808,6 @@
       <c r="G146" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H146" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I146" s="18" t="s">
         <v>3313</v>
       </c>
@@ -33254,9 +32837,6 @@
       <c r="G147" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H147" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I147" s="18" t="s">
         <v>3313</v>
       </c>
@@ -33286,7 +32866,6 @@
       <c r="G148" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H148" s="54"/>
       <c r="I148" s="18" t="s">
         <v>2177</v>
       </c>
@@ -33316,9 +32895,6 @@
       <c r="G149" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H149" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I149" s="18" t="s">
         <v>3313</v>
       </c>
@@ -33348,9 +32924,6 @@
       <c r="G150" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H150" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I150" s="18" t="s">
         <v>3313</v>
       </c>
@@ -33380,9 +32953,6 @@
       <c r="G151" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H151" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I151" s="18" t="s">
         <v>3313</v>
       </c>
@@ -33412,9 +32982,6 @@
       <c r="G152" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H152" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I152" s="18" t="s">
         <v>3313</v>
       </c>
@@ -33444,9 +33011,6 @@
       <c r="G153" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H153" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I153" s="18" t="s">
         <v>3313</v>
       </c>
@@ -33476,9 +33040,6 @@
       <c r="G154" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H154" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I154" s="18" t="s">
         <v>3313</v>
       </c>
@@ -33508,9 +33069,6 @@
       <c r="G155" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H155" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I155" s="18" t="s">
         <v>3313</v>
       </c>
@@ -33540,9 +33098,6 @@
       <c r="G156" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H156" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I156" s="18" t="s">
         <v>3313</v>
       </c>
@@ -33572,9 +33127,6 @@
       <c r="G157" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H157" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I157" s="18" t="s">
         <v>3313</v>
       </c>
@@ -33604,9 +33156,6 @@
       <c r="G158" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H158" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I158" s="18" t="s">
         <v>3313</v>
       </c>
@@ -33636,9 +33185,6 @@
       <c r="G159" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H159" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I159" s="18" t="s">
         <v>3313</v>
       </c>
@@ -33668,9 +33214,6 @@
       <c r="G160" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H160" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I160" s="18" t="s">
         <v>3313</v>
       </c>
@@ -33700,9 +33243,6 @@
       <c r="G161" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H161" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I161" s="18" t="s">
         <v>3313</v>
       </c>
@@ -33732,9 +33272,6 @@
       <c r="G162" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H162" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I162" s="18" t="s">
         <v>3313</v>
       </c>
@@ -33764,9 +33301,6 @@
       <c r="G163" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H163" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I163" s="18" t="s">
         <v>3313</v>
       </c>
@@ -33796,9 +33330,6 @@
       <c r="G164" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H164" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I164" s="18" t="s">
         <v>3313</v>
       </c>
@@ -33828,9 +33359,6 @@
       <c r="G165" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H165" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I165" s="18" t="s">
         <v>3313</v>
       </c>
@@ -33860,9 +33388,6 @@
       <c r="G166" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H166" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I166" s="18" t="s">
         <v>3313</v>
       </c>
@@ -33892,9 +33417,6 @@
       <c r="G167" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H167" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I167" s="18" t="s">
         <v>3313</v>
       </c>
@@ -33924,7 +33446,6 @@
       <c r="G168" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H168" s="54"/>
       <c r="I168" s="18" t="s">
         <v>2177</v>
       </c>
@@ -33954,9 +33475,6 @@
       <c r="G169" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H169" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I169" s="18" t="s">
         <v>3313</v>
       </c>
@@ -33986,9 +33504,6 @@
       <c r="G170" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H170" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I170" s="18" t="s">
         <v>3313</v>
       </c>
@@ -34018,9 +33533,6 @@
       <c r="G171" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H171" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I171" s="18" t="s">
         <v>3313</v>
       </c>
@@ -34050,9 +33562,6 @@
       <c r="G172" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H172" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I172" s="18" t="s">
         <v>3313</v>
       </c>
@@ -34082,9 +33591,6 @@
       <c r="G173" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H173" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I173" s="18" t="s">
         <v>3313</v>
       </c>
@@ -34114,9 +33620,6 @@
       <c r="G174" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H174" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I174" s="18" t="s">
         <v>3313</v>
       </c>
@@ -34146,7 +33649,6 @@
       <c r="G175" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H175" s="54"/>
       <c r="I175" s="18" t="s">
         <v>2177</v>
       </c>
@@ -34176,9 +33678,6 @@
       <c r="G176" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H176" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I176" s="18" t="s">
         <v>3313</v>
       </c>
@@ -34208,9 +33707,6 @@
       <c r="G177" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H177" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I177" s="18" t="s">
         <v>3313</v>
       </c>
@@ -34240,9 +33736,6 @@
       <c r="G178" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H178" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I178" s="18" t="s">
         <v>3313</v>
       </c>
@@ -34272,9 +33765,6 @@
       <c r="G179" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H179" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I179" s="18" t="s">
         <v>3313</v>
       </c>
@@ -34304,9 +33794,6 @@
       <c r="G180" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H180" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I180" s="18" t="s">
         <v>3313</v>
       </c>
@@ -34336,9 +33823,6 @@
       <c r="G181" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H181" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I181" s="18" t="s">
         <v>3313</v>
       </c>
@@ -34368,9 +33852,6 @@
       <c r="G182" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H182" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I182" s="18" t="s">
         <v>3313</v>
       </c>
@@ -34400,9 +33881,6 @@
       <c r="G183" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H183" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I183" s="18" t="s">
         <v>3313</v>
       </c>
@@ -34432,9 +33910,6 @@
       <c r="G184" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H184" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I184" s="18" t="s">
         <v>3313</v>
       </c>
@@ -34464,9 +33939,6 @@
       <c r="G185" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H185" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I185" s="18" t="s">
         <v>3313</v>
       </c>
@@ -34496,9 +33968,6 @@
       <c r="G186" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H186" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I186" s="18" t="s">
         <v>3313</v>
       </c>
@@ -34528,9 +33997,6 @@
       <c r="G187" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H187" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I187" s="18" t="s">
         <v>3313</v>
       </c>
@@ -34560,9 +34026,6 @@
       <c r="G188" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H188" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I188" s="18" t="s">
         <v>3313</v>
       </c>
@@ -34592,9 +34055,6 @@
       <c r="G189" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H189" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I189" s="18" t="s">
         <v>3313</v>
       </c>
@@ -34624,9 +34084,6 @@
       <c r="G190" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H190" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I190" s="18" t="s">
         <v>3313</v>
       </c>
@@ -34656,9 +34113,6 @@
       <c r="G191" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H191" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I191" s="18" t="s">
         <v>3313</v>
       </c>
@@ -34688,9 +34142,6 @@
       <c r="G192" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H192" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I192" s="18" t="s">
         <v>3313</v>
       </c>
@@ -34720,9 +34171,6 @@
       <c r="G193" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H193" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I193" s="18" t="s">
         <v>3313</v>
       </c>
@@ -34752,9 +34200,6 @@
       <c r="G194" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H194" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I194" s="18" t="s">
         <v>3313</v>
       </c>
@@ -34784,9 +34229,6 @@
       <c r="G195" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H195" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I195" s="18" t="s">
         <v>3313</v>
       </c>
@@ -34816,9 +34258,6 @@
       <c r="G196" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H196" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I196" s="18" t="s">
         <v>3313</v>
       </c>
@@ -34848,7 +34287,6 @@
       <c r="G197" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H197" s="54"/>
       <c r="I197" s="18" t="s">
         <v>2177</v>
       </c>
@@ -34878,9 +34316,6 @@
       <c r="G198" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H198" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I198" s="18" t="s">
         <v>3313</v>
       </c>
@@ -34910,9 +34345,6 @@
       <c r="G199" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H199" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I199" s="18" t="s">
         <v>3313</v>
       </c>
@@ -34942,9 +34374,6 @@
       <c r="G200" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H200" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I200" s="18" t="s">
         <v>3313</v>
       </c>
@@ -34974,9 +34403,6 @@
       <c r="G201" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H201" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I201" s="18" t="s">
         <v>3313</v>
       </c>
@@ -35006,7 +34432,6 @@
       <c r="G202" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H202" s="54"/>
       <c r="I202" s="18" t="s">
         <v>2177</v>
       </c>
@@ -35036,9 +34461,6 @@
       <c r="G203" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H203" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I203" s="18" t="s">
         <v>3313</v>
       </c>
@@ -35068,9 +34490,6 @@
       <c r="G204" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H204" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I204" s="18" t="s">
         <v>3313</v>
       </c>
@@ -35100,7 +34519,6 @@
       <c r="G205" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H205" s="54"/>
       <c r="I205" s="18" t="s">
         <v>2177</v>
       </c>
@@ -35130,9 +34548,6 @@
       <c r="G206" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H206" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I206" s="18" t="s">
         <v>3313</v>
       </c>
@@ -35162,9 +34577,6 @@
       <c r="G207" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H207" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I207" s="18" t="s">
         <v>3313</v>
       </c>
@@ -35194,9 +34606,6 @@
       <c r="G208" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H208" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I208" s="18" t="s">
         <v>3313</v>
       </c>
@@ -35226,9 +34635,6 @@
       <c r="G209" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H209" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I209" s="18" t="s">
         <v>3313</v>
       </c>
@@ -35258,9 +34664,6 @@
       <c r="G210" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H210" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I210" s="18" t="s">
         <v>3313</v>
       </c>
@@ -35290,9 +34693,6 @@
       <c r="G211" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H211" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I211" s="18" t="s">
         <v>3313</v>
       </c>
@@ -35322,9 +34722,6 @@
       <c r="G212" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H212" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I212" s="18" t="s">
         <v>3313</v>
       </c>
@@ -35354,9 +34751,6 @@
       <c r="G213" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H213" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I213" s="18" t="s">
         <v>3313</v>
       </c>
@@ -35386,9 +34780,6 @@
       <c r="G214" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H214" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I214" s="18" t="s">
         <v>3313</v>
       </c>
@@ -35418,9 +34809,6 @@
       <c r="G215" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H215" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I215" s="18" t="s">
         <v>3313</v>
       </c>
@@ -35450,9 +34838,6 @@
       <c r="G216" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H216" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I216" s="18" t="s">
         <v>3313</v>
       </c>
@@ -35482,9 +34867,6 @@
       <c r="G217" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H217" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I217" s="18" t="s">
         <v>3313</v>
       </c>
@@ -35514,9 +34896,6 @@
       <c r="G218" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H218" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I218" s="18" t="s">
         <v>3313</v>
       </c>
@@ -35546,9 +34925,6 @@
       <c r="G219" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H219" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I219" s="18" t="s">
         <v>3313</v>
       </c>
@@ -35578,9 +34954,6 @@
       <c r="G220" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H220" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I220" s="18" t="s">
         <v>3313</v>
       </c>
@@ -35610,9 +34983,6 @@
       <c r="G221" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H221" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I221" s="18" t="s">
         <v>3313</v>
       </c>
@@ -35642,9 +35012,6 @@
       <c r="G222" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H222" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I222" s="18" t="s">
         <v>3313</v>
       </c>
@@ -35674,9 +35041,6 @@
       <c r="G223" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H223" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I223" s="18" t="s">
         <v>3313</v>
       </c>
@@ -35706,7 +35070,6 @@
       <c r="G224" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H224" s="54"/>
       <c r="I224" s="18" t="s">
         <v>2177</v>
       </c>
@@ -35736,9 +35099,6 @@
       <c r="G225" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H225" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I225" s="18" t="s">
         <v>3313</v>
       </c>
@@ -35768,9 +35128,6 @@
       <c r="G226" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H226" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I226" s="18" t="s">
         <v>3313</v>
       </c>
@@ -35800,9 +35157,6 @@
       <c r="G227" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H227" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I227" s="18" t="s">
         <v>3313</v>
       </c>
@@ -35832,9 +35186,6 @@
       <c r="G228" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H228" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I228" s="18" t="s">
         <v>3313</v>
       </c>
@@ -35864,9 +35215,6 @@
       <c r="G229" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H229" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I229" s="18" t="s">
         <v>3313</v>
       </c>
@@ -35896,9 +35244,6 @@
       <c r="G230" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H230" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I230" s="18" t="s">
         <v>3313</v>
       </c>
@@ -35928,9 +35273,6 @@
       <c r="G231" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H231" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I231" s="18" t="s">
         <v>3313</v>
       </c>
@@ -35960,9 +35302,6 @@
       <c r="G232" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H232" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I232" s="18" t="s">
         <v>3313</v>
       </c>
@@ -35992,9 +35331,6 @@
       <c r="G233" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H233" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I233" s="18" t="s">
         <v>3313</v>
       </c>
@@ -36024,9 +35360,6 @@
       <c r="G234" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H234" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I234" s="18" t="s">
         <v>3313</v>
       </c>
@@ -36056,9 +35389,6 @@
       <c r="G235" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H235" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I235" s="18" t="s">
         <v>3313</v>
       </c>
@@ -36088,9 +35418,6 @@
       <c r="G236" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H236" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I236" s="18" t="s">
         <v>3313</v>
       </c>
@@ -36120,9 +35447,6 @@
       <c r="G237" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H237" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I237" s="18" t="s">
         <v>3313</v>
       </c>
@@ -36152,9 +35476,6 @@
       <c r="G238" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H238" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I238" s="18" t="s">
         <v>3313</v>
       </c>
@@ -36184,9 +35505,6 @@
       <c r="G239" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H239" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I239" s="18" t="s">
         <v>3313</v>
       </c>
@@ -36216,9 +35534,6 @@
       <c r="G240" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H240" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I240" s="18" t="s">
         <v>3313</v>
       </c>
@@ -36248,9 +35563,6 @@
       <c r="G241" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H241" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I241" s="18" t="s">
         <v>3313</v>
       </c>
@@ -36280,9 +35592,6 @@
       <c r="G242" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H242" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I242" s="18" t="s">
         <v>3313</v>
       </c>
@@ -36312,9 +35621,6 @@
       <c r="G243" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H243" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I243" s="18" t="s">
         <v>3313</v>
       </c>
@@ -36344,9 +35650,6 @@
       <c r="G244" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H244" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I244" s="18" t="s">
         <v>3313</v>
       </c>
@@ -36376,9 +35679,6 @@
       <c r="G245" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H245" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I245" s="18" t="s">
         <v>3313</v>
       </c>
@@ -36408,9 +35708,6 @@
       <c r="G246" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H246" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I246" s="18" t="s">
         <v>3313</v>
       </c>
@@ -36440,9 +35737,6 @@
       <c r="G247" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H247" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I247" s="18" t="s">
         <v>3313</v>
       </c>
@@ -36472,9 +35766,6 @@
       <c r="G248" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H248" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I248" s="18" t="s">
         <v>3313</v>
       </c>
@@ -36504,9 +35795,6 @@
       <c r="G249" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H249" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I249" s="18" t="s">
         <v>3313</v>
       </c>
@@ -36536,7 +35824,6 @@
       <c r="G250" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H250" s="54"/>
       <c r="I250" s="18" t="s">
         <v>2177</v>
       </c>
@@ -36566,9 +35853,6 @@
       <c r="G251" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H251" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I251" s="18" t="s">
         <v>3313</v>
       </c>
@@ -36598,9 +35882,6 @@
       <c r="G252" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H252" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I252" s="18" t="s">
         <v>3313</v>
       </c>
@@ -36630,9 +35911,6 @@
       <c r="G253" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H253" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I253" s="18" t="s">
         <v>3313</v>
       </c>
@@ -36662,9 +35940,6 @@
       <c r="G254" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H254" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I254" s="18" t="s">
         <v>3313</v>
       </c>
@@ -36694,9 +35969,6 @@
       <c r="G255" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H255" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I255" s="18" t="s">
         <v>3313</v>
       </c>
@@ -36726,9 +35998,6 @@
       <c r="G256" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H256" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I256" s="18" t="s">
         <v>3313</v>
       </c>
@@ -36758,9 +36027,6 @@
       <c r="G257" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H257" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I257" s="18" t="s">
         <v>3313</v>
       </c>
@@ -36790,9 +36056,6 @@
       <c r="G258" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H258" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I258" s="18" t="s">
         <v>3313</v>
       </c>
@@ -36822,9 +36085,6 @@
       <c r="G259" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H259" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I259" s="18" t="s">
         <v>3313</v>
       </c>
@@ -36854,9 +36114,6 @@
       <c r="G260" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H260" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I260" s="18" t="s">
         <v>3313</v>
       </c>
@@ -36886,9 +36143,6 @@
       <c r="G261" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H261" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I261" s="18" t="s">
         <v>3313</v>
       </c>
@@ -36918,9 +36172,6 @@
       <c r="G262" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H262" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I262" s="18" t="s">
         <v>3313</v>
       </c>
@@ -36950,9 +36201,6 @@
       <c r="G263" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H263" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I263" s="18" t="s">
         <v>3313</v>
       </c>
@@ -36982,9 +36230,6 @@
       <c r="G264" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H264" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I264" s="18" t="s">
         <v>3313</v>
       </c>
@@ -37014,9 +36259,6 @@
       <c r="G265" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H265" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I265" s="18" t="s">
         <v>3313</v>
       </c>
@@ -37046,9 +36288,6 @@
       <c r="G266" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H266" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I266" s="18" t="s">
         <v>3313</v>
       </c>
@@ -37078,9 +36317,6 @@
       <c r="G267" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H267" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I267" s="18" t="s">
         <v>3313</v>
       </c>
@@ -37110,9 +36346,6 @@
       <c r="G268" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H268" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I268" s="18" t="s">
         <v>3313</v>
       </c>
@@ -37142,9 +36375,6 @@
       <c r="G269" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H269" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I269" s="18" t="s">
         <v>3313</v>
       </c>
@@ -37174,9 +36404,6 @@
       <c r="G270" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H270" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I270" s="18" t="s">
         <v>3313</v>
       </c>
@@ -37206,9 +36433,6 @@
       <c r="G271" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H271" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I271" s="18" t="s">
         <v>3313</v>
       </c>
@@ -37238,9 +36462,6 @@
       <c r="G272" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H272" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I272" s="18" t="s">
         <v>3313</v>
       </c>
@@ -37270,9 +36491,6 @@
       <c r="G273" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H273" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I273" s="18" t="s">
         <v>3313</v>
       </c>
@@ -37302,9 +36520,6 @@
       <c r="G274" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H274" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I274" s="18" t="s">
         <v>3313</v>
       </c>
@@ -37334,9 +36549,6 @@
       <c r="G275" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H275" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I275" s="18" t="s">
         <v>3313</v>
       </c>
@@ -37366,9 +36578,6 @@
       <c r="G276" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H276" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I276" s="18" t="s">
         <v>3313</v>
       </c>
@@ -37398,7 +36607,6 @@
       <c r="G277" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H277" s="54"/>
       <c r="I277" s="18" t="s">
         <v>2177</v>
       </c>
@@ -37428,9 +36636,6 @@
       <c r="G278" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H278" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I278" s="18" t="s">
         <v>3313</v>
       </c>
@@ -37460,9 +36665,6 @@
       <c r="G279" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H279" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I279" s="18" t="s">
         <v>3313</v>
       </c>
@@ -37492,9 +36694,6 @@
       <c r="G280" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H280" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I280" s="18" t="s">
         <v>3313</v>
       </c>
@@ -37524,9 +36723,6 @@
       <c r="G281" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H281" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I281" s="18" t="s">
         <v>3313</v>
       </c>
@@ -37556,9 +36752,6 @@
       <c r="G282" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H282" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I282" s="18" t="s">
         <v>3313</v>
       </c>
@@ -37588,9 +36781,6 @@
       <c r="G283" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H283" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I283" s="18" t="s">
         <v>3313</v>
       </c>
@@ -37620,9 +36810,6 @@
       <c r="G284" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H284" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I284" s="18" t="s">
         <v>3313</v>
       </c>
@@ -37652,9 +36839,6 @@
       <c r="G285" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H285" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I285" s="18" t="s">
         <v>3313</v>
       </c>
@@ -37684,9 +36868,6 @@
       <c r="G286" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H286" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I286" s="18" t="s">
         <v>3313</v>
       </c>
@@ -37716,9 +36897,6 @@
       <c r="G287" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H287" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I287" s="18" t="s">
         <v>3313</v>
       </c>
@@ -37748,9 +36926,6 @@
       <c r="G288" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H288" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I288" s="18" t="s">
         <v>3313</v>
       </c>
@@ -37780,9 +36955,6 @@
       <c r="G289" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H289" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I289" s="18" t="s">
         <v>3313</v>
       </c>
@@ -37812,9 +36984,6 @@
       <c r="G290" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H290" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I290" s="18" t="s">
         <v>3313</v>
       </c>
@@ -37844,9 +37013,6 @@
       <c r="G291" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H291" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I291" s="18" t="s">
         <v>3313</v>
       </c>
@@ -37876,9 +37042,6 @@
       <c r="G292" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H292" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I292" s="18" t="s">
         <v>3313</v>
       </c>
@@ -37908,9 +37071,6 @@
       <c r="G293" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H293" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I293" s="18" t="s">
         <v>3313</v>
       </c>
@@ -37940,9 +37100,6 @@
       <c r="G294" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H294" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I294" s="18" t="s">
         <v>3313</v>
       </c>
@@ -37972,9 +37129,6 @@
       <c r="G295" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H295" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I295" s="18" t="s">
         <v>3313</v>
       </c>
@@ -38004,9 +37158,6 @@
       <c r="G296" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H296" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I296" s="18" t="s">
         <v>3313</v>
       </c>
@@ -38036,9 +37187,6 @@
       <c r="G297" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H297" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I297" s="18" t="s">
         <v>3313</v>
       </c>
@@ -38068,9 +37216,6 @@
       <c r="G298" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H298" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I298" s="18" t="s">
         <v>3313</v>
       </c>
@@ -38100,9 +37245,6 @@
       <c r="G299" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H299" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I299" s="18" t="s">
         <v>3313</v>
       </c>
@@ -38132,9 +37274,6 @@
       <c r="G300" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H300" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I300" s="18" t="s">
         <v>3313</v>
       </c>
@@ -38164,9 +37303,6 @@
       <c r="G301" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H301" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I301" s="18" t="s">
         <v>3313</v>
       </c>
@@ -38196,9 +37332,6 @@
       <c r="G302" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H302" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I302" s="18" t="s">
         <v>3313</v>
       </c>
@@ -38228,7 +37361,6 @@
       <c r="G303" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H303" s="54"/>
       <c r="I303" s="18" t="s">
         <v>2177</v>
       </c>
@@ -38258,9 +37390,6 @@
       <c r="G304" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H304" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I304" s="18" t="s">
         <v>3313</v>
       </c>
@@ -38290,9 +37419,6 @@
       <c r="G305" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H305" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I305" s="18" t="s">
         <v>3313</v>
       </c>
@@ -38322,7 +37448,6 @@
       <c r="G306" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H306" s="54"/>
       <c r="I306" s="18" t="s">
         <v>2177</v>
       </c>
@@ -38352,9 +37477,6 @@
       <c r="G307" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H307" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I307" s="18" t="s">
         <v>3313</v>
       </c>
@@ -38384,9 +37506,6 @@
       <c r="G308" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H308" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I308" s="18" t="s">
         <v>3313</v>
       </c>
@@ -38416,7 +37535,6 @@
       <c r="G309" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H309" s="54"/>
       <c r="I309" s="18" t="s">
         <v>2177</v>
       </c>
@@ -38446,9 +37564,6 @@
       <c r="G310" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H310" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I310" s="18" t="s">
         <v>3313</v>
       </c>
@@ -38478,7 +37593,6 @@
       <c r="G311" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H311" s="54"/>
       <c r="I311" s="18" t="s">
         <v>2177</v>
       </c>
@@ -38508,9 +37622,6 @@
       <c r="G312" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H312" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I312" s="18" t="s">
         <v>3313</v>
       </c>
@@ -38540,9 +37651,6 @@
       <c r="G313" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H313" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I313" s="18" t="s">
         <v>3313</v>
       </c>
@@ -38572,9 +37680,6 @@
       <c r="G314" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H314" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I314" s="18" t="s">
         <v>3313</v>
       </c>
@@ -38604,9 +37709,6 @@
       <c r="G315" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H315" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I315" s="18" t="s">
         <v>3313</v>
       </c>
@@ -38636,9 +37738,6 @@
       <c r="G316" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H316" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I316" s="18" t="s">
         <v>3313</v>
       </c>
@@ -38668,9 +37767,6 @@
       <c r="G317" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H317" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I317" s="18" t="s">
         <v>3313</v>
       </c>
@@ -38700,9 +37796,6 @@
       <c r="G318" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H318" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I318" s="18" t="s">
         <v>3313</v>
       </c>
@@ -38732,9 +37825,6 @@
       <c r="G319" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H319" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I319" s="18" t="s">
         <v>3313</v>
       </c>
@@ -38764,9 +37854,6 @@
       <c r="G320" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H320" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I320" s="18" t="s">
         <v>3313</v>
       </c>
@@ -38796,9 +37883,6 @@
       <c r="G321" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H321" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I321" s="18" t="s">
         <v>3313</v>
       </c>
@@ -38828,9 +37912,6 @@
       <c r="G322" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H322" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I322" s="18" t="s">
         <v>3313</v>
       </c>
@@ -38860,9 +37941,6 @@
       <c r="G323" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H323" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I323" s="18" t="s">
         <v>3313</v>
       </c>
@@ -38892,9 +37970,6 @@
       <c r="G324" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H324" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I324" s="18" t="s">
         <v>3313</v>
       </c>
@@ -38924,7 +37999,6 @@
       <c r="G325" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H325" s="54"/>
       <c r="I325" s="18" t="s">
         <v>2177</v>
       </c>
@@ -38954,9 +38028,6 @@
       <c r="G326" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H326" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I326" s="18" t="s">
         <v>3313</v>
       </c>
@@ -38986,9 +38057,6 @@
       <c r="G327" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H327" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I327" s="18" t="s">
         <v>3313</v>
       </c>
@@ -39018,9 +38086,6 @@
       <c r="G328" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H328" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I328" s="18" t="s">
         <v>3313</v>
       </c>
@@ -39050,9 +38115,6 @@
       <c r="G329" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H329" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I329" s="18" t="s">
         <v>3313</v>
       </c>
@@ -39082,9 +38144,6 @@
       <c r="G330" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H330" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I330" s="18" t="s">
         <v>3313</v>
       </c>
@@ -39114,9 +38173,6 @@
       <c r="G331" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="H331" s="54" t="s">
-        <v>875</v>
-      </c>
       <c r="I331" s="18" t="s">
         <v>3313</v>
       </c>
@@ -39145,9 +38201,6 @@
       </c>
       <c r="G332" s="11" t="s">
         <v>3310</v>
-      </c>
-      <c r="H332" s="54" t="s">
-        <v>875</v>
       </c>
       <c r="I332" s="18" t="s">
         <v>3313</v>

--- a/modencode_interface_submissions.xlsx
+++ b/modencode_interface_submissions.xlsx
@@ -16444,7 +16444,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -19611,6 +19611,7 @@
     <hyperlink ref="J41" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -28544,8 +28545,8 @@
   <dimension ref="A1:R335"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I169" sqref="I169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -28632,8 +28633,8 @@
       <c r="G2" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>3313</v>
+      <c r="I2" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>1600</v>
@@ -28661,8 +28662,8 @@
       <c r="G3" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>3313</v>
+      <c r="I3" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>1600</v>
@@ -28690,8 +28691,8 @@
       <c r="G4" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>3313</v>
+      <c r="I4" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>1600</v>
@@ -28748,8 +28749,8 @@
       <c r="G6" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I6" s="18" t="s">
-        <v>3313</v>
+      <c r="I6" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>1600</v>
@@ -28777,8 +28778,8 @@
       <c r="G7" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I7" s="18" t="s">
-        <v>3313</v>
+      <c r="I7" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>1600</v>
@@ -28806,8 +28807,8 @@
       <c r="G8" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I8" s="18" t="s">
-        <v>3313</v>
+      <c r="I8" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>1600</v>
@@ -28835,8 +28836,8 @@
       <c r="G9" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>3313</v>
+      <c r="I9" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>1600</v>
@@ -28864,8 +28865,8 @@
       <c r="G10" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I10" s="18" t="s">
-        <v>3313</v>
+      <c r="I10" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J10" s="18" t="s">
         <v>1600</v>
@@ -28893,8 +28894,8 @@
       <c r="G11" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I11" s="18" t="s">
-        <v>3313</v>
+      <c r="I11" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>1600</v>
@@ -28922,8 +28923,8 @@
       <c r="G12" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I12" s="18" t="s">
-        <v>3313</v>
+      <c r="I12" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>1600</v>
@@ -28951,8 +28952,8 @@
       <c r="G13" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I13" s="18" t="s">
-        <v>3313</v>
+      <c r="I13" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>1600</v>
@@ -28980,8 +28981,8 @@
       <c r="G14" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I14" s="18" t="s">
-        <v>3313</v>
+      <c r="I14" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>1600</v>
@@ -29009,8 +29010,8 @@
       <c r="G15" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I15" s="18" t="s">
-        <v>3313</v>
+      <c r="I15" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J15" s="18" t="s">
         <v>1600</v>
@@ -29038,8 +29039,8 @@
       <c r="G16" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I16" s="18" t="s">
-        <v>3313</v>
+      <c r="I16" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J16" s="18" t="s">
         <v>1600</v>
@@ -29096,8 +29097,8 @@
       <c r="G18" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I18" s="18" t="s">
-        <v>3313</v>
+      <c r="I18" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J18" s="18" t="s">
         <v>1600</v>
@@ -29125,8 +29126,8 @@
       <c r="G19" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I19" s="18" t="s">
-        <v>3313</v>
+      <c r="I19" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J19" s="18" t="s">
         <v>1600</v>
@@ -29154,8 +29155,8 @@
       <c r="G20" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I20" s="18" t="s">
-        <v>3313</v>
+      <c r="I20" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J20" s="18" t="s">
         <v>1600</v>
@@ -29183,8 +29184,8 @@
       <c r="G21" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I21" s="18" t="s">
-        <v>3313</v>
+      <c r="I21" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J21" s="18" t="s">
         <v>1600</v>
@@ -29212,8 +29213,8 @@
       <c r="G22" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I22" s="18" t="s">
-        <v>3313</v>
+      <c r="I22" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J22" s="18" t="s">
         <v>1600</v>
@@ -29241,8 +29242,8 @@
       <c r="G23" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I23" s="18" t="s">
-        <v>3313</v>
+      <c r="I23" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J23" s="18" t="s">
         <v>1600</v>
@@ -29270,8 +29271,8 @@
       <c r="G24" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I24" s="18" t="s">
-        <v>3313</v>
+      <c r="I24" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J24" s="18" t="s">
         <v>1600</v>
@@ -29299,8 +29300,8 @@
       <c r="G25" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I25" s="18" t="s">
-        <v>3313</v>
+      <c r="I25" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J25" s="18" t="s">
         <v>1600</v>
@@ -29328,8 +29329,8 @@
       <c r="G26" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I26" s="18" t="s">
-        <v>3313</v>
+      <c r="I26" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J26" s="18" t="s">
         <v>1600</v>
@@ -29357,8 +29358,8 @@
       <c r="G27" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I27" s="18" t="s">
-        <v>3313</v>
+      <c r="I27" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J27" s="18" t="s">
         <v>1600</v>
@@ -29386,8 +29387,8 @@
       <c r="G28" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I28" s="18" t="s">
-        <v>3313</v>
+      <c r="I28" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J28" s="18" t="s">
         <v>1600</v>
@@ -29415,8 +29416,8 @@
       <c r="G29" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I29" s="18" t="s">
-        <v>3313</v>
+      <c r="I29" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J29" s="18" t="s">
         <v>1600</v>
@@ -29444,8 +29445,8 @@
       <c r="G30" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I30" s="18" t="s">
-        <v>3313</v>
+      <c r="I30" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J30" s="18" t="s">
         <v>1600</v>
@@ -29473,8 +29474,8 @@
       <c r="G31" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I31" s="18" t="s">
-        <v>3313</v>
+      <c r="I31" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J31" s="18" t="s">
         <v>1600</v>
@@ -29502,8 +29503,8 @@
       <c r="G32" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I32" s="18" t="s">
-        <v>3313</v>
+      <c r="I32" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J32" s="18" t="s">
         <v>1600</v>
@@ -29531,8 +29532,8 @@
       <c r="G33" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I33" s="18" t="s">
-        <v>3313</v>
+      <c r="I33" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J33" s="18" t="s">
         <v>1600</v>
@@ -29560,8 +29561,8 @@
       <c r="G34" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I34" s="18" t="s">
-        <v>3313</v>
+      <c r="I34" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J34" s="18" t="s">
         <v>1600</v>
@@ -29589,8 +29590,8 @@
       <c r="G35" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I35" s="18" t="s">
-        <v>3313</v>
+      <c r="I35" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J35" s="18" t="s">
         <v>1600</v>
@@ -29618,8 +29619,8 @@
       <c r="G36" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I36" s="18" t="s">
-        <v>3313</v>
+      <c r="I36" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J36" s="18" t="s">
         <v>1600</v>
@@ -29647,8 +29648,8 @@
       <c r="G37" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I37" s="18" t="s">
-        <v>3313</v>
+      <c r="I37" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J37" s="18" t="s">
         <v>1600</v>
@@ -29676,8 +29677,8 @@
       <c r="G38" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I38" s="18" t="s">
-        <v>3313</v>
+      <c r="I38" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J38" s="18" t="s">
         <v>1600</v>
@@ -29705,8 +29706,8 @@
       <c r="G39" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I39" s="18" t="s">
-        <v>3313</v>
+      <c r="I39" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J39" s="18" t="s">
         <v>1600</v>
@@ -29734,8 +29735,8 @@
       <c r="G40" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I40" s="18" t="s">
-        <v>3313</v>
+      <c r="I40" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J40" s="18" t="s">
         <v>1600</v>
@@ -29763,8 +29764,8 @@
       <c r="G41" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I41" s="18" t="s">
-        <v>3313</v>
+      <c r="I41" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J41" s="18" t="s">
         <v>1600</v>
@@ -29792,8 +29793,8 @@
       <c r="G42" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I42" s="18" t="s">
-        <v>3313</v>
+      <c r="I42" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J42" s="18" t="s">
         <v>1600</v>
@@ -29821,8 +29822,8 @@
       <c r="G43" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I43" s="18" t="s">
-        <v>3313</v>
+      <c r="I43" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J43" s="18" t="s">
         <v>1600</v>
@@ -29850,8 +29851,8 @@
       <c r="G44" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I44" s="18" t="s">
-        <v>3313</v>
+      <c r="I44" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J44" s="18" t="s">
         <v>1600</v>
@@ -29879,8 +29880,8 @@
       <c r="G45" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I45" s="18" t="s">
-        <v>3313</v>
+      <c r="I45" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J45" s="18" t="s">
         <v>1600</v>
@@ -29908,8 +29909,8 @@
       <c r="G46" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I46" s="18" t="s">
-        <v>3313</v>
+      <c r="I46" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J46" s="18" t="s">
         <v>1600</v>
@@ -29937,8 +29938,8 @@
       <c r="G47" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I47" s="18" t="s">
-        <v>3313</v>
+      <c r="I47" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J47" s="18" t="s">
         <v>1600</v>
@@ -29995,8 +29996,8 @@
       <c r="G49" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I49" s="18" t="s">
-        <v>3313</v>
+      <c r="I49" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J49" s="18" t="s">
         <v>1600</v>
@@ -30024,8 +30025,8 @@
       <c r="G50" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I50" s="18" t="s">
-        <v>3313</v>
+      <c r="I50" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J50" s="18" t="s">
         <v>1600</v>
@@ -30053,8 +30054,8 @@
       <c r="G51" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I51" s="18" t="s">
-        <v>3313</v>
+      <c r="I51" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J51" s="18" t="s">
         <v>1600</v>
@@ -30082,8 +30083,8 @@
       <c r="G52" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I52" s="18" t="s">
-        <v>3313</v>
+      <c r="I52" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J52" s="18" t="s">
         <v>1600</v>
@@ -30111,8 +30112,8 @@
       <c r="G53" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I53" s="18" t="s">
-        <v>3313</v>
+      <c r="I53" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J53" s="18" t="s">
         <v>1600</v>
@@ -30140,8 +30141,8 @@
       <c r="G54" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I54" s="18" t="s">
-        <v>3313</v>
+      <c r="I54" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J54" s="18" t="s">
         <v>1600</v>
@@ -30169,8 +30170,8 @@
       <c r="G55" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I55" s="18" t="s">
-        <v>3313</v>
+      <c r="I55" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J55" s="18" t="s">
         <v>1600</v>
@@ -30198,8 +30199,8 @@
       <c r="G56" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I56" s="18" t="s">
-        <v>3313</v>
+      <c r="I56" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J56" s="18" t="s">
         <v>1600</v>
@@ -30227,8 +30228,8 @@
       <c r="G57" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I57" s="18" t="s">
-        <v>3313</v>
+      <c r="I57" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J57" s="18" t="s">
         <v>1600</v>
@@ -30285,8 +30286,8 @@
       <c r="G59" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I59" s="18" t="s">
-        <v>3313</v>
+      <c r="I59" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J59" s="18" t="s">
         <v>1600</v>
@@ -30314,8 +30315,8 @@
       <c r="G60" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I60" s="18" t="s">
-        <v>3313</v>
+      <c r="I60" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J60" s="18" t="s">
         <v>1600</v>
@@ -30372,8 +30373,8 @@
       <c r="G62" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I62" s="18" t="s">
-        <v>3313</v>
+      <c r="I62" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J62" s="18" t="s">
         <v>1600</v>
@@ -30401,8 +30402,8 @@
       <c r="G63" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I63" s="18" t="s">
-        <v>3313</v>
+      <c r="I63" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J63" s="18" t="s">
         <v>1600</v>
@@ -30430,8 +30431,8 @@
       <c r="G64" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I64" s="18" t="s">
-        <v>3313</v>
+      <c r="I64" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J64" s="18" t="s">
         <v>1600</v>
@@ -30459,8 +30460,8 @@
       <c r="G65" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I65" s="18" t="s">
-        <v>3313</v>
+      <c r="I65" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J65" s="18" t="s">
         <v>1600</v>
@@ -30488,8 +30489,8 @@
       <c r="G66" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I66" s="18" t="s">
-        <v>3313</v>
+      <c r="I66" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J66" s="18" t="s">
         <v>1600</v>
@@ -30517,8 +30518,8 @@
       <c r="G67" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I67" s="18" t="s">
-        <v>3313</v>
+      <c r="I67" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J67" s="18" t="s">
         <v>1600</v>
@@ -30546,8 +30547,8 @@
       <c r="G68" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I68" s="18" t="s">
-        <v>3313</v>
+      <c r="I68" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J68" s="18" t="s">
         <v>1600</v>
@@ -30575,8 +30576,8 @@
       <c r="G69" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I69" s="18" t="s">
-        <v>3313</v>
+      <c r="I69" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J69" s="18" t="s">
         <v>1600</v>
@@ -30604,8 +30605,8 @@
       <c r="G70" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I70" s="18" t="s">
-        <v>3313</v>
+      <c r="I70" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J70" s="18" t="s">
         <v>1600</v>
@@ -30633,8 +30634,8 @@
       <c r="G71" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I71" s="18" t="s">
-        <v>3313</v>
+      <c r="I71" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J71" s="18" t="s">
         <v>1600</v>
@@ -30662,8 +30663,8 @@
       <c r="G72" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I72" s="18" t="s">
-        <v>3313</v>
+      <c r="I72" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J72" s="18" t="s">
         <v>1600</v>
@@ -30691,8 +30692,8 @@
       <c r="G73" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I73" s="18" t="s">
-        <v>3313</v>
+      <c r="I73" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J73" s="18" t="s">
         <v>1600</v>
@@ -30720,8 +30721,8 @@
       <c r="G74" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I74" s="18" t="s">
-        <v>3313</v>
+      <c r="I74" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J74" s="18" t="s">
         <v>1600</v>
@@ -30749,8 +30750,8 @@
       <c r="G75" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I75" s="18" t="s">
-        <v>3313</v>
+      <c r="I75" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J75" s="18" t="s">
         <v>1600</v>
@@ -30778,8 +30779,8 @@
       <c r="G76" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I76" s="18" t="s">
-        <v>3313</v>
+      <c r="I76" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J76" s="18" t="s">
         <v>1600</v>
@@ -30807,8 +30808,8 @@
       <c r="G77" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I77" s="18" t="s">
-        <v>3313</v>
+      <c r="I77" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J77" s="18" t="s">
         <v>1600</v>
@@ -30836,8 +30837,8 @@
       <c r="G78" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I78" s="18" t="s">
-        <v>3313</v>
+      <c r="I78" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J78" s="18" t="s">
         <v>1600</v>
@@ -30865,8 +30866,8 @@
       <c r="G79" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I79" s="18" t="s">
-        <v>3313</v>
+      <c r="I79" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J79" s="18" t="s">
         <v>1600</v>
@@ -30894,8 +30895,8 @@
       <c r="G80" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I80" s="18" t="s">
-        <v>3313</v>
+      <c r="I80" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J80" s="18" t="s">
         <v>1600</v>
@@ -30923,8 +30924,8 @@
       <c r="G81" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I81" s="18" t="s">
-        <v>3313</v>
+      <c r="I81" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J81" s="18" t="s">
         <v>1600</v>
@@ -30952,8 +30953,8 @@
       <c r="G82" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I82" s="18" t="s">
-        <v>3313</v>
+      <c r="I82" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J82" s="18" t="s">
         <v>1600</v>
@@ -30981,8 +30982,8 @@
       <c r="G83" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I83" s="18" t="s">
-        <v>3313</v>
+      <c r="I83" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J83" s="18" t="s">
         <v>1600</v>
@@ -31010,8 +31011,8 @@
       <c r="G84" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I84" s="18" t="s">
-        <v>3313</v>
+      <c r="I84" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J84" s="18" t="s">
         <v>1600</v>
@@ -31039,8 +31040,8 @@
       <c r="G85" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I85" s="18" t="s">
-        <v>3313</v>
+      <c r="I85" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J85" s="18" t="s">
         <v>1600</v>
@@ -31068,8 +31069,8 @@
       <c r="G86" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I86" s="18" t="s">
-        <v>3313</v>
+      <c r="I86" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J86" s="18" t="s">
         <v>1600</v>
@@ -31097,8 +31098,8 @@
       <c r="G87" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I87" s="18" t="s">
-        <v>3313</v>
+      <c r="I87" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J87" s="18" t="s">
         <v>1600</v>
@@ -31126,8 +31127,8 @@
       <c r="G88" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I88" s="18" t="s">
-        <v>3313</v>
+      <c r="I88" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J88" s="18" t="s">
         <v>1600</v>
@@ -31155,8 +31156,8 @@
       <c r="G89" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I89" s="18" t="s">
-        <v>3313</v>
+      <c r="I89" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J89" s="18" t="s">
         <v>1600</v>
@@ -31184,8 +31185,8 @@
       <c r="G90" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I90" s="18" t="s">
-        <v>3313</v>
+      <c r="I90" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J90" s="18" t="s">
         <v>1600</v>
@@ -31242,8 +31243,8 @@
       <c r="G92" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I92" s="18" t="s">
-        <v>3313</v>
+      <c r="I92" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J92" s="18" t="s">
         <v>1600</v>
@@ -31271,8 +31272,8 @@
       <c r="G93" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I93" s="18" t="s">
-        <v>3313</v>
+      <c r="I93" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J93" s="18" t="s">
         <v>1600</v>
@@ -31300,8 +31301,8 @@
       <c r="G94" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I94" s="18" t="s">
-        <v>3313</v>
+      <c r="I94" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J94" s="18" t="s">
         <v>1600</v>
@@ -31358,8 +31359,8 @@
       <c r="G96" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I96" s="18" t="s">
-        <v>3313</v>
+      <c r="I96" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J96" s="18" t="s">
         <v>1600</v>
@@ -31387,8 +31388,8 @@
       <c r="G97" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I97" s="18" t="s">
-        <v>3313</v>
+      <c r="I97" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J97" s="18" t="s">
         <v>1600</v>
@@ -31416,8 +31417,8 @@
       <c r="G98" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I98" s="18" t="s">
-        <v>3313</v>
+      <c r="I98" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J98" s="18" t="s">
         <v>1600</v>
@@ -31445,8 +31446,8 @@
       <c r="G99" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I99" s="18" t="s">
-        <v>3313</v>
+      <c r="I99" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J99" s="18" t="s">
         <v>1600</v>
@@ -31474,8 +31475,8 @@
       <c r="G100" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I100" s="18" t="s">
-        <v>3313</v>
+      <c r="I100" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J100" s="18" t="s">
         <v>1600</v>
@@ -31503,8 +31504,8 @@
       <c r="G101" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I101" s="18" t="s">
-        <v>3313</v>
+      <c r="I101" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J101" s="18" t="s">
         <v>1600</v>
@@ -31532,8 +31533,8 @@
       <c r="G102" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I102" s="18" t="s">
-        <v>3313</v>
+      <c r="I102" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J102" s="18" t="s">
         <v>1600</v>
@@ -31561,8 +31562,8 @@
       <c r="G103" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I103" s="18" t="s">
-        <v>3313</v>
+      <c r="I103" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J103" s="18" t="s">
         <v>1600</v>
@@ -31590,8 +31591,8 @@
       <c r="G104" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I104" s="18" t="s">
-        <v>3313</v>
+      <c r="I104" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J104" s="18" t="s">
         <v>1600</v>
@@ -31648,8 +31649,8 @@
       <c r="G106" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I106" s="18" t="s">
-        <v>3313</v>
+      <c r="I106" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J106" s="18" t="s">
         <v>1600</v>
@@ -31677,8 +31678,8 @@
       <c r="G107" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I107" s="18" t="s">
-        <v>3313</v>
+      <c r="I107" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J107" s="18" t="s">
         <v>1600</v>
@@ -31706,8 +31707,8 @@
       <c r="G108" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I108" s="18" t="s">
-        <v>3313</v>
+      <c r="I108" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J108" s="18" t="s">
         <v>1600</v>
@@ -31735,8 +31736,8 @@
       <c r="G109" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I109" s="18" t="s">
-        <v>3313</v>
+      <c r="I109" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J109" s="18" t="s">
         <v>1600</v>
@@ -31764,8 +31765,8 @@
       <c r="G110" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I110" s="18" t="s">
-        <v>3313</v>
+      <c r="I110" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J110" s="18" t="s">
         <v>1600</v>
@@ -31793,8 +31794,8 @@
       <c r="G111" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I111" s="18" t="s">
-        <v>3313</v>
+      <c r="I111" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J111" s="18" t="s">
         <v>1600</v>
@@ -31822,8 +31823,8 @@
       <c r="G112" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I112" s="18" t="s">
-        <v>3313</v>
+      <c r="I112" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J112" s="18" t="s">
         <v>1600</v>
@@ -31851,8 +31852,8 @@
       <c r="G113" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I113" s="18" t="s">
-        <v>3313</v>
+      <c r="I113" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J113" s="18" t="s">
         <v>1600</v>
@@ -31880,8 +31881,8 @@
       <c r="G114" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I114" s="18" t="s">
-        <v>3313</v>
+      <c r="I114" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J114" s="18" t="s">
         <v>1600</v>
@@ -31909,8 +31910,8 @@
       <c r="G115" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I115" s="18" t="s">
-        <v>3313</v>
+      <c r="I115" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J115" s="18" t="s">
         <v>1600</v>
@@ -31967,8 +31968,8 @@
       <c r="G117" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I117" s="18" t="s">
-        <v>3313</v>
+      <c r="I117" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J117" s="18" t="s">
         <v>1600</v>
@@ -31996,8 +31997,8 @@
       <c r="G118" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I118" s="18" t="s">
-        <v>3313</v>
+      <c r="I118" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J118" s="18" t="s">
         <v>1600</v>
@@ -32025,8 +32026,8 @@
       <c r="G119" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I119" s="18" t="s">
-        <v>3313</v>
+      <c r="I119" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J119" s="18" t="s">
         <v>1600</v>
@@ -32054,8 +32055,8 @@
       <c r="G120" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I120" s="18" t="s">
-        <v>3313</v>
+      <c r="I120" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J120" s="18" t="s">
         <v>1600</v>
@@ -32083,8 +32084,8 @@
       <c r="G121" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I121" s="18" t="s">
-        <v>3313</v>
+      <c r="I121" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J121" s="18" t="s">
         <v>1600</v>
@@ -32112,8 +32113,8 @@
       <c r="G122" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I122" s="18" t="s">
-        <v>3313</v>
+      <c r="I122" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J122" s="18" t="s">
         <v>1600</v>
@@ -32141,8 +32142,8 @@
       <c r="G123" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I123" s="18" t="s">
-        <v>3313</v>
+      <c r="I123" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J123" s="18" t="s">
         <v>1600</v>
@@ -32170,8 +32171,8 @@
       <c r="G124" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I124" s="18" t="s">
-        <v>3313</v>
+      <c r="I124" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J124" s="18" t="s">
         <v>1600</v>
@@ -32199,8 +32200,8 @@
       <c r="G125" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I125" s="18" t="s">
-        <v>3313</v>
+      <c r="I125" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J125" s="18" t="s">
         <v>1600</v>
@@ -32228,8 +32229,8 @@
       <c r="G126" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I126" s="18" t="s">
-        <v>3313</v>
+      <c r="I126" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J126" s="18" t="s">
         <v>1600</v>
@@ -32257,8 +32258,8 @@
       <c r="G127" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I127" s="18" t="s">
-        <v>3313</v>
+      <c r="I127" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J127" s="18" t="s">
         <v>1600</v>
@@ -32286,8 +32287,8 @@
       <c r="G128" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I128" s="18" t="s">
-        <v>3313</v>
+      <c r="I128" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J128" s="18" t="s">
         <v>1600</v>
@@ -32315,8 +32316,8 @@
       <c r="G129" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I129" s="18" t="s">
-        <v>3313</v>
+      <c r="I129" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J129" s="18" t="s">
         <v>1600</v>
@@ -32344,8 +32345,8 @@
       <c r="G130" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I130" s="18" t="s">
-        <v>3313</v>
+      <c r="I130" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J130" s="18" t="s">
         <v>1600</v>
@@ -32373,8 +32374,8 @@
       <c r="G131" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I131" s="18" t="s">
-        <v>3313</v>
+      <c r="I131" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J131" s="18" t="s">
         <v>1600</v>
@@ -32431,8 +32432,8 @@
       <c r="G133" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I133" s="18" t="s">
-        <v>3313</v>
+      <c r="I133" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J133" s="18" t="s">
         <v>1600</v>
@@ -32460,8 +32461,8 @@
       <c r="G134" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I134" s="18" t="s">
-        <v>3313</v>
+      <c r="I134" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J134" s="18" t="s">
         <v>1600</v>
@@ -32489,8 +32490,8 @@
       <c r="G135" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I135" s="18" t="s">
-        <v>3313</v>
+      <c r="I135" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J135" s="18" t="s">
         <v>1600</v>
@@ -32518,8 +32519,8 @@
       <c r="G136" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I136" s="18" t="s">
-        <v>3313</v>
+      <c r="I136" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J136" s="18" t="s">
         <v>1600</v>
@@ -32576,8 +32577,8 @@
       <c r="G138" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I138" s="18" t="s">
-        <v>3313</v>
+      <c r="I138" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J138" s="18" t="s">
         <v>1600</v>
@@ -32605,8 +32606,8 @@
       <c r="G139" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I139" s="18" t="s">
-        <v>3313</v>
+      <c r="I139" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J139" s="18" t="s">
         <v>1600</v>
@@ -32634,8 +32635,8 @@
       <c r="G140" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I140" s="18" t="s">
-        <v>3313</v>
+      <c r="I140" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J140" s="18" t="s">
         <v>1600</v>
@@ -32663,8 +32664,8 @@
       <c r="G141" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I141" s="18" t="s">
-        <v>3313</v>
+      <c r="I141" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J141" s="18" t="s">
         <v>1600</v>
@@ -32692,8 +32693,8 @@
       <c r="G142" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I142" s="18" t="s">
-        <v>3313</v>
+      <c r="I142" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J142" s="18" t="s">
         <v>1600</v>
@@ -32721,8 +32722,8 @@
       <c r="G143" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I143" s="18" t="s">
-        <v>3313</v>
+      <c r="I143" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J143" s="18" t="s">
         <v>1600</v>
@@ -32750,8 +32751,8 @@
       <c r="G144" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I144" s="18" t="s">
-        <v>3313</v>
+      <c r="I144" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J144" s="18" t="s">
         <v>1600</v>
@@ -32779,8 +32780,8 @@
       <c r="G145" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I145" s="18" t="s">
-        <v>3313</v>
+      <c r="I145" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J145" s="18" t="s">
         <v>1600</v>
@@ -32808,8 +32809,8 @@
       <c r="G146" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I146" s="18" t="s">
-        <v>3313</v>
+      <c r="I146" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J146" s="18" t="s">
         <v>1600</v>
@@ -32837,8 +32838,8 @@
       <c r="G147" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I147" s="18" t="s">
-        <v>3313</v>
+      <c r="I147" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J147" s="18" t="s">
         <v>1600</v>
@@ -32895,8 +32896,8 @@
       <c r="G149" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I149" s="18" t="s">
-        <v>3313</v>
+      <c r="I149" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J149" s="18" t="s">
         <v>1600</v>
@@ -32924,8 +32925,8 @@
       <c r="G150" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I150" s="18" t="s">
-        <v>3313</v>
+      <c r="I150" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J150" s="18" t="s">
         <v>1600</v>
@@ -32953,8 +32954,8 @@
       <c r="G151" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I151" s="18" t="s">
-        <v>3313</v>
+      <c r="I151" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J151" s="18" t="s">
         <v>1600</v>
@@ -32982,8 +32983,8 @@
       <c r="G152" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I152" s="18" t="s">
-        <v>3313</v>
+      <c r="I152" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J152" s="18" t="s">
         <v>1600</v>
@@ -33011,8 +33012,8 @@
       <c r="G153" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I153" s="18" t="s">
-        <v>3313</v>
+      <c r="I153" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J153" s="18" t="s">
         <v>1600</v>
@@ -33040,8 +33041,8 @@
       <c r="G154" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I154" s="18" t="s">
-        <v>3313</v>
+      <c r="I154" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J154" s="18" t="s">
         <v>1600</v>
@@ -33069,8 +33070,8 @@
       <c r="G155" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I155" s="18" t="s">
-        <v>3313</v>
+      <c r="I155" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J155" s="18" t="s">
         <v>1600</v>
@@ -33098,8 +33099,8 @@
       <c r="G156" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I156" s="18" t="s">
-        <v>3313</v>
+      <c r="I156" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J156" s="18" t="s">
         <v>1600</v>
@@ -33127,8 +33128,8 @@
       <c r="G157" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I157" s="18" t="s">
-        <v>3313</v>
+      <c r="I157" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J157" s="18" t="s">
         <v>1600</v>
@@ -33156,8 +33157,8 @@
       <c r="G158" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I158" s="18" t="s">
-        <v>3313</v>
+      <c r="I158" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J158" s="18" t="s">
         <v>1600</v>
@@ -33185,8 +33186,8 @@
       <c r="G159" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I159" s="18" t="s">
-        <v>3313</v>
+      <c r="I159" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J159" s="18" t="s">
         <v>1600</v>
@@ -33214,8 +33215,8 @@
       <c r="G160" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I160" s="18" t="s">
-        <v>3313</v>
+      <c r="I160" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J160" s="18" t="s">
         <v>1600</v>
@@ -33243,8 +33244,8 @@
       <c r="G161" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I161" s="18" t="s">
-        <v>3313</v>
+      <c r="I161" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J161" s="18" t="s">
         <v>1600</v>
@@ -33272,8 +33273,8 @@
       <c r="G162" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I162" s="18" t="s">
-        <v>3313</v>
+      <c r="I162" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J162" s="18" t="s">
         <v>1600</v>
@@ -33301,8 +33302,8 @@
       <c r="G163" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I163" s="18" t="s">
-        <v>3313</v>
+      <c r="I163" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J163" s="18" t="s">
         <v>1600</v>
@@ -33330,8 +33331,8 @@
       <c r="G164" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I164" s="18" t="s">
-        <v>3313</v>
+      <c r="I164" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J164" s="18" t="s">
         <v>1600</v>
@@ -33359,8 +33360,8 @@
       <c r="G165" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I165" s="18" t="s">
-        <v>3313</v>
+      <c r="I165" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J165" s="18" t="s">
         <v>1600</v>
@@ -33388,8 +33389,8 @@
       <c r="G166" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I166" s="18" t="s">
-        <v>3313</v>
+      <c r="I166" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J166" s="18" t="s">
         <v>1600</v>
@@ -33417,8 +33418,8 @@
       <c r="G167" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I167" s="18" t="s">
-        <v>3313</v>
+      <c r="I167" s="55" t="s">
+        <v>3316</v>
       </c>
       <c r="J167" s="18" t="s">
         <v>1600</v>
@@ -33476,7 +33477,7 @@
         <v>3310</v>
       </c>
       <c r="I169" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J169" s="18" t="s">
         <v>1600</v>
@@ -33505,7 +33506,7 @@
         <v>3310</v>
       </c>
       <c r="I170" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J170" s="18" t="s">
         <v>1600</v>
@@ -33534,7 +33535,7 @@
         <v>3310</v>
       </c>
       <c r="I171" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J171" s="18" t="s">
         <v>1600</v>
@@ -33563,7 +33564,7 @@
         <v>3310</v>
       </c>
       <c r="I172" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J172" s="18" t="s">
         <v>1600</v>
@@ -33592,7 +33593,7 @@
         <v>3310</v>
       </c>
       <c r="I173" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J173" s="18" t="s">
         <v>1600</v>
@@ -33621,7 +33622,7 @@
         <v>3310</v>
       </c>
       <c r="I174" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J174" s="18" t="s">
         <v>1600</v>
@@ -33679,7 +33680,7 @@
         <v>3310</v>
       </c>
       <c r="I176" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J176" s="18" t="s">
         <v>1600</v>
@@ -33708,7 +33709,7 @@
         <v>3310</v>
       </c>
       <c r="I177" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J177" s="18" t="s">
         <v>1600</v>
@@ -33737,7 +33738,7 @@
         <v>3310</v>
       </c>
       <c r="I178" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J178" s="18" t="s">
         <v>1600</v>
@@ -33766,7 +33767,7 @@
         <v>3310</v>
       </c>
       <c r="I179" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J179" s="18" t="s">
         <v>1600</v>
@@ -33795,7 +33796,7 @@
         <v>3310</v>
       </c>
       <c r="I180" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J180" s="18" t="s">
         <v>1600</v>
@@ -33824,7 +33825,7 @@
         <v>3310</v>
       </c>
       <c r="I181" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J181" s="18" t="s">
         <v>1600</v>
@@ -33853,7 +33854,7 @@
         <v>3310</v>
       </c>
       <c r="I182" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J182" s="18" t="s">
         <v>1600</v>
@@ -33882,7 +33883,7 @@
         <v>3310</v>
       </c>
       <c r="I183" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J183" s="18" t="s">
         <v>1600</v>
@@ -33911,7 +33912,7 @@
         <v>3310</v>
       </c>
       <c r="I184" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J184" s="18" t="s">
         <v>1600</v>
@@ -33940,7 +33941,7 @@
         <v>3310</v>
       </c>
       <c r="I185" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J185" s="18" t="s">
         <v>1600</v>
@@ -33969,7 +33970,7 @@
         <v>3310</v>
       </c>
       <c r="I186" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J186" s="18" t="s">
         <v>1600</v>
@@ -33998,7 +33999,7 @@
         <v>3310</v>
       </c>
       <c r="I187" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J187" s="18" t="s">
         <v>1600</v>
@@ -34027,7 +34028,7 @@
         <v>3310</v>
       </c>
       <c r="I188" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J188" s="18" t="s">
         <v>1600</v>
@@ -34056,7 +34057,7 @@
         <v>3310</v>
       </c>
       <c r="I189" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J189" s="18" t="s">
         <v>1600</v>
@@ -34085,7 +34086,7 @@
         <v>3310</v>
       </c>
       <c r="I190" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J190" s="18" t="s">
         <v>1600</v>
@@ -34114,7 +34115,7 @@
         <v>3310</v>
       </c>
       <c r="I191" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J191" s="18" t="s">
         <v>1600</v>
@@ -34143,7 +34144,7 @@
         <v>3310</v>
       </c>
       <c r="I192" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J192" s="18" t="s">
         <v>1600</v>
@@ -34172,7 +34173,7 @@
         <v>3310</v>
       </c>
       <c r="I193" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J193" s="18" t="s">
         <v>1600</v>
@@ -34201,7 +34202,7 @@
         <v>3310</v>
       </c>
       <c r="I194" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J194" s="18" t="s">
         <v>1600</v>
@@ -34230,7 +34231,7 @@
         <v>3310</v>
       </c>
       <c r="I195" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J195" s="18" t="s">
         <v>1600</v>
@@ -34259,7 +34260,7 @@
         <v>3310</v>
       </c>
       <c r="I196" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J196" s="18" t="s">
         <v>1600</v>
@@ -34317,7 +34318,7 @@
         <v>3310</v>
       </c>
       <c r="I198" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J198" s="18" t="s">
         <v>1600</v>
@@ -34346,7 +34347,7 @@
         <v>3310</v>
       </c>
       <c r="I199" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J199" s="18" t="s">
         <v>1600</v>
@@ -34375,7 +34376,7 @@
         <v>3310</v>
       </c>
       <c r="I200" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J200" s="18" t="s">
         <v>1600</v>
@@ -34404,7 +34405,7 @@
         <v>3310</v>
       </c>
       <c r="I201" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J201" s="18" t="s">
         <v>1600</v>
@@ -34462,7 +34463,7 @@
         <v>3310</v>
       </c>
       <c r="I203" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J203" s="18" t="s">
         <v>1600</v>
@@ -34491,7 +34492,7 @@
         <v>3310</v>
       </c>
       <c r="I204" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J204" s="18" t="s">
         <v>1600</v>
@@ -34549,7 +34550,7 @@
         <v>3310</v>
       </c>
       <c r="I206" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J206" s="18" t="s">
         <v>1600</v>
@@ -34578,7 +34579,7 @@
         <v>3310</v>
       </c>
       <c r="I207" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J207" s="18" t="s">
         <v>1600</v>
@@ -34607,7 +34608,7 @@
         <v>3310</v>
       </c>
       <c r="I208" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J208" s="18" t="s">
         <v>1600</v>
@@ -34636,7 +34637,7 @@
         <v>3310</v>
       </c>
       <c r="I209" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J209" s="18" t="s">
         <v>1600</v>
@@ -34665,7 +34666,7 @@
         <v>3310</v>
       </c>
       <c r="I210" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J210" s="18" t="s">
         <v>1600</v>
@@ -34694,7 +34695,7 @@
         <v>3310</v>
       </c>
       <c r="I211" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J211" s="18" t="s">
         <v>1600</v>
@@ -34723,7 +34724,7 @@
         <v>3310</v>
       </c>
       <c r="I212" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J212" s="18" t="s">
         <v>1600</v>
@@ -34752,7 +34753,7 @@
         <v>3310</v>
       </c>
       <c r="I213" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J213" s="18" t="s">
         <v>1600</v>
@@ -34781,7 +34782,7 @@
         <v>3310</v>
       </c>
       <c r="I214" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J214" s="18" t="s">
         <v>1600</v>
@@ -34810,7 +34811,7 @@
         <v>3310</v>
       </c>
       <c r="I215" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J215" s="18" t="s">
         <v>1600</v>
@@ -34839,7 +34840,7 @@
         <v>3310</v>
       </c>
       <c r="I216" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J216" s="18" t="s">
         <v>1600</v>
@@ -34868,7 +34869,7 @@
         <v>3310</v>
       </c>
       <c r="I217" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J217" s="18" t="s">
         <v>1600</v>
@@ -34897,7 +34898,7 @@
         <v>3310</v>
       </c>
       <c r="I218" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J218" s="18" t="s">
         <v>1600</v>
@@ -34926,7 +34927,7 @@
         <v>3310</v>
       </c>
       <c r="I219" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J219" s="18" t="s">
         <v>1600</v>
@@ -34955,7 +34956,7 @@
         <v>3310</v>
       </c>
       <c r="I220" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J220" s="18" t="s">
         <v>1600</v>
@@ -34984,7 +34985,7 @@
         <v>3310</v>
       </c>
       <c r="I221" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J221" s="18" t="s">
         <v>1600</v>
@@ -35013,7 +35014,7 @@
         <v>3310</v>
       </c>
       <c r="I222" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J222" s="18" t="s">
         <v>1600</v>
@@ -35042,7 +35043,7 @@
         <v>3310</v>
       </c>
       <c r="I223" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J223" s="18" t="s">
         <v>1600</v>
@@ -35100,7 +35101,7 @@
         <v>3310</v>
       </c>
       <c r="I225" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J225" s="18" t="s">
         <v>1600</v>
@@ -35129,7 +35130,7 @@
         <v>3310</v>
       </c>
       <c r="I226" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J226" s="18" t="s">
         <v>1600</v>
@@ -35158,7 +35159,7 @@
         <v>3310</v>
       </c>
       <c r="I227" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J227" s="18" t="s">
         <v>1600</v>
@@ -35187,7 +35188,7 @@
         <v>3310</v>
       </c>
       <c r="I228" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J228" s="18" t="s">
         <v>1600</v>
@@ -35216,7 +35217,7 @@
         <v>3310</v>
       </c>
       <c r="I229" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J229" s="18" t="s">
         <v>1600</v>
@@ -35245,7 +35246,7 @@
         <v>3310</v>
       </c>
       <c r="I230" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J230" s="18" t="s">
         <v>1600</v>
@@ -35274,7 +35275,7 @@
         <v>3310</v>
       </c>
       <c r="I231" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J231" s="18" t="s">
         <v>1600</v>
@@ -35303,7 +35304,7 @@
         <v>3310</v>
       </c>
       <c r="I232" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J232" s="18" t="s">
         <v>1600</v>
@@ -35332,7 +35333,7 @@
         <v>3310</v>
       </c>
       <c r="I233" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J233" s="18" t="s">
         <v>1600</v>
@@ -35361,7 +35362,7 @@
         <v>3310</v>
       </c>
       <c r="I234" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J234" s="18" t="s">
         <v>1600</v>
@@ -35390,7 +35391,7 @@
         <v>3310</v>
       </c>
       <c r="I235" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J235" s="18" t="s">
         <v>1600</v>
@@ -35419,7 +35420,7 @@
         <v>3310</v>
       </c>
       <c r="I236" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J236" s="18" t="s">
         <v>1600</v>
@@ -35448,7 +35449,7 @@
         <v>3310</v>
       </c>
       <c r="I237" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J237" s="18" t="s">
         <v>1600</v>
@@ -35477,7 +35478,7 @@
         <v>3310</v>
       </c>
       <c r="I238" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J238" s="18" t="s">
         <v>1600</v>
@@ -35506,7 +35507,7 @@
         <v>3310</v>
       </c>
       <c r="I239" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J239" s="18" t="s">
         <v>1600</v>
@@ -35535,7 +35536,7 @@
         <v>3310</v>
       </c>
       <c r="I240" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J240" s="18" t="s">
         <v>1600</v>
@@ -35564,7 +35565,7 @@
         <v>3310</v>
       </c>
       <c r="I241" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J241" s="18" t="s">
         <v>1600</v>
@@ -35593,7 +35594,7 @@
         <v>3310</v>
       </c>
       <c r="I242" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J242" s="18" t="s">
         <v>1600</v>
@@ -35622,7 +35623,7 @@
         <v>3310</v>
       </c>
       <c r="I243" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J243" s="18" t="s">
         <v>1600</v>
@@ -35651,7 +35652,7 @@
         <v>3310</v>
       </c>
       <c r="I244" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J244" s="18" t="s">
         <v>1600</v>
@@ -35680,7 +35681,7 @@
         <v>3310</v>
       </c>
       <c r="I245" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J245" s="18" t="s">
         <v>1600</v>
@@ -35709,7 +35710,7 @@
         <v>3310</v>
       </c>
       <c r="I246" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J246" s="18" t="s">
         <v>1600</v>
@@ -35738,7 +35739,7 @@
         <v>3310</v>
       </c>
       <c r="I247" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J247" s="18" t="s">
         <v>1600</v>
@@ -35767,7 +35768,7 @@
         <v>3310</v>
       </c>
       <c r="I248" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J248" s="18" t="s">
         <v>1600</v>
@@ -35796,7 +35797,7 @@
         <v>3310</v>
       </c>
       <c r="I249" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J249" s="18" t="s">
         <v>1600</v>
@@ -35854,7 +35855,7 @@
         <v>3310</v>
       </c>
       <c r="I251" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J251" s="18" t="s">
         <v>1600</v>
@@ -35883,7 +35884,7 @@
         <v>3310</v>
       </c>
       <c r="I252" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J252" s="18" t="s">
         <v>1600</v>
@@ -35912,7 +35913,7 @@
         <v>3310</v>
       </c>
       <c r="I253" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J253" s="18" t="s">
         <v>1600</v>
@@ -35941,7 +35942,7 @@
         <v>3310</v>
       </c>
       <c r="I254" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J254" s="18" t="s">
         <v>1600</v>
@@ -35970,7 +35971,7 @@
         <v>3310</v>
       </c>
       <c r="I255" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J255" s="18" t="s">
         <v>1600</v>
@@ -35999,7 +36000,7 @@
         <v>3310</v>
       </c>
       <c r="I256" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J256" s="18" t="s">
         <v>1600</v>
@@ -36028,7 +36029,7 @@
         <v>3310</v>
       </c>
       <c r="I257" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J257" s="18" t="s">
         <v>1600</v>
@@ -36057,7 +36058,7 @@
         <v>3310</v>
       </c>
       <c r="I258" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J258" s="18" t="s">
         <v>1600</v>
@@ -36086,7 +36087,7 @@
         <v>3310</v>
       </c>
       <c r="I259" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J259" s="18" t="s">
         <v>1600</v>
@@ -36115,7 +36116,7 @@
         <v>3310</v>
       </c>
       <c r="I260" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J260" s="18" t="s">
         <v>1600</v>
@@ -36144,7 +36145,7 @@
         <v>3310</v>
       </c>
       <c r="I261" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J261" s="18" t="s">
         <v>1600</v>
@@ -36173,7 +36174,7 @@
         <v>3310</v>
       </c>
       <c r="I262" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J262" s="18" t="s">
         <v>1600</v>
@@ -36202,7 +36203,7 @@
         <v>3310</v>
       </c>
       <c r="I263" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J263" s="18" t="s">
         <v>1600</v>
@@ -36231,7 +36232,7 @@
         <v>3310</v>
       </c>
       <c r="I264" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J264" s="18" t="s">
         <v>1600</v>
@@ -36260,7 +36261,7 @@
         <v>3310</v>
       </c>
       <c r="I265" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J265" s="18" t="s">
         <v>1600</v>
@@ -36289,7 +36290,7 @@
         <v>3310</v>
       </c>
       <c r="I266" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J266" s="18" t="s">
         <v>1600</v>
@@ -36318,7 +36319,7 @@
         <v>3310</v>
       </c>
       <c r="I267" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J267" s="18" t="s">
         <v>1600</v>
@@ -36347,7 +36348,7 @@
         <v>3310</v>
       </c>
       <c r="I268" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J268" s="18" t="s">
         <v>1600</v>
@@ -36376,7 +36377,7 @@
         <v>3310</v>
       </c>
       <c r="I269" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J269" s="18" t="s">
         <v>1600</v>
@@ -36405,7 +36406,7 @@
         <v>3310</v>
       </c>
       <c r="I270" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J270" s="18" t="s">
         <v>1600</v>
@@ -36434,7 +36435,7 @@
         <v>3310</v>
       </c>
       <c r="I271" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J271" s="18" t="s">
         <v>1600</v>
@@ -36463,7 +36464,7 @@
         <v>3310</v>
       </c>
       <c r="I272" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J272" s="18" t="s">
         <v>1600</v>
@@ -36492,7 +36493,7 @@
         <v>3310</v>
       </c>
       <c r="I273" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J273" s="18" t="s">
         <v>1600</v>
@@ -36521,7 +36522,7 @@
         <v>3310</v>
       </c>
       <c r="I274" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J274" s="18" t="s">
         <v>1600</v>
@@ -36550,7 +36551,7 @@
         <v>3310</v>
       </c>
       <c r="I275" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J275" s="18" t="s">
         <v>1600</v>
@@ -36579,7 +36580,7 @@
         <v>3310</v>
       </c>
       <c r="I276" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J276" s="18" t="s">
         <v>1600</v>
@@ -36637,7 +36638,7 @@
         <v>3310</v>
       </c>
       <c r="I278" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J278" s="18" t="s">
         <v>1600</v>
@@ -36666,7 +36667,7 @@
         <v>3310</v>
       </c>
       <c r="I279" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J279" s="18" t="s">
         <v>1600</v>
@@ -36695,7 +36696,7 @@
         <v>3310</v>
       </c>
       <c r="I280" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J280" s="18" t="s">
         <v>1600</v>
@@ -36724,7 +36725,7 @@
         <v>3310</v>
       </c>
       <c r="I281" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J281" s="18" t="s">
         <v>1600</v>
@@ -36753,7 +36754,7 @@
         <v>3310</v>
       </c>
       <c r="I282" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J282" s="18" t="s">
         <v>1600</v>
@@ -36782,7 +36783,7 @@
         <v>3310</v>
       </c>
       <c r="I283" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J283" s="18" t="s">
         <v>1600</v>
@@ -36811,7 +36812,7 @@
         <v>3310</v>
       </c>
       <c r="I284" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J284" s="18" t="s">
         <v>1600</v>
@@ -36840,7 +36841,7 @@
         <v>3310</v>
       </c>
       <c r="I285" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J285" s="18" t="s">
         <v>1600</v>
@@ -36869,7 +36870,7 @@
         <v>3310</v>
       </c>
       <c r="I286" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J286" s="18" t="s">
         <v>1600</v>
@@ -36898,7 +36899,7 @@
         <v>3310</v>
       </c>
       <c r="I287" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J287" s="18" t="s">
         <v>1600</v>
@@ -36927,7 +36928,7 @@
         <v>3310</v>
       </c>
       <c r="I288" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J288" s="18" t="s">
         <v>1600</v>
@@ -36956,7 +36957,7 @@
         <v>3310</v>
       </c>
       <c r="I289" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J289" s="18" t="s">
         <v>1600</v>
@@ -36985,7 +36986,7 @@
         <v>3310</v>
       </c>
       <c r="I290" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J290" s="18" t="s">
         <v>1600</v>
@@ -37014,7 +37015,7 @@
         <v>3310</v>
       </c>
       <c r="I291" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J291" s="18" t="s">
         <v>1600</v>
@@ -37043,7 +37044,7 @@
         <v>3310</v>
       </c>
       <c r="I292" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J292" s="18" t="s">
         <v>1600</v>
@@ -37072,7 +37073,7 @@
         <v>3310</v>
       </c>
       <c r="I293" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J293" s="18" t="s">
         <v>1600</v>
@@ -37101,7 +37102,7 @@
         <v>3310</v>
       </c>
       <c r="I294" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J294" s="18" t="s">
         <v>1600</v>
@@ -37130,7 +37131,7 @@
         <v>3310</v>
       </c>
       <c r="I295" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J295" s="18" t="s">
         <v>1600</v>
@@ -37159,7 +37160,7 @@
         <v>3310</v>
       </c>
       <c r="I296" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J296" s="18" t="s">
         <v>1600</v>
@@ -37188,7 +37189,7 @@
         <v>3310</v>
       </c>
       <c r="I297" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J297" s="18" t="s">
         <v>1600</v>
@@ -37217,7 +37218,7 @@
         <v>3310</v>
       </c>
       <c r="I298" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J298" s="18" t="s">
         <v>1600</v>
@@ -37246,7 +37247,7 @@
         <v>3310</v>
       </c>
       <c r="I299" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J299" s="18" t="s">
         <v>1600</v>
@@ -37275,7 +37276,7 @@
         <v>3310</v>
       </c>
       <c r="I300" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J300" s="18" t="s">
         <v>1600</v>
@@ -37304,7 +37305,7 @@
         <v>3310</v>
       </c>
       <c r="I301" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J301" s="18" t="s">
         <v>1600</v>
@@ -37333,7 +37334,7 @@
         <v>3310</v>
       </c>
       <c r="I302" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J302" s="18" t="s">
         <v>1600</v>
@@ -37391,7 +37392,7 @@
         <v>3310</v>
       </c>
       <c r="I304" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J304" s="18" t="s">
         <v>1600</v>
@@ -37420,7 +37421,7 @@
         <v>3310</v>
       </c>
       <c r="I305" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J305" s="18" t="s">
         <v>1600</v>
@@ -37478,7 +37479,7 @@
         <v>3310</v>
       </c>
       <c r="I307" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J307" s="18" t="s">
         <v>1600</v>
@@ -37507,7 +37508,7 @@
         <v>3310</v>
       </c>
       <c r="I308" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J308" s="18" t="s">
         <v>1600</v>
@@ -37565,7 +37566,7 @@
         <v>3310</v>
       </c>
       <c r="I310" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J310" s="18" t="s">
         <v>1600</v>
@@ -37623,7 +37624,7 @@
         <v>3310</v>
       </c>
       <c r="I312" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J312" s="18" t="s">
         <v>1600</v>
@@ -37652,7 +37653,7 @@
         <v>3310</v>
       </c>
       <c r="I313" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J313" s="18" t="s">
         <v>1600</v>
@@ -37681,7 +37682,7 @@
         <v>3310</v>
       </c>
       <c r="I314" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J314" s="18" t="s">
         <v>1600</v>
@@ -37710,7 +37711,7 @@
         <v>3310</v>
       </c>
       <c r="I315" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J315" s="18" t="s">
         <v>1600</v>
@@ -37739,7 +37740,7 @@
         <v>3310</v>
       </c>
       <c r="I316" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J316" s="18" t="s">
         <v>1600</v>
@@ -37768,7 +37769,7 @@
         <v>3310</v>
       </c>
       <c r="I317" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J317" s="18" t="s">
         <v>1600</v>
@@ -37797,7 +37798,7 @@
         <v>3310</v>
       </c>
       <c r="I318" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J318" s="18" t="s">
         <v>1600</v>
@@ -37826,7 +37827,7 @@
         <v>3310</v>
       </c>
       <c r="I319" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J319" s="18" t="s">
         <v>1600</v>
@@ -37855,7 +37856,7 @@
         <v>3310</v>
       </c>
       <c r="I320" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J320" s="18" t="s">
         <v>1600</v>
@@ -37884,7 +37885,7 @@
         <v>3310</v>
       </c>
       <c r="I321" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J321" s="18" t="s">
         <v>1600</v>
@@ -37913,7 +37914,7 @@
         <v>3310</v>
       </c>
       <c r="I322" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J322" s="18" t="s">
         <v>1600</v>
@@ -37942,7 +37943,7 @@
         <v>3310</v>
       </c>
       <c r="I323" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J323" s="18" t="s">
         <v>1600</v>
@@ -37971,7 +37972,7 @@
         <v>3310</v>
       </c>
       <c r="I324" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J324" s="18" t="s">
         <v>1600</v>
@@ -38029,7 +38030,7 @@
         <v>3310</v>
       </c>
       <c r="I326" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J326" s="18" t="s">
         <v>1600</v>
@@ -38058,7 +38059,7 @@
         <v>3310</v>
       </c>
       <c r="I327" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J327" s="18" t="s">
         <v>1600</v>
@@ -38087,7 +38088,7 @@
         <v>3310</v>
       </c>
       <c r="I328" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J328" s="18" t="s">
         <v>1600</v>
@@ -38116,7 +38117,7 @@
         <v>3310</v>
       </c>
       <c r="I329" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J329" s="18" t="s">
         <v>1600</v>
@@ -38145,7 +38146,7 @@
         <v>3310</v>
       </c>
       <c r="I330" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J330" s="18" t="s">
         <v>1600</v>
@@ -38174,7 +38175,7 @@
         <v>3310</v>
       </c>
       <c r="I331" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J331" s="18" t="s">
         <v>1600</v>
@@ -38203,7 +38204,7 @@
         <v>3310</v>
       </c>
       <c r="I332" s="18" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J332" s="18" t="s">
         <v>1600</v>

--- a/modencode_interface_submissions.xlsx
+++ b/modencode_interface_submissions.xlsx
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7595" uniqueCount="3323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7929" uniqueCount="3323">
   <si>
     <t>dataset_uuid</t>
   </si>
@@ -10621,7 +10621,7 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -10710,6 +10710,9 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="21" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -15134,50 +15137,50 @@
       <c r="U46" s="18"/>
       <c r="V46" s="18"/>
     </row>
-    <row r="47" spans="1:22" s="57" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B47" s="55" t="s">
+    <row r="47" spans="1:22" s="58" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B47" s="56" t="s">
         <v>3321</v>
       </c>
-      <c r="C47" s="55" t="s">
+      <c r="C47" s="56" t="s">
         <v>1600</v>
       </c>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="56" t="s">
         <v>3316</v>
       </c>
-      <c r="E47" s="55" t="s">
+      <c r="E47" s="56" t="s">
         <v>712</v>
       </c>
-      <c r="F47" s="55" t="s">
+      <c r="F47" s="56" t="s">
         <v>713</v>
       </c>
-      <c r="G47" s="55" t="s">
+      <c r="G47" s="56" t="s">
         <v>714</v>
       </c>
-      <c r="H47" s="55" t="s">
+      <c r="H47" s="56" t="s">
         <v>715</v>
       </c>
-      <c r="I47" s="55" t="s">
+      <c r="I47" s="56" t="s">
         <v>712</v>
       </c>
-      <c r="J47" s="55" t="s">
+      <c r="J47" s="56" t="s">
         <v>716</v>
       </c>
-      <c r="K47" s="55" t="s">
+      <c r="K47" s="56" t="s">
         <v>853</v>
       </c>
-      <c r="L47" s="55" t="s">
+      <c r="L47" s="56" t="s">
         <v>599</v>
       </c>
-      <c r="M47" s="55" t="s">
+      <c r="M47" s="56" t="s">
         <v>1262</v>
       </c>
-      <c r="N47" s="55" t="s">
+      <c r="N47" s="56" t="s">
         <v>1033</v>
       </c>
-      <c r="O47" s="55" t="s">
+      <c r="O47" s="56" t="s">
         <v>863</v>
       </c>
-      <c r="P47" s="56" t="s">
+      <c r="P47" s="57" t="s">
         <v>3322</v>
       </c>
     </row>
@@ -18289,49 +18292,49 @@
       <c r="U40" s="18"/>
       <c r="V40" s="18"/>
     </row>
-    <row r="41" spans="1:22" s="57" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A41" s="54"/>
-      <c r="B41" s="55" t="s">
+    <row r="41" spans="1:22" s="58" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A41" s="55"/>
+      <c r="B41" s="56" t="s">
         <v>3313</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="56" t="s">
         <v>3316</v>
       </c>
-      <c r="D41" s="55" t="s">
+      <c r="D41" s="56" t="s">
         <v>3317</v>
       </c>
-      <c r="E41" s="55" t="s">
+      <c r="E41" s="56" t="s">
         <v>3315</v>
       </c>
-      <c r="F41" s="55" t="s">
+      <c r="F41" s="56" t="s">
         <v>1032</v>
       </c>
-      <c r="G41" s="55" t="s">
+      <c r="G41" s="56" t="s">
         <v>403</v>
       </c>
-      <c r="H41" s="55" t="s">
+      <c r="H41" s="56" t="s">
         <v>3318</v>
       </c>
-      <c r="I41" s="55" t="s">
+      <c r="I41" s="56" t="s">
         <v>423</v>
       </c>
-      <c r="J41" s="56" t="s">
+      <c r="J41" s="57" t="s">
         <v>3319</v>
       </c>
-      <c r="K41" s="55" t="s">
+      <c r="K41" s="56" t="s">
         <v>3320</v>
       </c>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="54"/>
-      <c r="R41" s="54"/>
-      <c r="S41" s="54"/>
-      <c r="T41" s="54"/>
-      <c r="U41" s="54"/>
-      <c r="V41" s="54"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="55"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="55"/>
+      <c r="Q41" s="55"/>
+      <c r="R41" s="55"/>
+      <c r="S41" s="55"/>
+      <c r="T41" s="55"/>
+      <c r="U41" s="55"/>
+      <c r="V41" s="55"/>
     </row>
     <row r="42" spans="1:22" ht="12.75" customHeight="1">
       <c r="A42" s="18"/>
@@ -28545,8 +28548,8 @@
   <dimension ref="A1:R335"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I169" sqref="I169"/>
+      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -28633,7 +28636,10 @@
       <c r="G2" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="H2" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I2" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J2" s="18" t="s">
@@ -28662,7 +28668,10 @@
       <c r="G3" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="H3" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I3" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J3" s="18" t="s">
@@ -28691,7 +28700,10 @@
       <c r="G4" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="H4" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I4" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J4" s="18" t="s">
@@ -28720,6 +28732,9 @@
       <c r="G5" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H5" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I5" s="18" t="s">
         <v>2177</v>
       </c>
@@ -28749,7 +28764,10 @@
       <c r="G6" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I6" s="55" t="s">
+      <c r="H6" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I6" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J6" s="18" t="s">
@@ -28778,7 +28796,10 @@
       <c r="G7" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I7" s="55" t="s">
+      <c r="H7" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I7" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J7" s="18" t="s">
@@ -28807,7 +28828,10 @@
       <c r="G8" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="H8" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I8" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J8" s="18" t="s">
@@ -28836,7 +28860,10 @@
       <c r="G9" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="H9" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I9" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J9" s="18" t="s">
@@ -28865,7 +28892,10 @@
       <c r="G10" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I10" s="55" t="s">
+      <c r="H10" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I10" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J10" s="18" t="s">
@@ -28894,7 +28924,10 @@
       <c r="G11" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I11" s="55" t="s">
+      <c r="H11" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I11" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J11" s="18" t="s">
@@ -28923,7 +28956,10 @@
       <c r="G12" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I12" s="55" t="s">
+      <c r="H12" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I12" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J12" s="18" t="s">
@@ -28952,7 +28988,10 @@
       <c r="G13" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I13" s="55" t="s">
+      <c r="H13" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I13" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J13" s="18" t="s">
@@ -28981,7 +29020,10 @@
       <c r="G14" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I14" s="55" t="s">
+      <c r="H14" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I14" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J14" s="18" t="s">
@@ -29010,7 +29052,10 @@
       <c r="G15" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I15" s="55" t="s">
+      <c r="H15" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I15" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J15" s="18" t="s">
@@ -29039,7 +29084,10 @@
       <c r="G16" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I16" s="55" t="s">
+      <c r="H16" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I16" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J16" s="18" t="s">
@@ -29068,6 +29116,9 @@
       <c r="G17" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H17" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I17" s="18" t="s">
         <v>2177</v>
       </c>
@@ -29097,7 +29148,10 @@
       <c r="G18" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I18" s="55" t="s">
+      <c r="H18" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I18" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J18" s="18" t="s">
@@ -29126,7 +29180,10 @@
       <c r="G19" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I19" s="55" t="s">
+      <c r="H19" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I19" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J19" s="18" t="s">
@@ -29155,7 +29212,10 @@
       <c r="G20" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I20" s="55" t="s">
+      <c r="H20" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I20" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J20" s="18" t="s">
@@ -29184,7 +29244,10 @@
       <c r="G21" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I21" s="55" t="s">
+      <c r="H21" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I21" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J21" s="18" t="s">
@@ -29213,7 +29276,10 @@
       <c r="G22" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I22" s="55" t="s">
+      <c r="H22" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I22" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J22" s="18" t="s">
@@ -29242,7 +29308,10 @@
       <c r="G23" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I23" s="55" t="s">
+      <c r="H23" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I23" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J23" s="18" t="s">
@@ -29271,7 +29340,10 @@
       <c r="G24" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I24" s="55" t="s">
+      <c r="H24" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I24" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J24" s="18" t="s">
@@ -29300,7 +29372,10 @@
       <c r="G25" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I25" s="55" t="s">
+      <c r="H25" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I25" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J25" s="18" t="s">
@@ -29329,7 +29404,10 @@
       <c r="G26" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I26" s="55" t="s">
+      <c r="H26" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I26" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J26" s="18" t="s">
@@ -29358,7 +29436,10 @@
       <c r="G27" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I27" s="55" t="s">
+      <c r="H27" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I27" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J27" s="18" t="s">
@@ -29387,7 +29468,10 @@
       <c r="G28" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I28" s="55" t="s">
+      <c r="H28" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I28" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J28" s="18" t="s">
@@ -29416,7 +29500,10 @@
       <c r="G29" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I29" s="55" t="s">
+      <c r="H29" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I29" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J29" s="18" t="s">
@@ -29445,7 +29532,10 @@
       <c r="G30" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I30" s="55" t="s">
+      <c r="H30" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I30" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J30" s="18" t="s">
@@ -29474,7 +29564,10 @@
       <c r="G31" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I31" s="55" t="s">
+      <c r="H31" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I31" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J31" s="18" t="s">
@@ -29503,7 +29596,10 @@
       <c r="G32" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I32" s="55" t="s">
+      <c r="H32" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I32" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J32" s="18" t="s">
@@ -29532,7 +29628,10 @@
       <c r="G33" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I33" s="55" t="s">
+      <c r="H33" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I33" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J33" s="18" t="s">
@@ -29561,7 +29660,10 @@
       <c r="G34" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I34" s="55" t="s">
+      <c r="H34" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I34" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J34" s="18" t="s">
@@ -29590,7 +29692,10 @@
       <c r="G35" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I35" s="55" t="s">
+      <c r="H35" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I35" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J35" s="18" t="s">
@@ -29619,7 +29724,10 @@
       <c r="G36" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I36" s="55" t="s">
+      <c r="H36" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I36" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J36" s="18" t="s">
@@ -29648,7 +29756,10 @@
       <c r="G37" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I37" s="55" t="s">
+      <c r="H37" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I37" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J37" s="18" t="s">
@@ -29677,7 +29788,10 @@
       <c r="G38" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I38" s="55" t="s">
+      <c r="H38" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I38" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J38" s="18" t="s">
@@ -29706,7 +29820,10 @@
       <c r="G39" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I39" s="55" t="s">
+      <c r="H39" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I39" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J39" s="18" t="s">
@@ -29735,7 +29852,10 @@
       <c r="G40" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I40" s="55" t="s">
+      <c r="H40" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I40" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J40" s="18" t="s">
@@ -29764,7 +29884,10 @@
       <c r="G41" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I41" s="55" t="s">
+      <c r="H41" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I41" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J41" s="18" t="s">
@@ -29793,7 +29916,10 @@
       <c r="G42" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I42" s="55" t="s">
+      <c r="H42" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I42" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J42" s="18" t="s">
@@ -29822,7 +29948,10 @@
       <c r="G43" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I43" s="55" t="s">
+      <c r="H43" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I43" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J43" s="18" t="s">
@@ -29851,7 +29980,10 @@
       <c r="G44" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I44" s="55" t="s">
+      <c r="H44" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I44" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J44" s="18" t="s">
@@ -29880,7 +30012,10 @@
       <c r="G45" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I45" s="55" t="s">
+      <c r="H45" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I45" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J45" s="18" t="s">
@@ -29909,7 +30044,10 @@
       <c r="G46" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I46" s="55" t="s">
+      <c r="H46" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I46" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J46" s="18" t="s">
@@ -29938,7 +30076,10 @@
       <c r="G47" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I47" s="55" t="s">
+      <c r="H47" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I47" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J47" s="18" t="s">
@@ -29967,6 +30108,9 @@
       <c r="G48" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H48" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I48" s="18" t="s">
         <v>2177</v>
       </c>
@@ -29996,7 +30140,10 @@
       <c r="G49" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I49" s="55" t="s">
+      <c r="H49" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I49" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J49" s="18" t="s">
@@ -30025,7 +30172,10 @@
       <c r="G50" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I50" s="55" t="s">
+      <c r="H50" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I50" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J50" s="18" t="s">
@@ -30054,7 +30204,10 @@
       <c r="G51" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I51" s="55" t="s">
+      <c r="H51" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I51" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J51" s="18" t="s">
@@ -30083,7 +30236,10 @@
       <c r="G52" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I52" s="55" t="s">
+      <c r="H52" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I52" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J52" s="18" t="s">
@@ -30112,7 +30268,10 @@
       <c r="G53" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I53" s="55" t="s">
+      <c r="H53" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I53" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J53" s="18" t="s">
@@ -30141,7 +30300,10 @@
       <c r="G54" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I54" s="55" t="s">
+      <c r="H54" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I54" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J54" s="18" t="s">
@@ -30170,7 +30332,10 @@
       <c r="G55" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I55" s="55" t="s">
+      <c r="H55" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I55" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J55" s="18" t="s">
@@ -30199,7 +30364,10 @@
       <c r="G56" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I56" s="55" t="s">
+      <c r="H56" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I56" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J56" s="18" t="s">
@@ -30228,7 +30396,10 @@
       <c r="G57" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I57" s="55" t="s">
+      <c r="H57" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I57" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J57" s="18" t="s">
@@ -30257,6 +30428,9 @@
       <c r="G58" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H58" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I58" s="18" t="s">
         <v>2177</v>
       </c>
@@ -30286,7 +30460,10 @@
       <c r="G59" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I59" s="55" t="s">
+      <c r="H59" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I59" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J59" s="18" t="s">
@@ -30315,7 +30492,10 @@
       <c r="G60" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I60" s="55" t="s">
+      <c r="H60" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I60" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J60" s="18" t="s">
@@ -30344,6 +30524,9 @@
       <c r="G61" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H61" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I61" s="18" t="s">
         <v>2177</v>
       </c>
@@ -30373,7 +30556,10 @@
       <c r="G62" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I62" s="55" t="s">
+      <c r="H62" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I62" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J62" s="18" t="s">
@@ -30402,7 +30588,10 @@
       <c r="G63" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I63" s="55" t="s">
+      <c r="H63" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I63" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J63" s="18" t="s">
@@ -30431,7 +30620,10 @@
       <c r="G64" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I64" s="55" t="s">
+      <c r="H64" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I64" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J64" s="18" t="s">
@@ -30460,7 +30652,10 @@
       <c r="G65" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I65" s="55" t="s">
+      <c r="H65" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I65" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J65" s="18" t="s">
@@ -30489,7 +30684,10 @@
       <c r="G66" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I66" s="55" t="s">
+      <c r="H66" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I66" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J66" s="18" t="s">
@@ -30518,7 +30716,10 @@
       <c r="G67" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I67" s="55" t="s">
+      <c r="H67" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I67" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J67" s="18" t="s">
@@ -30547,7 +30748,10 @@
       <c r="G68" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I68" s="55" t="s">
+      <c r="H68" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I68" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J68" s="18" t="s">
@@ -30576,7 +30780,10 @@
       <c r="G69" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I69" s="55" t="s">
+      <c r="H69" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I69" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J69" s="18" t="s">
@@ -30605,7 +30812,10 @@
       <c r="G70" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I70" s="55" t="s">
+      <c r="H70" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I70" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J70" s="18" t="s">
@@ -30634,7 +30844,10 @@
       <c r="G71" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I71" s="55" t="s">
+      <c r="H71" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I71" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J71" s="18" t="s">
@@ -30663,7 +30876,10 @@
       <c r="G72" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I72" s="55" t="s">
+      <c r="H72" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I72" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J72" s="18" t="s">
@@ -30692,7 +30908,10 @@
       <c r="G73" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I73" s="55" t="s">
+      <c r="H73" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I73" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J73" s="18" t="s">
@@ -30721,7 +30940,10 @@
       <c r="G74" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I74" s="55" t="s">
+      <c r="H74" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I74" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J74" s="18" t="s">
@@ -30750,7 +30972,10 @@
       <c r="G75" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I75" s="55" t="s">
+      <c r="H75" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I75" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J75" s="18" t="s">
@@ -30779,7 +31004,10 @@
       <c r="G76" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I76" s="55" t="s">
+      <c r="H76" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I76" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J76" s="18" t="s">
@@ -30808,7 +31036,10 @@
       <c r="G77" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I77" s="55" t="s">
+      <c r="H77" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I77" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J77" s="18" t="s">
@@ -30837,7 +31068,10 @@
       <c r="G78" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I78" s="55" t="s">
+      <c r="H78" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I78" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J78" s="18" t="s">
@@ -30866,7 +31100,10 @@
       <c r="G79" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I79" s="55" t="s">
+      <c r="H79" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I79" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J79" s="18" t="s">
@@ -30895,7 +31132,10 @@
       <c r="G80" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I80" s="55" t="s">
+      <c r="H80" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I80" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J80" s="18" t="s">
@@ -30924,7 +31164,10 @@
       <c r="G81" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I81" s="55" t="s">
+      <c r="H81" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I81" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J81" s="18" t="s">
@@ -30953,7 +31196,10 @@
       <c r="G82" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I82" s="55" t="s">
+      <c r="H82" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I82" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J82" s="18" t="s">
@@ -30982,7 +31228,10 @@
       <c r="G83" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I83" s="55" t="s">
+      <c r="H83" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I83" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J83" s="18" t="s">
@@ -31011,7 +31260,10 @@
       <c r="G84" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I84" s="55" t="s">
+      <c r="H84" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I84" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J84" s="18" t="s">
@@ -31040,7 +31292,10 @@
       <c r="G85" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I85" s="55" t="s">
+      <c r="H85" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I85" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J85" s="18" t="s">
@@ -31069,7 +31324,10 @@
       <c r="G86" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I86" s="55" t="s">
+      <c r="H86" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I86" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J86" s="18" t="s">
@@ -31098,7 +31356,10 @@
       <c r="G87" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I87" s="55" t="s">
+      <c r="H87" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I87" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J87" s="18" t="s">
@@ -31127,7 +31388,10 @@
       <c r="G88" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I88" s="55" t="s">
+      <c r="H88" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I88" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J88" s="18" t="s">
@@ -31156,7 +31420,10 @@
       <c r="G89" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I89" s="55" t="s">
+      <c r="H89" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I89" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J89" s="18" t="s">
@@ -31185,7 +31452,10 @@
       <c r="G90" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I90" s="55" t="s">
+      <c r="H90" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I90" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J90" s="18" t="s">
@@ -31214,6 +31484,9 @@
       <c r="G91" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H91" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I91" s="18" t="s">
         <v>2177</v>
       </c>
@@ -31243,7 +31516,10 @@
       <c r="G92" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I92" s="55" t="s">
+      <c r="H92" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I92" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J92" s="18" t="s">
@@ -31272,7 +31548,10 @@
       <c r="G93" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I93" s="55" t="s">
+      <c r="H93" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I93" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J93" s="18" t="s">
@@ -31301,7 +31580,10 @@
       <c r="G94" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I94" s="55" t="s">
+      <c r="H94" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I94" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J94" s="18" t="s">
@@ -31330,6 +31612,9 @@
       <c r="G95" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H95" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I95" s="18" t="s">
         <v>2177</v>
       </c>
@@ -31359,7 +31644,10 @@
       <c r="G96" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I96" s="55" t="s">
+      <c r="H96" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I96" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J96" s="18" t="s">
@@ -31388,7 +31676,10 @@
       <c r="G97" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I97" s="55" t="s">
+      <c r="H97" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I97" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J97" s="18" t="s">
@@ -31417,7 +31708,10 @@
       <c r="G98" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I98" s="55" t="s">
+      <c r="H98" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I98" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J98" s="18" t="s">
@@ -31446,7 +31740,10 @@
       <c r="G99" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I99" s="55" t="s">
+      <c r="H99" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I99" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J99" s="18" t="s">
@@ -31475,7 +31772,10 @@
       <c r="G100" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I100" s="55" t="s">
+      <c r="H100" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I100" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J100" s="18" t="s">
@@ -31504,7 +31804,10 @@
       <c r="G101" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I101" s="55" t="s">
+      <c r="H101" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I101" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J101" s="18" t="s">
@@ -31533,7 +31836,10 @@
       <c r="G102" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I102" s="55" t="s">
+      <c r="H102" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I102" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J102" s="18" t="s">
@@ -31562,7 +31868,10 @@
       <c r="G103" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I103" s="55" t="s">
+      <c r="H103" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I103" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J103" s="18" t="s">
@@ -31591,7 +31900,10 @@
       <c r="G104" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I104" s="55" t="s">
+      <c r="H104" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I104" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J104" s="18" t="s">
@@ -31620,6 +31932,9 @@
       <c r="G105" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H105" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I105" s="18" t="s">
         <v>2177</v>
       </c>
@@ -31649,7 +31964,10 @@
       <c r="G106" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I106" s="55" t="s">
+      <c r="H106" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I106" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J106" s="18" t="s">
@@ -31678,7 +31996,10 @@
       <c r="G107" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I107" s="55" t="s">
+      <c r="H107" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I107" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J107" s="18" t="s">
@@ -31707,7 +32028,10 @@
       <c r="G108" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I108" s="55" t="s">
+      <c r="H108" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I108" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J108" s="18" t="s">
@@ -31736,7 +32060,10 @@
       <c r="G109" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I109" s="55" t="s">
+      <c r="H109" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I109" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J109" s="18" t="s">
@@ -31765,7 +32092,10 @@
       <c r="G110" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I110" s="55" t="s">
+      <c r="H110" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I110" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J110" s="18" t="s">
@@ -31794,7 +32124,10 @@
       <c r="G111" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I111" s="55" t="s">
+      <c r="H111" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I111" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J111" s="18" t="s">
@@ -31823,7 +32156,10 @@
       <c r="G112" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I112" s="55" t="s">
+      <c r="H112" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I112" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J112" s="18" t="s">
@@ -31852,7 +32188,10 @@
       <c r="G113" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I113" s="55" t="s">
+      <c r="H113" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I113" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J113" s="18" t="s">
@@ -31881,7 +32220,10 @@
       <c r="G114" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I114" s="55" t="s">
+      <c r="H114" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I114" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J114" s="18" t="s">
@@ -31910,7 +32252,10 @@
       <c r="G115" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I115" s="55" t="s">
+      <c r="H115" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I115" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J115" s="18" t="s">
@@ -31939,6 +32284,9 @@
       <c r="G116" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H116" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I116" s="18" t="s">
         <v>2177</v>
       </c>
@@ -31968,7 +32316,10 @@
       <c r="G117" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I117" s="55" t="s">
+      <c r="H117" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I117" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J117" s="18" t="s">
@@ -31997,7 +32348,10 @@
       <c r="G118" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I118" s="55" t="s">
+      <c r="H118" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I118" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J118" s="18" t="s">
@@ -32026,7 +32380,10 @@
       <c r="G119" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I119" s="55" t="s">
+      <c r="H119" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I119" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J119" s="18" t="s">
@@ -32055,7 +32412,10 @@
       <c r="G120" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I120" s="55" t="s">
+      <c r="H120" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I120" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J120" s="18" t="s">
@@ -32084,7 +32444,10 @@
       <c r="G121" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I121" s="55" t="s">
+      <c r="H121" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I121" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J121" s="18" t="s">
@@ -32113,7 +32476,10 @@
       <c r="G122" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I122" s="55" t="s">
+      <c r="H122" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I122" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J122" s="18" t="s">
@@ -32142,7 +32508,10 @@
       <c r="G123" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I123" s="55" t="s">
+      <c r="H123" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I123" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J123" s="18" t="s">
@@ -32171,7 +32540,10 @@
       <c r="G124" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I124" s="55" t="s">
+      <c r="H124" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I124" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J124" s="18" t="s">
@@ -32200,7 +32572,10 @@
       <c r="G125" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I125" s="55" t="s">
+      <c r="H125" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I125" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J125" s="18" t="s">
@@ -32229,7 +32604,10 @@
       <c r="G126" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I126" s="55" t="s">
+      <c r="H126" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I126" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J126" s="18" t="s">
@@ -32258,7 +32636,10 @@
       <c r="G127" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I127" s="55" t="s">
+      <c r="H127" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I127" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J127" s="18" t="s">
@@ -32287,7 +32668,10 @@
       <c r="G128" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I128" s="55" t="s">
+      <c r="H128" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I128" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J128" s="18" t="s">
@@ -32316,7 +32700,10 @@
       <c r="G129" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I129" s="55" t="s">
+      <c r="H129" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I129" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J129" s="18" t="s">
@@ -32345,7 +32732,10 @@
       <c r="G130" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I130" s="55" t="s">
+      <c r="H130" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I130" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J130" s="18" t="s">
@@ -32374,7 +32764,10 @@
       <c r="G131" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I131" s="55" t="s">
+      <c r="H131" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I131" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J131" s="18" t="s">
@@ -32403,6 +32796,9 @@
       <c r="G132" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H132" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I132" s="18" t="s">
         <v>2177</v>
       </c>
@@ -32432,7 +32828,10 @@
       <c r="G133" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I133" s="55" t="s">
+      <c r="H133" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I133" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J133" s="18" t="s">
@@ -32461,7 +32860,10 @@
       <c r="G134" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I134" s="55" t="s">
+      <c r="H134" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I134" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J134" s="18" t="s">
@@ -32490,7 +32892,10 @@
       <c r="G135" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I135" s="55" t="s">
+      <c r="H135" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I135" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J135" s="18" t="s">
@@ -32519,7 +32924,10 @@
       <c r="G136" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I136" s="55" t="s">
+      <c r="H136" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I136" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J136" s="18" t="s">
@@ -32548,6 +32956,9 @@
       <c r="G137" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H137" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I137" s="18" t="s">
         <v>2177</v>
       </c>
@@ -32577,7 +32988,10 @@
       <c r="G138" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I138" s="55" t="s">
+      <c r="H138" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I138" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J138" s="18" t="s">
@@ -32606,7 +33020,10 @@
       <c r="G139" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I139" s="55" t="s">
+      <c r="H139" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I139" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J139" s="18" t="s">
@@ -32635,7 +33052,10 @@
       <c r="G140" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I140" s="55" t="s">
+      <c r="H140" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I140" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J140" s="18" t="s">
@@ -32664,7 +33084,10 @@
       <c r="G141" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I141" s="55" t="s">
+      <c r="H141" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I141" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J141" s="18" t="s">
@@ -32693,7 +33116,10 @@
       <c r="G142" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I142" s="55" t="s">
+      <c r="H142" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I142" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J142" s="18" t="s">
@@ -32722,7 +33148,10 @@
       <c r="G143" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I143" s="55" t="s">
+      <c r="H143" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I143" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J143" s="18" t="s">
@@ -32751,7 +33180,10 @@
       <c r="G144" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I144" s="55" t="s">
+      <c r="H144" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I144" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J144" s="18" t="s">
@@ -32780,7 +33212,10 @@
       <c r="G145" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I145" s="55" t="s">
+      <c r="H145" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I145" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J145" s="18" t="s">
@@ -32809,7 +33244,10 @@
       <c r="G146" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I146" s="55" t="s">
+      <c r="H146" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I146" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J146" s="18" t="s">
@@ -32838,7 +33276,10 @@
       <c r="G147" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I147" s="55" t="s">
+      <c r="H147" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I147" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J147" s="18" t="s">
@@ -32867,6 +33308,9 @@
       <c r="G148" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H148" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I148" s="18" t="s">
         <v>2177</v>
       </c>
@@ -32896,7 +33340,10 @@
       <c r="G149" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I149" s="55" t="s">
+      <c r="H149" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I149" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J149" s="18" t="s">
@@ -32925,7 +33372,10 @@
       <c r="G150" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I150" s="55" t="s">
+      <c r="H150" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I150" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J150" s="18" t="s">
@@ -32954,7 +33404,10 @@
       <c r="G151" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I151" s="55" t="s">
+      <c r="H151" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I151" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J151" s="18" t="s">
@@ -32983,7 +33436,10 @@
       <c r="G152" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I152" s="55" t="s">
+      <c r="H152" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I152" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J152" s="18" t="s">
@@ -33012,7 +33468,10 @@
       <c r="G153" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I153" s="55" t="s">
+      <c r="H153" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I153" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J153" s="18" t="s">
@@ -33041,7 +33500,10 @@
       <c r="G154" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I154" s="55" t="s">
+      <c r="H154" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I154" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J154" s="18" t="s">
@@ -33070,7 +33532,10 @@
       <c r="G155" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I155" s="55" t="s">
+      <c r="H155" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I155" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J155" s="18" t="s">
@@ -33099,7 +33564,10 @@
       <c r="G156" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I156" s="55" t="s">
+      <c r="H156" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I156" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J156" s="18" t="s">
@@ -33128,7 +33596,10 @@
       <c r="G157" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I157" s="55" t="s">
+      <c r="H157" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I157" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J157" s="18" t="s">
@@ -33157,7 +33628,10 @@
       <c r="G158" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I158" s="55" t="s">
+      <c r="H158" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I158" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J158" s="18" t="s">
@@ -33186,7 +33660,10 @@
       <c r="G159" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I159" s="55" t="s">
+      <c r="H159" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I159" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J159" s="18" t="s">
@@ -33215,7 +33692,10 @@
       <c r="G160" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I160" s="55" t="s">
+      <c r="H160" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I160" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J160" s="18" t="s">
@@ -33244,7 +33724,10 @@
       <c r="G161" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I161" s="55" t="s">
+      <c r="H161" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I161" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J161" s="18" t="s">
@@ -33273,7 +33756,10 @@
       <c r="G162" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I162" s="55" t="s">
+      <c r="H162" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I162" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J162" s="18" t="s">
@@ -33302,7 +33788,10 @@
       <c r="G163" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I163" s="55" t="s">
+      <c r="H163" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I163" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J163" s="18" t="s">
@@ -33331,7 +33820,10 @@
       <c r="G164" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I164" s="55" t="s">
+      <c r="H164" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I164" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J164" s="18" t="s">
@@ -33360,7 +33852,10 @@
       <c r="G165" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I165" s="55" t="s">
+      <c r="H165" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I165" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J165" s="18" t="s">
@@ -33389,7 +33884,10 @@
       <c r="G166" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I166" s="55" t="s">
+      <c r="H166" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I166" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J166" s="18" t="s">
@@ -33418,7 +33916,10 @@
       <c r="G167" s="11" t="s">
         <v>3310</v>
       </c>
-      <c r="I167" s="55" t="s">
+      <c r="H167" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="I167" s="56" t="s">
         <v>3316</v>
       </c>
       <c r="J167" s="18" t="s">
@@ -33447,6 +33948,9 @@
       <c r="G168" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H168" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I168" s="18" t="s">
         <v>2177</v>
       </c>
@@ -33476,6 +33980,9 @@
       <c r="G169" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H169" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I169" s="18" t="s">
         <v>3316</v>
       </c>
@@ -33505,6 +34012,9 @@
       <c r="G170" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H170" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I170" s="18" t="s">
         <v>3316</v>
       </c>
@@ -33534,6 +34044,9 @@
       <c r="G171" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H171" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I171" s="18" t="s">
         <v>3316</v>
       </c>
@@ -33563,6 +34076,9 @@
       <c r="G172" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H172" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I172" s="18" t="s">
         <v>3316</v>
       </c>
@@ -33592,6 +34108,9 @@
       <c r="G173" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H173" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I173" s="18" t="s">
         <v>3316</v>
       </c>
@@ -33621,6 +34140,9 @@
       <c r="G174" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H174" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I174" s="18" t="s">
         <v>3316</v>
       </c>
@@ -33650,6 +34172,9 @@
       <c r="G175" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H175" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I175" s="18" t="s">
         <v>2177</v>
       </c>
@@ -33679,6 +34204,9 @@
       <c r="G176" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H176" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I176" s="18" t="s">
         <v>3316</v>
       </c>
@@ -33708,6 +34236,9 @@
       <c r="G177" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H177" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I177" s="18" t="s">
         <v>3316</v>
       </c>
@@ -33737,6 +34268,9 @@
       <c r="G178" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H178" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I178" s="18" t="s">
         <v>3316</v>
       </c>
@@ -33766,6 +34300,9 @@
       <c r="G179" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H179" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I179" s="18" t="s">
         <v>3316</v>
       </c>
@@ -33795,6 +34332,9 @@
       <c r="G180" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H180" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I180" s="18" t="s">
         <v>3316</v>
       </c>
@@ -33824,6 +34364,9 @@
       <c r="G181" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H181" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I181" s="18" t="s">
         <v>3316</v>
       </c>
@@ -33853,6 +34396,9 @@
       <c r="G182" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H182" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I182" s="18" t="s">
         <v>3316</v>
       </c>
@@ -33882,6 +34428,9 @@
       <c r="G183" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H183" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I183" s="18" t="s">
         <v>3316</v>
       </c>
@@ -33911,6 +34460,9 @@
       <c r="G184" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H184" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I184" s="18" t="s">
         <v>3316</v>
       </c>
@@ -33940,6 +34492,9 @@
       <c r="G185" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H185" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I185" s="18" t="s">
         <v>3316</v>
       </c>
@@ -33969,6 +34524,9 @@
       <c r="G186" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H186" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I186" s="18" t="s">
         <v>3316</v>
       </c>
@@ -33998,6 +34556,9 @@
       <c r="G187" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H187" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I187" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34027,6 +34588,9 @@
       <c r="G188" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H188" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I188" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34056,6 +34620,9 @@
       <c r="G189" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H189" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I189" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34085,6 +34652,9 @@
       <c r="G190" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H190" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I190" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34114,6 +34684,9 @@
       <c r="G191" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H191" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I191" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34143,6 +34716,9 @@
       <c r="G192" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H192" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I192" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34172,6 +34748,9 @@
       <c r="G193" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H193" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I193" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34201,6 +34780,9 @@
       <c r="G194" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H194" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I194" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34230,6 +34812,9 @@
       <c r="G195" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H195" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I195" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34259,6 +34844,9 @@
       <c r="G196" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H196" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I196" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34288,6 +34876,9 @@
       <c r="G197" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H197" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I197" s="18" t="s">
         <v>2177</v>
       </c>
@@ -34317,6 +34908,9 @@
       <c r="G198" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H198" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I198" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34346,6 +34940,9 @@
       <c r="G199" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H199" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I199" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34375,6 +34972,9 @@
       <c r="G200" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H200" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I200" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34404,6 +35004,9 @@
       <c r="G201" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H201" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I201" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34433,6 +35036,9 @@
       <c r="G202" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H202" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I202" s="18" t="s">
         <v>2177</v>
       </c>
@@ -34462,6 +35068,9 @@
       <c r="G203" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H203" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I203" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34491,6 +35100,9 @@
       <c r="G204" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H204" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I204" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34520,6 +35132,9 @@
       <c r="G205" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H205" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I205" s="18" t="s">
         <v>2177</v>
       </c>
@@ -34549,6 +35164,9 @@
       <c r="G206" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H206" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I206" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34578,6 +35196,9 @@
       <c r="G207" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H207" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I207" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34607,6 +35228,9 @@
       <c r="G208" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H208" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I208" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34636,6 +35260,9 @@
       <c r="G209" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H209" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I209" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34665,6 +35292,9 @@
       <c r="G210" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H210" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I210" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34694,6 +35324,9 @@
       <c r="G211" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H211" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I211" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34723,6 +35356,9 @@
       <c r="G212" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H212" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I212" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34752,6 +35388,9 @@
       <c r="G213" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H213" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I213" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34781,6 +35420,9 @@
       <c r="G214" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H214" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I214" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34810,6 +35452,9 @@
       <c r="G215" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H215" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I215" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34839,6 +35484,9 @@
       <c r="G216" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H216" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I216" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34868,6 +35516,9 @@
       <c r="G217" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H217" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I217" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34897,6 +35548,9 @@
       <c r="G218" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H218" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I218" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34926,6 +35580,9 @@
       <c r="G219" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H219" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I219" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34955,6 +35612,9 @@
       <c r="G220" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H220" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I220" s="18" t="s">
         <v>3316</v>
       </c>
@@ -34984,6 +35644,9 @@
       <c r="G221" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H221" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I221" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35013,6 +35676,9 @@
       <c r="G222" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H222" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I222" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35042,6 +35708,9 @@
       <c r="G223" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H223" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I223" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35071,6 +35740,9 @@
       <c r="G224" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H224" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I224" s="18" t="s">
         <v>2177</v>
       </c>
@@ -35100,6 +35772,9 @@
       <c r="G225" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H225" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I225" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35129,6 +35804,9 @@
       <c r="G226" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H226" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I226" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35158,6 +35836,9 @@
       <c r="G227" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H227" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I227" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35187,6 +35868,9 @@
       <c r="G228" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H228" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I228" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35216,6 +35900,9 @@
       <c r="G229" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H229" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I229" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35245,6 +35932,9 @@
       <c r="G230" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H230" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I230" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35274,6 +35964,9 @@
       <c r="G231" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H231" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I231" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35303,6 +35996,9 @@
       <c r="G232" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H232" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I232" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35332,6 +36028,9 @@
       <c r="G233" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H233" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I233" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35361,6 +36060,9 @@
       <c r="G234" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H234" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I234" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35390,6 +36092,9 @@
       <c r="G235" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H235" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I235" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35419,6 +36124,9 @@
       <c r="G236" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H236" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I236" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35448,6 +36156,9 @@
       <c r="G237" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H237" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I237" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35477,6 +36188,9 @@
       <c r="G238" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H238" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I238" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35506,6 +36220,9 @@
       <c r="G239" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H239" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I239" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35535,6 +36252,9 @@
       <c r="G240" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H240" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I240" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35564,6 +36284,9 @@
       <c r="G241" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H241" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I241" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35593,6 +36316,9 @@
       <c r="G242" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H242" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I242" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35622,6 +36348,9 @@
       <c r="G243" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H243" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I243" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35651,6 +36380,9 @@
       <c r="G244" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H244" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I244" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35680,6 +36412,9 @@
       <c r="G245" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H245" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I245" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35709,6 +36444,9 @@
       <c r="G246" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H246" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I246" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35738,6 +36476,9 @@
       <c r="G247" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H247" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I247" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35767,6 +36508,9 @@
       <c r="G248" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H248" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I248" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35796,6 +36540,9 @@
       <c r="G249" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H249" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I249" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35825,6 +36572,9 @@
       <c r="G250" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H250" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I250" s="18" t="s">
         <v>2177</v>
       </c>
@@ -35854,6 +36604,9 @@
       <c r="G251" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H251" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I251" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35883,6 +36636,9 @@
       <c r="G252" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H252" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I252" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35912,6 +36668,9 @@
       <c r="G253" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H253" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I253" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35941,6 +36700,9 @@
       <c r="G254" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H254" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I254" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35970,6 +36732,9 @@
       <c r="G255" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H255" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I255" s="18" t="s">
         <v>3316</v>
       </c>
@@ -35999,6 +36764,9 @@
       <c r="G256" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H256" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I256" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36028,6 +36796,9 @@
       <c r="G257" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H257" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I257" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36057,6 +36828,9 @@
       <c r="G258" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H258" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I258" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36086,6 +36860,9 @@
       <c r="G259" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H259" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I259" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36115,6 +36892,9 @@
       <c r="G260" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H260" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I260" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36144,6 +36924,9 @@
       <c r="G261" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H261" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I261" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36173,6 +36956,9 @@
       <c r="G262" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H262" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I262" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36202,6 +36988,9 @@
       <c r="G263" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H263" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I263" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36231,6 +37020,9 @@
       <c r="G264" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H264" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I264" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36260,6 +37052,9 @@
       <c r="G265" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H265" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I265" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36289,6 +37084,9 @@
       <c r="G266" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H266" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I266" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36318,6 +37116,9 @@
       <c r="G267" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H267" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I267" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36347,6 +37148,9 @@
       <c r="G268" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H268" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I268" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36376,6 +37180,9 @@
       <c r="G269" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H269" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I269" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36405,6 +37212,9 @@
       <c r="G270" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H270" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I270" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36434,6 +37244,9 @@
       <c r="G271" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H271" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I271" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36463,6 +37276,9 @@
       <c r="G272" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H272" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I272" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36492,6 +37308,9 @@
       <c r="G273" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H273" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I273" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36521,6 +37340,9 @@
       <c r="G274" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H274" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I274" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36550,6 +37372,9 @@
       <c r="G275" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H275" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I275" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36579,6 +37404,9 @@
       <c r="G276" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H276" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I276" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36608,6 +37436,9 @@
       <c r="G277" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H277" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I277" s="18" t="s">
         <v>2177</v>
       </c>
@@ -36637,6 +37468,9 @@
       <c r="G278" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H278" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I278" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36666,6 +37500,9 @@
       <c r="G279" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H279" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I279" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36695,6 +37532,9 @@
       <c r="G280" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H280" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I280" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36724,6 +37564,9 @@
       <c r="G281" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H281" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I281" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36753,6 +37596,9 @@
       <c r="G282" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H282" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I282" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36782,6 +37628,9 @@
       <c r="G283" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H283" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I283" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36811,6 +37660,9 @@
       <c r="G284" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H284" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I284" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36840,6 +37692,9 @@
       <c r="G285" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H285" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I285" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36869,6 +37724,9 @@
       <c r="G286" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H286" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I286" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36898,6 +37756,9 @@
       <c r="G287" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H287" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I287" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36927,6 +37788,9 @@
       <c r="G288" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H288" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I288" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36956,6 +37820,9 @@
       <c r="G289" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H289" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I289" s="18" t="s">
         <v>3316</v>
       </c>
@@ -36985,6 +37852,9 @@
       <c r="G290" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H290" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I290" s="18" t="s">
         <v>3316</v>
       </c>
@@ -37014,6 +37884,9 @@
       <c r="G291" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H291" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I291" s="18" t="s">
         <v>3316</v>
       </c>
@@ -37043,6 +37916,9 @@
       <c r="G292" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H292" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I292" s="18" t="s">
         <v>3316</v>
       </c>
@@ -37072,6 +37948,9 @@
       <c r="G293" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H293" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I293" s="18" t="s">
         <v>3316</v>
       </c>
@@ -37101,6 +37980,9 @@
       <c r="G294" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H294" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I294" s="18" t="s">
         <v>3316</v>
       </c>
@@ -37130,6 +38012,9 @@
       <c r="G295" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H295" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I295" s="18" t="s">
         <v>3316</v>
       </c>
@@ -37159,6 +38044,9 @@
       <c r="G296" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H296" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I296" s="18" t="s">
         <v>3316</v>
       </c>
@@ -37188,6 +38076,9 @@
       <c r="G297" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H297" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I297" s="18" t="s">
         <v>3316</v>
       </c>
@@ -37217,6 +38108,9 @@
       <c r="G298" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H298" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I298" s="18" t="s">
         <v>3316</v>
       </c>
@@ -37246,6 +38140,9 @@
       <c r="G299" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H299" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I299" s="18" t="s">
         <v>3316</v>
       </c>
@@ -37275,6 +38172,9 @@
       <c r="G300" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H300" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I300" s="18" t="s">
         <v>3316</v>
       </c>
@@ -37304,6 +38204,9 @@
       <c r="G301" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H301" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I301" s="18" t="s">
         <v>3316</v>
       </c>
@@ -37333,6 +38236,9 @@
       <c r="G302" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H302" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I302" s="18" t="s">
         <v>3316</v>
       </c>
@@ -37362,6 +38268,9 @@
       <c r="G303" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H303" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I303" s="18" t="s">
         <v>2177</v>
       </c>
@@ -37391,6 +38300,9 @@
       <c r="G304" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H304" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I304" s="18" t="s">
         <v>3316</v>
       </c>
@@ -37420,6 +38332,9 @@
       <c r="G305" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H305" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I305" s="18" t="s">
         <v>3316</v>
       </c>
@@ -37449,6 +38364,9 @@
       <c r="G306" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H306" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I306" s="18" t="s">
         <v>2177</v>
       </c>
@@ -37478,6 +38396,9 @@
       <c r="G307" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H307" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I307" s="18" t="s">
         <v>3316</v>
       </c>
@@ -37507,6 +38428,9 @@
       <c r="G308" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H308" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I308" s="18" t="s">
         <v>3316</v>
       </c>
@@ -37536,6 +38460,9 @@
       <c r="G309" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H309" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I309" s="18" t="s">
         <v>2177</v>
       </c>
@@ -37565,6 +38492,9 @@
       <c r="G310" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H310" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I310" s="18" t="s">
         <v>3316</v>
       </c>
@@ -37594,6 +38524,9 @@
       <c r="G311" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H311" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I311" s="18" t="s">
         <v>2177</v>
       </c>
@@ -37623,6 +38556,9 @@
       <c r="G312" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H312" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I312" s="18" t="s">
         <v>3316</v>
       </c>
@@ -37652,6 +38588,9 @@
       <c r="G313" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H313" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I313" s="18" t="s">
         <v>3316</v>
       </c>
@@ -37681,6 +38620,9 @@
       <c r="G314" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H314" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I314" s="18" t="s">
         <v>3316</v>
       </c>
@@ -37710,6 +38652,9 @@
       <c r="G315" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H315" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I315" s="18" t="s">
         <v>3316</v>
       </c>
@@ -37739,6 +38684,9 @@
       <c r="G316" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H316" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I316" s="18" t="s">
         <v>3316</v>
       </c>
@@ -37768,6 +38716,9 @@
       <c r="G317" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H317" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I317" s="18" t="s">
         <v>3316</v>
       </c>
@@ -37797,6 +38748,9 @@
       <c r="G318" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H318" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I318" s="18" t="s">
         <v>3316</v>
       </c>
@@ -37826,6 +38780,9 @@
       <c r="G319" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H319" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I319" s="18" t="s">
         <v>3316</v>
       </c>
@@ -37855,6 +38812,9 @@
       <c r="G320" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H320" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I320" s="18" t="s">
         <v>3316</v>
       </c>
@@ -37884,6 +38844,9 @@
       <c r="G321" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H321" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I321" s="18" t="s">
         <v>3316</v>
       </c>
@@ -37913,6 +38876,9 @@
       <c r="G322" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H322" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I322" s="18" t="s">
         <v>3316</v>
       </c>
@@ -37942,6 +38908,9 @@
       <c r="G323" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H323" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I323" s="18" t="s">
         <v>3316</v>
       </c>
@@ -37971,6 +38940,9 @@
       <c r="G324" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H324" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I324" s="18" t="s">
         <v>3316</v>
       </c>
@@ -38000,6 +38972,9 @@
       <c r="G325" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H325" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I325" s="18" t="s">
         <v>2177</v>
       </c>
@@ -38029,6 +39004,9 @@
       <c r="G326" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H326" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I326" s="18" t="s">
         <v>3316</v>
       </c>
@@ -38058,6 +39036,9 @@
       <c r="G327" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H327" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I327" s="18" t="s">
         <v>3316</v>
       </c>
@@ -38087,6 +39068,9 @@
       <c r="G328" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H328" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I328" s="18" t="s">
         <v>3316</v>
       </c>
@@ -38116,6 +39100,9 @@
       <c r="G329" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H329" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I329" s="18" t="s">
         <v>3316</v>
       </c>
@@ -38145,6 +39132,9 @@
       <c r="G330" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H330" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I330" s="18" t="s">
         <v>3316</v>
       </c>
@@ -38174,6 +39164,9 @@
       <c r="G331" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H331" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I331" s="18" t="s">
         <v>3316</v>
       </c>
@@ -38203,6 +39196,9 @@
       <c r="G332" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H332" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I332" s="18" t="s">
         <v>3316</v>
       </c>
@@ -38232,6 +39228,9 @@
       <c r="G333" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H333" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I333" s="18" t="s">
         <v>3314</v>
       </c>
@@ -38261,6 +39260,9 @@
       <c r="G334" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H334" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I334" s="18" t="s">
         <v>3314</v>
       </c>
@@ -38290,6 +39292,9 @@
       <c r="G335" s="11" t="s">
         <v>3310</v>
       </c>
+      <c r="H335" s="54" t="s">
+        <v>876</v>
+      </c>
       <c r="I335" s="18" t="s">
         <v>3314</v>
       </c>
@@ -38302,10 +39307,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="37" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3:H335" r:id="rId2" display="jseth@stanford.edu"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
